--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1526,27 +1526,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2023-05-20T00:50:00</t>
+          <t>2023-05-23T20:00:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2023-05-21T01:00:00</t>
+          <t>2023-05-24T03:01:00</t>
         </is>
       </c>
     </row>
@@ -1566,27 +1566,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Prince Rupert</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>CAPRR</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2023-05-23T03:08:00</t>
+          <t>2023-06-01T01:00:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2023-05-23T08:09:00</t>
+          <t>2023-06-03T01:00:00</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Prince Rupert</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CAPRR</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1621,12 +1621,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2023-06-01T01:00:00</t>
+          <t>2023-06-06T08:00:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2023-06-03T01:00:00</t>
+          <t>2023-06-10T08:00:00</t>
         </is>
       </c>
     </row>
@@ -1646,27 +1646,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CAVAN</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2023-06-06T08:00:00</t>
+          <t>2023-06-23T22:00:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2023-06-10T08:00:00</t>
+          <t>2023-06-24T07:00:00</t>
         </is>
       </c>
     </row>
@@ -1686,27 +1686,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2023-06-23T22:00:00</t>
+          <t>2023-06-26T13:00:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2023-06-24T07:00:00</t>
+          <t>2023-06-27T00:01:00</t>
         </is>
       </c>
     </row>
@@ -1726,27 +1726,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2023-06-26T13:00:00</t>
+          <t>2023-06-29T13:00:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2023-06-27T00:01:00</t>
+          <t>2023-06-30T07:00:00</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2023-06-29T13:00:00</t>
+          <t>2023-07-01T15:00:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2023-06-30T07:00:00</t>
+          <t>2023-07-02T09:00:00</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2023-07-01T15:00:00</t>
+          <t>2023-07-04T11:00:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2023-07-02T09:00:00</t>
+          <t>2023-07-05T03:01:00</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1861,12 +1861,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2023-07-04T11:00:00</t>
+          <t>2023-07-06T00:01:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2023-07-05T03:01:00</t>
+          <t>2023-07-07T00:01:00</t>
         </is>
       </c>
     </row>
@@ -1886,27 +1886,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2023-07-06T00:01:00</t>
+          <t>2023-07-08T21:00:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2023-07-07T00:01:00</t>
+          <t>2023-07-09T19:00:00</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1926,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2023-07-08T21:00:00</t>
+          <t>2023-07-11T22:00:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2023-07-09T19:00:00</t>
+          <t>2023-07-12T03:01:00</t>
         </is>
       </c>
     </row>
@@ -1966,27 +1966,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Prince Rupert</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>CAPRR</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2023-07-11T22:00:00</t>
+          <t>2023-07-22T01:00:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2023-07-12T03:01:00</t>
+          <t>2023-07-24T01:00:00</t>
         </is>
       </c>
     </row>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Prince Rupert</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CAPRR</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2023-07-22T01:00:00</t>
+          <t>2023-07-29T01:00:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2023-07-24T01:00:00</t>
+          <t>2023-08-02T01:00:00</t>
         </is>
       </c>
     </row>
@@ -2046,27 +2046,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CAVAN</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2023-07-29T01:00:00</t>
+          <t>2023-08-13T01:00:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2023-08-02T01:00:00</t>
+          <t>2023-08-13T10:00:00</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2086,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2023-08-13T01:00:00</t>
+          <t>2023-08-15T23:00:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2023-08-13T10:00:00</t>
+          <t>2023-08-16T10:00:00</t>
         </is>
       </c>
     </row>
@@ -2116,37 +2116,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAERSK SANTANA</t>
+          <t>MAERSK ELBA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9289934</t>
+          <t>9458078</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Lazaro Cardenas</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>MXLZC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2023-08-15T23:00:00</t>
+          <t>2023-05-22T20:30:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2023-08-16T10:00:00</t>
+          <t>2023-05-24T09:30:00</t>
         </is>
       </c>
     </row>
@@ -2166,12 +2166,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Lazaro Cardenas</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MXLZC</t>
+          <t>MXZLO</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2023-05-22T20:30:00</t>
+          <t>2023-05-24T20:00:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2023-05-24T09:30:00</t>
+          <t>2023-05-26T16:00:00</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2206,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Guayaquil</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MXZLO</t>
+          <t>ECGYE</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2023-05-24T20:00:00</t>
+          <t>2023-05-31T03:00:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2023-05-26T16:00:00</t>
+          <t>2023-06-01T10:00:00</t>
         </is>
       </c>
     </row>
@@ -2246,27 +2246,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ECGYE</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2023-05-31T03:00:00</t>
+          <t>2023-06-03T08:00:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2023-06-01T10:00:00</t>
+          <t>2023-06-04T20:00:00</t>
         </is>
       </c>
     </row>
@@ -2286,27 +2286,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>MXZLO</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2023-06-03T08:00:00</t>
+          <t>2023-06-09T15:30:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2023-06-04T20:00:00</t>
+          <t>2023-06-10T17:30:00</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2326,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MXZLO</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2023-06-09T15:30:00</t>
+          <t>2023-06-30T23:00:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2023-06-10T17:30:00</t>
+          <t>2023-07-01T23:00:00</t>
         </is>
       </c>
     </row>
@@ -2366,12 +2366,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2023-06-30T23:00:00</t>
+          <t>2023-07-03T12:00:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2023-07-01T23:00:00</t>
+          <t>2023-07-04T16:00:00</t>
         </is>
       </c>
     </row>
@@ -2406,27 +2406,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2023-07-03T12:00:00</t>
+          <t>2023-07-09T07:00:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2023-07-04T16:00:00</t>
+          <t>2023-07-10T06:00:00</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2446,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2023-07-09T07:00:00</t>
+          <t>2023-07-31T03:00:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2023-07-10T06:00:00</t>
+          <t>2023-08-01T15:30:00</t>
         </is>
       </c>
     </row>
@@ -2486,27 +2486,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>COBUN</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2023-07-31T03:00:00</t>
+          <t>2023-08-02T14:30:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2023-08-01T15:30:00</t>
+          <t>2023-08-03T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2526,27 +2526,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Buenaventura</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>COBUN</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2023-08-02T14:30:00</t>
+          <t>2023-08-06T22:00:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2023-08-03T18:00:00</t>
+          <t>2023-08-08T07:00:00</t>
         </is>
       </c>
     </row>
@@ -2566,27 +2566,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Mejillones</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>CLMJS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2023-08-06T22:00:00</t>
+          <t>2023-08-10T15:00:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2023-08-08T07:00:00</t>
+          <t>2023-08-12T15:00:00</t>
         </is>
       </c>
     </row>
@@ -2606,12 +2606,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mejillones</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CLMJS</t>
+          <t>CLSAI</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2621,12 +2621,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2023-08-10T15:00:00</t>
+          <t>2023-08-14T15:30:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2023-08-12T15:00:00</t>
+          <t>2023-08-16T07:00:00</t>
         </is>
       </c>
     </row>
@@ -2636,37 +2636,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAERSK ELBA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>9458078</t>
+          <t>9430363</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Port Qasim</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CLSAI</t>
+          <t>PKQCT</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2023-08-14T15:30:00</t>
+          <t>2023-05-23T11:30:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2023-08-16T07:00:00</t>
+          <t>2023-05-24T09:30:00</t>
         </is>
       </c>
     </row>
@@ -2686,27 +2686,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jebel Ali</t>
+          <t>Pipavav</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AEJEA</t>
+          <t>INPPV</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2023-05-20T12:00:00</t>
+          <t>2023-05-26T04:00:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2023-05-20T23:59:00</t>
+          <t>2023-05-26T17:00:00</t>
         </is>
       </c>
     </row>
@@ -2726,27 +2726,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Port Qasim</t>
+          <t>Jawaharlal Nehru</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PKQCT</t>
+          <t>INNSA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2023-05-23T11:30:00</t>
+          <t>2023-05-28T04:00:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2023-05-24T09:30:00</t>
+          <t>2023-05-29T05:00:00</t>
         </is>
       </c>
     </row>
@@ -2766,27 +2766,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Pipavav</t>
+          <t>Salalah</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>INPPV</t>
+          <t>OMSLL</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2023-05-26T04:00:00</t>
+          <t>2023-05-31T20:30:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2023-05-26T17:00:00</t>
+          <t>2023-06-01T11:30:00</t>
         </is>
       </c>
     </row>
@@ -2806,27 +2806,23 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jawaharlal Nehru</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>INNSA</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2023-05-28T04:00:00</t>
+          <t>2023-06-06T23:00:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2023-05-29T05:00:00</t>
+          <t>2023-06-07T15:00:00</t>
         </is>
       </c>
     </row>
@@ -2846,27 +2842,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Salalah</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OMSLL</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2023-05-31T20:30:00</t>
+          <t>2023-06-11T20:00:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2023-06-01T11:30:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -2886,23 +2882,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>USEWR</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2023-06-06T23:00:00</t>
+          <t>2023-06-20T08:00:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2023-06-07T15:00:00</t>
+          <t>2023-06-21T06:00:00</t>
         </is>
       </c>
     </row>
@@ -2922,27 +2922,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>USCHS</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2023-06-11T20:00:00</t>
+          <t>2023-06-23T08:00:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-23T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2962,12 +2962,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>USSAV</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2977,12 +2977,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2023-06-20T08:00:00</t>
+          <t>2023-06-24T08:00:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2023-06-21T06:00:00</t>
+          <t>2023-06-25T10:00:00</t>
         </is>
       </c>
     </row>
@@ -3002,12 +3002,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>USCHS</t>
+          <t>USHOU</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3017,12 +3017,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2023-06-23T08:00:00</t>
+          <t>2023-06-28T19:00:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2023-06-23T18:00:00</t>
+          <t>2023-06-30T05:00:00</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Norfolk</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>USSAV</t>
+          <t>USORF</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2023-06-24T08:00:00</t>
+          <t>2023-07-05T08:00:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2023-06-25T10:00:00</t>
+          <t>2023-07-05T18:00:00</t>
         </is>
       </c>
     </row>
@@ -3082,12 +3082,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>USHOU</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3097,12 +3097,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2023-06-28T19:00:00</t>
+          <t>2023-07-07T08:00:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2023-06-30T05:00:00</t>
+          <t>2023-07-08T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3122,27 +3122,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>USORF</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2023-07-05T08:00:00</t>
+          <t>2023-07-18T02:00:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2023-07-05T18:00:00</t>
+          <t>2023-07-18T18:00:00</t>
         </is>
       </c>
     </row>
@@ -3162,27 +3162,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2023-07-07T08:00:00</t>
+          <t>2023-07-24T10:00:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2023-07-08T04:00:00</t>
+          <t>2023-07-25T05:00:00</t>
         </is>
       </c>
     </row>
@@ -3202,27 +3202,23 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Algeciras</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ESALG</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2023-07-18T02:00:00</t>
+          <t>2023-07-25T06:00:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2023-07-18T18:00:00</t>
+          <t>2023-07-25T15:00:00</t>
         </is>
       </c>
     </row>
@@ -3242,27 +3238,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>DJJIB</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2023-07-24T10:00:00</t>
+          <t>2023-07-29T19:00:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2023-07-25T05:00:00</t>
+          <t>2023-07-30T18:00:00</t>
         </is>
       </c>
     </row>
@@ -3282,23 +3278,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>Salalah</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>OMSLL</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2023-07-25T06:00:00</t>
+          <t>2023-08-01T14:00:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2023-07-25T15:00:00</t>
+          <t>2023-08-02T09:59:00</t>
         </is>
       </c>
     </row>
@@ -3318,27 +3318,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Jebel Ali</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DJJIB</t>
+          <t>AEJEA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2023-07-29T19:00:00</t>
+          <t>2023-08-05T00:59:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2023-07-30T18:00:00</t>
+          <t>2023-08-05T09:59:00</t>
         </is>
       </c>
     </row>
@@ -3348,37 +3348,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>MAERSK ESSEN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9430363</t>
+          <t>9456783</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Salalah</t>
+          <t>Vung Tau</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>OMSLL</t>
+          <t>VNVUT</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2023-08-01T14:00:00</t>
+          <t>2023-05-23T22:00:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2023-08-02T09:59:00</t>
+          <t>2023-05-25T16:00:00</t>
         </is>
       </c>
     </row>
@@ -3388,37 +3388,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>MAERSK ESSEN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>9430363</t>
+          <t>9456783</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jebel Ali</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AEJEA</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2023-08-05T00:59:00</t>
+          <t>2023-05-28T12:00:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2023-08-05T09:59:00</t>
+          <t>2023-05-29T08:00:00</t>
         </is>
       </c>
     </row>
@@ -3438,27 +3438,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Vung Tau</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VNVUT</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2023-05-23T22:00:00</t>
+          <t>2023-05-29T17:00:00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2023-05-25T16:00:00</t>
+          <t>2023-05-30T17:00:00</t>
         </is>
       </c>
     </row>
@@ -3478,27 +3478,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2023-05-28T12:00:00</t>
+          <t>2023-05-31T22:00:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2023-05-29T08:00:00</t>
+          <t>2023-06-01T18:00:00</t>
         </is>
       </c>
     </row>
@@ -3518,27 +3518,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>USLAX</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2023-05-29T17:00:00</t>
+          <t>2023-06-16T08:00:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2023-05-30T17:00:00</t>
+          <t>2023-06-20T14:00:00</t>
         </is>
       </c>
     </row>
@@ -3558,27 +3558,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2023-05-31T22:00:00</t>
+          <t>2023-07-09T19:00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2023-06-01T18:00:00</t>
+          <t>2023-07-10T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3598,27 +3598,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>USLAX</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2023-06-16T08:00:00</t>
+          <t>2023-07-13T18:00:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2023-06-20T14:00:00</t>
+          <t>2023-07-14T06:00:00</t>
         </is>
       </c>
     </row>
@@ -3638,27 +3638,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2023-07-09T19:00:00</t>
+          <t>2023-07-16T18:00:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2023-07-10T04:00:00</t>
+          <t>2023-07-18T06:00:00</t>
         </is>
       </c>
     </row>
@@ -3678,27 +3678,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Vung Tau</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>VNVUT</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2023-07-13T18:00:00</t>
+          <t>2023-08-01T22:00:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2023-07-14T06:00:00</t>
+          <t>2023-08-03T16:00:00</t>
         </is>
       </c>
     </row>
@@ -3718,27 +3718,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2023-07-16T18:00:00</t>
+          <t>2023-08-06T12:00:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2023-07-18T06:00:00</t>
+          <t>2023-08-07T08:00:00</t>
         </is>
       </c>
     </row>
@@ -3758,27 +3758,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Vung Tau</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>VNVUT</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2023-08-01T22:00:00</t>
+          <t>2023-08-07T17:00:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2023-08-03T16:00:00</t>
+          <t>2023-08-08T17:00:00</t>
         </is>
       </c>
     </row>
@@ -3798,27 +3798,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2023-08-06T12:00:00</t>
+          <t>2023-08-09T22:00:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2023-08-07T08:00:00</t>
+          <t>2023-08-10T18:00:00</t>
         </is>
       </c>
     </row>
@@ -3828,37 +3828,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MAERSK ESSEN</t>
+          <t>MAERSK EDMONTON</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9456783</t>
+          <t>9458030</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>MXZLO</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2023-08-07T17:00:00</t>
+          <t>2023-05-21T07:50:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2023-08-08T17:00:00</t>
+          <t>2023-05-22T16:00:00</t>
         </is>
       </c>
     </row>
@@ -3868,37 +3868,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MAERSK ESSEN</t>
+          <t>MAERSK EDMONTON</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>9456783</t>
+          <t>9458030</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>JPTYO</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2023-08-09T22:00:00</t>
+          <t>2023-06-07T19:00:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2023-08-10T18:00:00</t>
+          <t>2023-06-07T20:01:00</t>
         </is>
       </c>
     </row>
@@ -3918,27 +3918,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MXZLO</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2023-05-21T08:00:00</t>
+          <t>2023-06-12T00:01:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2023-05-22T12:00:00</t>
+          <t>2023-06-13T12:00:00</t>
         </is>
       </c>
     </row>
@@ -3958,27 +3958,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>JPTYO</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2023-06-07T19:00:00</t>
+          <t>2023-06-14T17:00:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2023-06-07T20:01:00</t>
+          <t>2023-06-15T05:00:00</t>
         </is>
       </c>
     </row>
@@ -3998,12 +3998,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4013,12 +4013,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2023-06-12T00:01:00</t>
+          <t>2023-06-16T08:00:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2023-06-13T12:00:00</t>
+          <t>2023-06-17T11:00:00</t>
         </is>
       </c>
     </row>
@@ -4038,27 +4038,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2023-06-14T17:00:00</t>
+          <t>2023-06-19T05:00:00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2023-06-15T05:00:00</t>
+          <t>2023-06-20T08:00:00</t>
         </is>
       </c>
     </row>
@@ -4078,27 +4078,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>USLAX</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2023-06-16T08:00:00</t>
+          <t>2023-07-03T08:00:00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2023-06-17T11:00:00</t>
+          <t>2023-07-07T03:00:00</t>
         </is>
       </c>
     </row>
@@ -4118,27 +4118,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Oakland</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>USOAK</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2023-06-19T05:00:00</t>
+          <t>2023-07-08T08:00:00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2023-06-20T08:00:00</t>
+          <t>2023-07-09T22:00:00</t>
         </is>
       </c>
     </row>
@@ -4158,27 +4158,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>USLAX</t>
+          <t>MXZLO</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2023-07-03T08:00:00</t>
+          <t>2023-07-15T23:00:00</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2023-07-07T03:00:00</t>
+          <t>2023-07-17T11:00:00</t>
         </is>
       </c>
     </row>
@@ -4198,27 +4198,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Oakland</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>USOAK</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2023-07-08T08:00:00</t>
+          <t>2023-08-07T00:01:00</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2023-07-09T22:00:00</t>
+          <t>2023-08-08T12:00:00</t>
         </is>
       </c>
     </row>
@@ -4238,27 +4238,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MXZLO</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2023-07-15T23:00:00</t>
+          <t>2023-08-10T15:00:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2023-07-17T11:00:00</t>
+          <t>2023-08-11T03:00:00</t>
         </is>
       </c>
     </row>
@@ -4278,12 +4278,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4293,12 +4293,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2023-08-07T00:01:00</t>
+          <t>2023-08-12T13:00:00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2023-08-08T12:00:00</t>
+          <t>2023-08-13T16:00:00</t>
         </is>
       </c>
     </row>
@@ -4318,27 +4318,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2023-08-10T15:00:00</t>
+          <t>2023-08-15T10:00:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2023-08-11T03:00:00</t>
+          <t>2023-08-16T13:00:00</t>
         </is>
       </c>
     </row>
@@ -4348,37 +4348,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MAERSK EDMONTON</t>
+          <t>MAERSK SINGAPORE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>9458030</t>
+          <t>9308649</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2023-08-12T13:00:00</t>
+          <t>2023-05-29T07:00:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2023-08-13T16:00:00</t>
+          <t>2023-05-30T07:00:00</t>
         </is>
       </c>
     </row>
@@ -4388,37 +4388,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MAERSK EDMONTON</t>
+          <t>MAERSK SINGAPORE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>9458030</t>
+          <t>9308649</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>USCHS</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2023-08-15T10:00:00</t>
+          <t>2023-05-31T19:00:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2023-08-16T13:00:00</t>
+          <t>2023-06-01T15:00:00</t>
         </is>
       </c>
     </row>
@@ -4438,12 +4438,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>USSAV</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2023-05-29T07:00:00</t>
+          <t>2023-06-02T08:00:00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2023-05-30T07:00:00</t>
+          <t>2023-06-03T14:00:00</t>
         </is>
       </c>
     </row>
@@ -4478,12 +4478,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>USCHS</t>
+          <t>USMIA</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2023-05-31T19:00:00</t>
+          <t>2023-06-05T13:00:00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2023-06-01T15:00:00</t>
+          <t>2023-06-06T07:00:00</t>
         </is>
       </c>
     </row>
@@ -4518,27 +4518,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Freeport</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>USSAV</t>
+          <t>BSFPO</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2023-06-02T08:00:00</t>
+          <t>2023-06-06T19:00:00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2023-06-03T14:00:00</t>
+          <t>2023-06-07T21:00:00</t>
         </is>
       </c>
     </row>
@@ -4558,27 +4558,23 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Miami</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>USMIA</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2023-06-05T13:00:00</t>
+          <t>2023-06-24T23:00:00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2023-06-06T07:00:00</t>
+          <t>2023-06-25T15:00:00</t>
         </is>
       </c>
     </row>
@@ -4598,27 +4594,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Freeport</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BSFPO</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2023-06-06T19:00:00</t>
+          <t>2023-07-11T14:00:00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2023-06-07T21:00:00</t>
+          <t>2023-07-12T07:00:00</t>
         </is>
       </c>
     </row>
@@ -4638,23 +4634,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2023-06-24T23:00:00</t>
+          <t>2023-07-16T16:00:00</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2023-06-25T15:00:00</t>
+          <t>2023-07-17T08:00:00</t>
         </is>
       </c>
     </row>
@@ -4674,27 +4674,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2023-07-11T14:00:00</t>
+          <t>2023-07-19T14:00:00</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2023-07-12T07:00:00</t>
+          <t>2023-07-20T14:00:00</t>
         </is>
       </c>
     </row>
@@ -4714,27 +4714,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2023-07-16T16:00:00</t>
+          <t>2023-07-21T23:00:00</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2023-07-17T08:00:00</t>
+          <t>2023-07-23T05:00:00</t>
         </is>
       </c>
     </row>
@@ -4754,27 +4754,27 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Vung Tau</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>VNVUT</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2023-07-19T14:00:00</t>
+          <t>2023-07-26T09:00:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2023-07-20T14:00:00</t>
+          <t>2023-07-27T01:00:00</t>
         </is>
       </c>
     </row>
@@ -4794,27 +4794,27 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2023-07-21T23:00:00</t>
+          <t>2023-07-28T19:30:00</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2023-07-23T05:00:00</t>
+          <t>2023-07-29T15:31:00</t>
         </is>
       </c>
     </row>
@@ -4834,27 +4834,23 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Vung Tau</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>VNVUT</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2023-07-26T09:00:00</t>
+          <t>2023-08-10T23:00:00</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2023-07-27T01:00:00</t>
+          <t>2023-08-11T15:00:00</t>
         </is>
       </c>
     </row>
@@ -4864,37 +4860,37 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MAERSK SINGAPORE</t>
+          <t>MAERSK SOFIA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>9308649</t>
+          <t>9308637</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2023-07-28T19:30:00</t>
+          <t>2023-05-24T18:00:00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2023-07-29T15:31:00</t>
+          <t>2023-05-26T15:00:00</t>
         </is>
       </c>
     </row>
@@ -4904,33 +4900,37 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MAERSK SINGAPORE</t>
+          <t>MAERSK SOFIA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>9308649</t>
+          <t>9308637</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
+          <t>Pointe Noire</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>CGPNR</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2023-08-10T23:00:00</t>
+          <t>2023-06-05T19:00:00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2023-08-11T15:00:00</t>
+          <t>2023-06-07T21:00:00</t>
         </is>
       </c>
     </row>
@@ -4950,27 +4950,27 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Luanda</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>AOLAD</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2023-05-24T18:00:00</t>
+          <t>2023-06-09T04:30:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2023-05-26T15:00:00</t>
+          <t>2023-06-11T16:30:00</t>
         </is>
       </c>
     </row>
@@ -4990,27 +4990,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Pointe Noire</t>
+          <t>Luanda</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CGPNR</t>
+          <t>AOLAD</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2023-06-05T19:00:00</t>
+          <t>2023-06-11T18:30:00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2023-06-07T21:00:00</t>
+          <t>2023-06-14T03:00:00</t>
         </is>
       </c>
     </row>
@@ -5030,27 +5030,27 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>AOLAD</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2023-06-09T04:30:00</t>
+          <t>2023-06-19T06:00:00</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2023-06-11T16:30:00</t>
+          <t>2023-06-21T06:00:00</t>
         </is>
       </c>
     </row>
@@ -5070,27 +5070,27 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AOLAD</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2023-06-11T18:30:00</t>
+          <t>2023-07-13T03:00:00</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2023-06-14T03:00:00</t>
+          <t>2023-07-13T23:00:00</t>
         </is>
       </c>
     </row>
@@ -5110,27 +5110,27 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2023-06-19T06:00:00</t>
+          <t>2023-07-23T01:00:00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2023-06-21T06:00:00</t>
+          <t>2023-07-24T01:00:00</t>
         </is>
       </c>
     </row>
@@ -5150,27 +5150,27 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2023-07-13T03:00:00</t>
+          <t>2023-07-27T03:30:00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2023-07-13T23:00:00</t>
+          <t>2023-07-27T15:30:00</t>
         </is>
       </c>
     </row>
@@ -5190,12 +5190,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5205,12 +5205,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2023-07-23T01:00:00</t>
+          <t>2023-07-28T07:00:00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2023-07-24T01:00:00</t>
+          <t>2023-07-28T21:00:00</t>
         </is>
       </c>
     </row>
@@ -5230,12 +5230,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5245,12 +5245,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2023-07-27T03:30:00</t>
+          <t>2023-07-31T01:00:00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2023-07-27T15:30:00</t>
+          <t>2023-07-31T15:00:00</t>
         </is>
       </c>
     </row>
@@ -5270,27 +5270,27 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2023-07-28T07:00:00</t>
+          <t>2023-08-04T07:00:00</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2023-07-28T21:00:00</t>
+          <t>2023-08-05T01:00:00</t>
         </is>
       </c>
     </row>
@@ -5310,27 +5310,27 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2023-07-31T01:00:00</t>
+          <t>2023-08-05T08:00:00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2023-07-31T15:00:00</t>
+          <t>2023-08-06T08:00:00</t>
         </is>
       </c>
     </row>
@@ -5340,37 +5340,33 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MAERSK SOFIA</t>
+          <t>MAERSK SAIGON</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>9308637</t>
+          <t>9303534</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>MYTPP</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2023-08-04T07:00:00</t>
+          <t>2023-05-21T23:00:00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2023-08-05T01:00:00</t>
+          <t>2023-05-21T23:01:00</t>
         </is>
       </c>
     </row>
@@ -5380,37 +5376,33 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MAERSK SOFIA</t>
+          <t>MAERSK SAIGON</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>9308637</t>
+          <t>9303534</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>SGSIN</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2023-08-05T08:00:00</t>
+          <t>2023-05-22T14:59:00</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2023-08-06T08:00:00</t>
+          <t>2023-05-22T15:00:00</t>
         </is>
       </c>
     </row>
@@ -5430,23 +5422,27 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+          <t>Tanjung Pelepas</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>MYTPP</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2023-05-21T23:00:00</t>
+          <t>2023-06-08T00:01:00</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2023-05-21T23:01:00</t>
+          <t>2023-06-08T17:00:00</t>
         </is>
       </c>
     </row>
@@ -5466,23 +5462,27 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+          <t>Laem Chabang</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>THLCH</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2023-05-22T14:59:00</t>
+          <t>2023-06-10T21:00:00</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2023-05-22T15:00:00</t>
+          <t>2023-06-13T09:00:00</t>
         </is>
       </c>
     </row>
@@ -5502,27 +5502,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2023-06-08T00:01:00</t>
+          <t>2023-06-15T05:00:00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2023-06-08T17:00:00</t>
+          <t>2023-06-16T05:00:00</t>
         </is>
       </c>
     </row>
@@ -5542,27 +5542,27 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Laem Chabang</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>THLCH</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2023-06-10T21:00:00</t>
+          <t>2023-06-16T09:00:00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2023-06-13T09:00:00</t>
+          <t>2023-06-17T03:00:00</t>
         </is>
       </c>
     </row>
@@ -5582,27 +5582,27 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Colombo</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>LKCMB</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2023-06-15T05:00:00</t>
+          <t>2023-06-21T04:00:00</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2023-06-16T05:00:00</t>
+          <t>2023-06-22T00:01:00</t>
         </is>
       </c>
     </row>
@@ -5622,27 +5622,27 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Salalah</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>OMSLL</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2023-06-16T09:00:00</t>
+          <t>2023-06-26T00:01:00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2023-06-17T03:00:00</t>
+          <t>2023-06-26T14:00:00</t>
         </is>
       </c>
     </row>
@@ -5662,27 +5662,23 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Colombo</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>LKCMB</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2023-06-21T04:00:00</t>
+          <t>2023-07-03T23:00:00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2023-06-22T00:01:00</t>
+          <t>2023-07-03T23:01:00</t>
         </is>
       </c>
     </row>
@@ -5702,27 +5698,23 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Salalah</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>OMSLL</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2023-06-26T00:01:00</t>
+          <t>2023-07-04T14:59:00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2023-06-26T14:00:00</t>
+          <t>2023-07-04T15:00:00</t>
         </is>
       </c>
     </row>
@@ -5742,23 +5734,27 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>USEWR</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2023-07-03T23:00:00</t>
+          <t>2023-07-17T08:00:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2023-07-03T23:01:00</t>
+          <t>2023-07-19T08:00:00</t>
         </is>
       </c>
     </row>
@@ -5778,23 +5774,27 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+          <t>Norfolk</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>USORF</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2023-07-04T14:59:00</t>
+          <t>2023-07-20T19:00:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2023-07-04T15:00:00</t>
+          <t>2023-07-21T19:00:00</t>
         </is>
       </c>
     </row>
@@ -5814,12 +5814,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>USSAV</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5829,12 +5829,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2023-07-17T08:00:00</t>
+          <t>2023-07-23T08:00:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2023-07-19T08:00:00</t>
+          <t>2023-07-24T03:00:00</t>
         </is>
       </c>
     </row>
@@ -5854,27 +5854,23 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Norfolk</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>USORF</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2023-07-20T19:00:00</t>
+          <t>2023-08-10T23:00:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2023-07-21T19:00:00</t>
+          <t>2023-08-10T23:01:00</t>
         </is>
       </c>
     </row>
@@ -5894,27 +5890,23 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>USSAV</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2023-07-23T08:00:00</t>
+          <t>2023-08-11T14:59:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2023-07-24T03:00:00</t>
+          <t>2023-08-11T15:00:00</t>
         </is>
       </c>
     </row>
@@ -5924,12 +5916,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MAERSK SAIGON</t>
+          <t>MAERSK SANA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>9303534</t>
+          <t>9289922</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5945,12 +5937,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2023-08-10T23:00:00</t>
+          <t>2023-05-23T23:00:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2023-08-10T23:01:00</t>
+          <t>2023-05-24T15:00:00</t>
         </is>
       </c>
     </row>
@@ -5960,33 +5952,37 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MAERSK SAIGON</t>
+          <t>MAERSK SANA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>9303534</t>
+          <t>9289922</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+          <t>Tanjung Pelepas</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MYTPP</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2023-08-11T14:59:00</t>
+          <t>2023-06-06T14:00:00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2023-08-11T15:00:00</t>
+          <t>2023-06-07T07:00:00</t>
         </is>
       </c>
     </row>
@@ -6006,23 +6002,27 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2023-05-23T23:00:00</t>
+          <t>2023-06-11T16:00:00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2023-05-24T15:00:00</t>
+          <t>2023-06-12T08:00:00</t>
         </is>
       </c>
     </row>
@@ -6042,27 +6042,27 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2023-06-06T14:00:00</t>
+          <t>2023-06-12T15:00:00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2023-06-07T07:00:00</t>
+          <t>2023-06-13T15:00:00</t>
         </is>
       </c>
     </row>
@@ -6082,27 +6082,27 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2023-06-11T16:00:00</t>
+          <t>2023-06-14T08:00:00</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2023-06-12T08:00:00</t>
+          <t>2023-06-15T14:00:00</t>
         </is>
       </c>
     </row>
@@ -6122,27 +6122,27 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Vung Tau</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>VNVUT</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2023-06-12T15:00:00</t>
+          <t>2023-06-17T22:00:00</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2023-06-13T15:00:00</t>
+          <t>2023-06-18T14:00:00</t>
         </is>
       </c>
     </row>
@@ -6162,27 +6162,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2023-06-14T08:00:00</t>
+          <t>2023-06-20T10:00:00</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2023-06-15T14:00:00</t>
+          <t>2023-06-21T06:01:00</t>
         </is>
       </c>
     </row>
@@ -6202,27 +6202,23 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Vung Tau</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>VNVUT</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2023-06-17T22:00:00</t>
+          <t>2023-07-05T23:00:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2023-06-18T14:00:00</t>
+          <t>2023-07-06T15:00:00</t>
         </is>
       </c>
     </row>
@@ -6242,27 +6238,27 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2023-06-20T10:00:00</t>
+          <t>2023-07-19T07:00:00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2023-06-21T06:01:00</t>
+          <t>2023-07-20T07:00:00</t>
         </is>
       </c>
     </row>
@@ -6282,23 +6278,27 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>USCHS</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2023-07-05T23:00:00</t>
+          <t>2023-07-21T19:00:00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2023-07-06T15:00:00</t>
+          <t>2023-07-22T15:00:00</t>
         </is>
       </c>
     </row>
@@ -6318,12 +6318,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>USSAV</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6333,12 +6333,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2023-07-19T07:00:00</t>
+          <t>2023-07-23T07:00:00</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2023-07-20T07:00:00</t>
+          <t>2023-07-24T13:00:00</t>
         </is>
       </c>
     </row>
@@ -6358,12 +6358,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>USCHS</t>
+          <t>USMIA</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6373,12 +6373,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2023-07-21T19:00:00</t>
+          <t>2023-07-25T15:00:00</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2023-07-22T15:00:00</t>
+          <t>2023-07-26T09:00:00</t>
         </is>
       </c>
     </row>
@@ -6398,27 +6398,27 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Freeport</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>USSAV</t>
+          <t>BSFPO</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2023-07-23T07:00:00</t>
+          <t>2023-07-26T21:00:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2023-07-24T13:00:00</t>
+          <t>2023-07-27T23:00:00</t>
         </is>
       </c>
     </row>
@@ -6438,27 +6438,23 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Miami</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>USMIA</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2023-07-25T15:00:00</t>
+          <t>2023-08-12T23:00:00</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2023-07-26T09:00:00</t>
+          <t>2023-08-13T15:00:00</t>
         </is>
       </c>
     </row>
@@ -6468,37 +6464,37 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MAERSK SANA</t>
+          <t>MAERSK SHEERNESS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>9289922</t>
+          <t>9299939</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Freeport</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>BSFPO</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2023-07-26T21:00:00</t>
+          <t>2023-05-31T18:00:00</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2023-07-27T23:00:00</t>
+          <t>2023-06-02T15:00:00</t>
         </is>
       </c>
     </row>
@@ -6508,33 +6504,37 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MAERSK SANA</t>
+          <t>MAERSK SHEERNESS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>9289922</t>
+          <t>9299939</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
+          <t>Pointe Noire</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>CGPNR</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2023-08-12T23:00:00</t>
+          <t>2023-06-12T19:00:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2023-08-13T15:00:00</t>
+          <t>2023-06-14T21:00:00</t>
         </is>
       </c>
     </row>
@@ -6554,27 +6554,27 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Luanda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>AOLAD</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2023-05-31T18:00:00</t>
+          <t>2023-06-16T04:30:00</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2023-06-02T15:00:00</t>
+          <t>2023-06-18T16:30:00</t>
         </is>
       </c>
     </row>
@@ -6594,27 +6594,27 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Pointe Noire</t>
+          <t>Luanda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CGPNR</t>
+          <t>AOLAD</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2023-06-12T19:00:00</t>
+          <t>2023-06-18T18:30:00</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2023-06-14T21:00:00</t>
+          <t>2023-06-21T03:00:00</t>
         </is>
       </c>
     </row>
@@ -6634,27 +6634,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>AOLAD</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2023-06-16T04:30:00</t>
+          <t>2023-06-26T06:00:00</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2023-06-18T16:30:00</t>
+          <t>2023-06-28T06:00:00</t>
         </is>
       </c>
     </row>
@@ -6674,27 +6674,27 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>AOLAD</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2023-06-18T18:30:00</t>
+          <t>2023-07-20T03:00:00</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2023-06-21T03:00:00</t>
+          <t>2023-07-20T23:00:00</t>
         </is>
       </c>
     </row>
@@ -6714,27 +6714,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2023-06-26T06:00:00</t>
+          <t>2023-07-30T01:00:00</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2023-06-28T06:00:00</t>
+          <t>2023-07-31T01:00:00</t>
         </is>
       </c>
     </row>
@@ -6754,27 +6754,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2023-07-20T03:00:00</t>
+          <t>2023-08-03T03:30:00</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2023-07-20T23:00:00</t>
+          <t>2023-08-03T15:30:00</t>
         </is>
       </c>
     </row>
@@ -6794,12 +6794,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6809,12 +6809,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2023-07-30T01:00:00</t>
+          <t>2023-08-04T07:00:00</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2023-07-31T01:00:00</t>
+          <t>2023-08-04T21:00:00</t>
         </is>
       </c>
     </row>
@@ -6834,12 +6834,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6849,12 +6849,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2023-08-03T03:30:00</t>
+          <t>2023-08-06T13:00:00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2023-08-03T15:30:00</t>
+          <t>2023-08-07T03:00:00</t>
         </is>
       </c>
     </row>
@@ -6874,27 +6874,27 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2023-08-04T07:00:00</t>
+          <t>2023-08-11T07:00:00</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2023-08-04T21:00:00</t>
+          <t>2023-08-12T01:00:00</t>
         </is>
       </c>
     </row>
@@ -6914,27 +6914,27 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2023-08-06T13:00:00</t>
+          <t>2023-08-12T08:00:00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2023-08-07T03:00:00</t>
+          <t>2023-08-13T08:00:00</t>
         </is>
       </c>
     </row>
@@ -6944,37 +6944,37 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MAERSK SHEERNESS</t>
+          <t>MAERSK SEVILLE</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>9299939</t>
+          <t>9299927</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2023-08-11T07:00:00</t>
+          <t>2023-05-27T10:00:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2023-08-12T01:00:00</t>
+          <t>2023-05-28T10:00:00</t>
         </is>
       </c>
     </row>
@@ -6984,37 +6984,37 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MAERSK SHEERNESS</t>
+          <t>MAERSK SEVILLE</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>9299939</t>
+          <t>9299927</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2023-08-12T08:00:00</t>
+          <t>2023-05-31T18:00:00</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2023-08-13T08:00:00</t>
+          <t>2023-06-01T14:00:00</t>
         </is>
       </c>
     </row>
@@ -7034,27 +7034,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2023-05-27T10:00:00</t>
+          <t>2023-06-02T14:00:00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2023-05-28T10:00:00</t>
+          <t>2023-06-03T16:00:00</t>
         </is>
       </c>
     </row>
@@ -7074,27 +7074,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2023-05-31T18:00:00</t>
+          <t>2023-06-06T19:00:00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2023-06-01T14:00:00</t>
+          <t>2023-06-07T19:00:00</t>
         </is>
       </c>
     </row>
@@ -7114,27 +7114,27 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2023-06-02T14:00:00</t>
+          <t>2023-06-28T22:00:00</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2023-06-03T16:00:00</t>
+          <t>2023-06-29T17:00:00</t>
         </is>
       </c>
     </row>
@@ -7154,27 +7154,27 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>USHOU</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2023-06-06T19:00:00</t>
+          <t>2023-07-03T15:00:00</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2023-06-07T19:00:00</t>
+          <t>2023-07-06T03:00:00</t>
         </is>
       </c>
     </row>
@@ -7194,27 +7194,27 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>USMOB</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2023-06-28T22:00:00</t>
+          <t>2023-07-07T19:00:00</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2023-06-29T17:00:00</t>
+          <t>2023-07-09T05:00:00</t>
         </is>
       </c>
     </row>
@@ -7234,12 +7234,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>USHOU</t>
+          <t>USTPA</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7249,12 +7249,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2023-07-03T15:00:00</t>
+          <t>2023-07-10T13:00:00</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2023-07-06T03:00:00</t>
+          <t>2023-07-11T18:00:00</t>
         </is>
       </c>
     </row>
@@ -7274,27 +7274,27 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>USMOB</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2023-07-07T19:00:00</t>
+          <t>2023-07-15T22:00:00</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2023-07-09T05:00:00</t>
+          <t>2023-07-16T17:00:00</t>
         </is>
       </c>
     </row>
@@ -7314,27 +7314,27 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>USTPA</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2023-07-10T13:00:00</t>
+          <t>2023-07-17T07:00:00</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2023-07-11T18:00:00</t>
+          <t>2023-07-18T07:00:00</t>
         </is>
       </c>
     </row>
@@ -7354,27 +7354,27 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2023-07-15T22:00:00</t>
+          <t>2023-08-12T20:00:00</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2023-07-16T17:00:00</t>
+          <t>2023-08-14T02:00:00</t>
         </is>
       </c>
     </row>
@@ -7394,27 +7394,27 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2023-07-17T07:00:00</t>
+          <t>2023-08-16T18:00:00</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2023-07-18T07:00:00</t>
+          <t>2023-08-17T14:00:00</t>
         </is>
       </c>
     </row>
@@ -7424,37 +7424,37 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MAERSK SEVILLE</t>
+          <t>MAERSK BALI</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>9299927</t>
+          <t>9394870</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2023-08-12T20:00:00</t>
+          <t>2023-05-21T06:13:00</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2023-08-14T02:00:00</t>
+          <t>2023-05-21T17:30:00</t>
         </is>
       </c>
     </row>
@@ -7474,12 +7474,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7489,12 +7489,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2023-05-19T18:00:00</t>
+          <t>2023-05-21T18:00:00</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2023-05-20T06:00:00</t>
+          <t>2023-05-22T15:00:00</t>
         </is>
       </c>
     </row>
@@ -7514,27 +7514,27 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2023-05-20T22:00:00</t>
+          <t>2023-05-26T07:00:00</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2023-05-21T17:30:00</t>
+          <t>2023-05-27T07:00:00</t>
         </is>
       </c>
     </row>
@@ -7554,27 +7554,27 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2023-05-21T18:00:00</t>
+          <t>2023-05-31T15:30:00</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2023-05-22T15:00:00</t>
+          <t>2023-06-02T01:30:00</t>
         </is>
       </c>
     </row>
@@ -7594,12 +7594,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7609,12 +7609,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2023-05-26T07:00:00</t>
+          <t>2023-06-04T20:00:00</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2023-05-27T07:00:00</t>
+          <t>2023-06-05T08:00:00</t>
         </is>
       </c>
     </row>
@@ -7634,27 +7634,27 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2023-05-31T15:30:00</t>
+          <t>2023-06-09T01:00:00</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2023-06-02T01:30:00</t>
+          <t>2023-06-09T14:30:00</t>
         </is>
       </c>
     </row>
@@ -7674,27 +7674,27 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Pisco</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>PEPIO</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2023-06-04T20:00:00</t>
+          <t>2023-06-09T22:00:00</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2023-06-05T08:00:00</t>
+          <t>2023-06-10T17:30:00</t>
         </is>
       </c>
     </row>
@@ -7714,12 +7714,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7729,12 +7729,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2023-06-09T01:00:00</t>
+          <t>2023-06-10T19:00:00</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2023-06-09T14:30:00</t>
+          <t>2023-06-11T17:00:00</t>
         </is>
       </c>
     </row>
@@ -7754,27 +7754,27 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>BEANR</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2023-06-09T22:00:00</t>
+          <t>2023-06-24T06:00:00</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2023-06-10T17:30:00</t>
+          <t>2023-06-25T06:00:00</t>
         </is>
       </c>
     </row>
@@ -7794,27 +7794,27 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2023-06-10T19:00:00</t>
+          <t>2023-06-26T00:01:00</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2023-06-11T17:00:00</t>
+          <t>2023-06-26T20:00:00</t>
         </is>
       </c>
     </row>
@@ -7834,27 +7834,27 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>BEANR</t>
+          <t>DEHAM</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2023-06-24T06:00:00</t>
+          <t>2023-06-28T23:00:00</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2023-06-25T06:00:00</t>
+          <t>2023-06-29T15:00:00</t>
         </is>
       </c>
     </row>
@@ -7874,27 +7874,27 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>COCTG</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2023-06-26T00:01:00</t>
+          <t>2023-07-13T07:00:00</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2023-06-26T20:00:00</t>
+          <t>2023-07-13T18:00:00</t>
         </is>
       </c>
     </row>
@@ -7914,27 +7914,27 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>DEHAM</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2023-06-28T23:00:00</t>
+          <t>2023-07-14T19:00:00</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2023-06-29T15:00:00</t>
+          <t>2023-07-15T18:00:00</t>
         </is>
       </c>
     </row>
@@ -7954,27 +7954,27 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>COCTG</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2023-07-13T07:00:00</t>
+          <t>2023-07-15T22:00:00</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2023-07-13T18:00:00</t>
+          <t>2023-07-16T17:30:00</t>
         </is>
       </c>
     </row>
@@ -7994,12 +7994,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2023-07-14T19:00:00</t>
+          <t>2023-07-16T18:00:00</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2023-07-15T18:00:00</t>
+          <t>2023-07-17T14:00:00</t>
         </is>
       </c>
     </row>
@@ -8034,27 +8034,27 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2023-07-15T22:00:00</t>
+          <t>2023-07-21T07:00:00</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2023-07-16T17:30:00</t>
+          <t>2023-07-22T07:00:00</t>
         </is>
       </c>
     </row>
@@ -8074,27 +8074,27 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2023-07-16T18:00:00</t>
+          <t>2023-07-26T15:30:00</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2023-07-17T14:00:00</t>
+          <t>2023-07-28T01:30:00</t>
         </is>
       </c>
     </row>
@@ -8114,12 +8114,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -8129,12 +8129,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2023-07-21T07:00:00</t>
+          <t>2023-07-30T20:00:00</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2023-07-22T07:00:00</t>
+          <t>2023-07-31T08:00:00</t>
         </is>
       </c>
     </row>
@@ -8154,27 +8154,27 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2023-07-26T15:30:00</t>
+          <t>2023-08-04T01:00:00</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2023-07-28T01:30:00</t>
+          <t>2023-08-04T14:30:00</t>
         </is>
       </c>
     </row>
@@ -8194,27 +8194,27 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Pisco</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PEPIO</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2023-07-30T20:00:00</t>
+          <t>2023-08-04T22:00:00</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2023-07-31T08:00:00</t>
+          <t>2023-08-05T17:30:00</t>
         </is>
       </c>
     </row>
@@ -8234,12 +8234,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8249,90 +8249,10 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2023-08-04T01:00:00</t>
+          <t>2023-08-05T19:00:00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
-        <is>
-          <t>2023-08-04T14:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>MAERSK BALI</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>9394870</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Panama Canal</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>PAPCN</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>2023-08-04T22:00:00</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2023-08-05T17:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>MAERSK BALI</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>9394870</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Manzanillo</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>PAMIT</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>2023-08-05T19:00:00</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
         <is>
           <t>2023-08-06T17:00:00</t>
         </is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H354"/>
+  <dimension ref="A1:H375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2023-05-23T10:00:00</t>
+          <t>2023-05-23T10:35:00</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -14459,6 +14459,846 @@
       <c r="H354" t="inlineStr">
         <is>
           <t>2023-08-19T04:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Bremerhaven</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>DEBRV</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>2023-05-23T22:00:00</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>2023-05-24T06:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>DEHAM</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>2023-05-24T23:00:00</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2023-05-25T15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>COCTG</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>2023-06-08T07:00:00</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2023-06-08T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>PAMIT</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>2023-06-09T19:00:00</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>2023-06-10T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Panama Canal</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>PAPCN</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>2023-06-10T22:00:00</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>2023-06-11T17:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Balboa</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>PABLB</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>2023-06-11T18:00:00</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2023-06-12T14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Callao</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>PECLL</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>2023-06-16T07:00:00</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>2023-06-17T07:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Valparaiso</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>CLVAP</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>2023-06-21T15:30:00</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>2023-06-23T01:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Pisco</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>PEPIO</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>2023-06-25T20:00:00</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>2023-06-26T08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Balboa</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>PABLB</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>2023-06-30T01:00:00</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2023-06-30T14:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Panama Canal</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>PAPCN</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>2023-06-30T22:00:00</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2023-07-01T17:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>PAMIT</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>2023-07-01T19:00:00</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>2023-07-02T17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>BEANR</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>2023-07-15T06:00:00</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>2023-07-16T06:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Rotterdam</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>NLRTM</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>2023-07-17T00:01:00</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>2023-07-17T20:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>DEHAM</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>2023-07-19T23:00:00</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>2023-07-20T15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>COCTG</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>2023-08-03T07:00:00</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2023-08-03T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Manzanillo</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>PAMIT</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>2023-08-04T19:00:00</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2023-08-05T18:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Panama Canal</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>PAPCN</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>2023-08-05T22:00:00</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2023-08-06T17:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Balboa</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>PABLB</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>2023-08-06T18:00:00</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2023-08-07T14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Callao</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>PECLL</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>2023-08-11T07:00:00</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2023-08-12T07:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>MAERSK BRATAN</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>9394894</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Valparaiso</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>CLVAP</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>2023-08-16T15:30:00</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>2023-08-18T01:30:00</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H375"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2023-06-11T02:01:00</t>
+          <t>2023-06-12T01:00:00</t>
         </is>
       </c>
     </row>
@@ -1776,37 +1776,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAERSK ELBA</t>
+          <t>MAERSK HALIFAX</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9458078</t>
+          <t>9784271</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>MXZLO</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2023-05-24T15:00:00</t>
+          <t>2023-08-21T14:59:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2023-05-26T11:00:00</t>
+          <t>2023-08-21T15:00:00</t>
         </is>
       </c>
     </row>
@@ -1826,27 +1822,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ECGYE</t>
+          <t>MXZLO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2023-05-31T03:00:00</t>
+          <t>2023-05-24T15:00:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2023-06-01T10:00:00</t>
+          <t>2023-05-26T10:00:00</t>
         </is>
       </c>
     </row>
@@ -1866,27 +1862,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Guayaquil</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>ECGYE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2023-06-03T08:00:00</t>
+          <t>2023-05-31T03:00:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2023-06-04T20:00:00</t>
+          <t>2023-06-01T10:00:00</t>
         </is>
       </c>
     </row>
@@ -1906,27 +1902,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MXZLO</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2023-06-09T15:30:00</t>
+          <t>2023-06-03T08:00:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2023-06-10T17:30:00</t>
+          <t>2023-06-04T20:00:00</t>
         </is>
       </c>
     </row>
@@ -1946,27 +1942,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>MXZLO</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2023-06-30T23:00:00</t>
+          <t>2023-06-09T15:30:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2023-07-01T23:00:00</t>
+          <t>2023-06-10T17:30:00</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1982,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2001,12 +1997,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2023-07-03T12:00:00</t>
+          <t>2023-06-30T23:00:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2023-07-04T16:00:00</t>
+          <t>2023-07-01T23:00:00</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2022,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2023-07-09T07:00:00</t>
+          <t>2023-07-03T12:00:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2023-07-10T06:00:00</t>
+          <t>2023-07-04T16:00:00</t>
         </is>
       </c>
     </row>
@@ -2066,27 +2062,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2023-07-31T03:00:00</t>
+          <t>2023-07-09T07:00:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2023-08-01T15:30:00</t>
+          <t>2023-07-10T06:00:00</t>
         </is>
       </c>
     </row>
@@ -2106,27 +2102,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Buenaventura</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>COBUN</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2023-08-02T14:30:00</t>
+          <t>2023-07-31T03:00:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2023-08-03T18:00:00</t>
+          <t>2023-08-01T15:30:00</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2142,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>COBUN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2023-08-06T22:00:00</t>
+          <t>2023-08-02T14:30:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2023-08-08T07:00:00</t>
+          <t>2023-08-03T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2186,27 +2182,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mejillones</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CLMJS</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2023-08-10T15:00:00</t>
+          <t>2023-08-06T22:00:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2023-08-12T15:00:00</t>
+          <t>2023-08-08T07:00:00</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2222,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Mejillones</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CLSAI</t>
+          <t>CLMJS</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2241,12 +2237,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2023-08-14T15:30:00</t>
+          <t>2023-08-10T15:00:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2023-08-16T07:00:00</t>
+          <t>2023-08-12T15:00:00</t>
         </is>
       </c>
     </row>
@@ -2256,37 +2252,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>MAERSK ELBA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>9430363</t>
+          <t>9458078</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Port Qasim</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PKQCT</t>
+          <t>CLSAI</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2023-05-23T12:57:00</t>
+          <t>2023-08-14T15:30:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2023-05-24T07:00:00</t>
+          <t>2023-08-16T07:00:00</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2317,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2023-05-26T04:00:00</t>
+          <t>2023-05-26T04:15:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2023-05-26T17:00:00</t>
+          <t>2023-05-26T17:30:00</t>
         </is>
       </c>
     </row>
@@ -2978,27 +2974,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Prince Rupert</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>CAPRR</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2023-05-23T20:00:00</t>
+          <t>2023-06-01T01:00:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2023-05-24T03:01:00</t>
+          <t>2023-06-03T01:00:00</t>
         </is>
       </c>
     </row>
@@ -3018,12 +3014,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Prince Rupert</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CAPRR</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3033,12 +3029,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2023-06-01T01:00:00</t>
+          <t>2023-06-06T08:00:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2023-06-03T01:00:00</t>
+          <t>2023-06-10T08:00:00</t>
         </is>
       </c>
     </row>
@@ -3058,27 +3054,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CAVAN</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2023-06-06T08:00:00</t>
+          <t>2023-06-21T05:00:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2023-06-10T08:00:00</t>
+          <t>2023-06-21T14:00:00</t>
         </is>
       </c>
     </row>
@@ -3098,27 +3094,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2023-06-23T22:00:00</t>
+          <t>2023-06-24T04:00:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2023-06-24T07:00:00</t>
+          <t>2023-06-24T15:01:00</t>
         </is>
       </c>
     </row>
@@ -3138,27 +3134,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2023-06-26T13:00:00</t>
+          <t>2023-06-27T00:01:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2023-06-27T00:01:00</t>
+          <t>2023-06-27T18:01:00</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3174,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3193,12 +3189,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2023-06-29T13:00:00</t>
+          <t>2023-06-28T18:00:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2023-06-30T07:00:00</t>
+          <t>2023-06-29T12:00:00</t>
         </is>
       </c>
     </row>
@@ -3218,12 +3214,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3233,12 +3229,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2023-07-01T15:00:00</t>
+          <t>2023-07-01T14:00:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2023-07-02T09:00:00</t>
+          <t>2023-07-02T06:01:00</t>
         </is>
       </c>
     </row>
@@ -3258,12 +3254,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3273,12 +3269,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2023-07-04T11:00:00</t>
+          <t>2023-07-03T03:01:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2023-07-05T03:01:00</t>
+          <t>2023-07-04T03:01:00</t>
         </is>
       </c>
     </row>
@@ -3298,17 +3294,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3318,7 +3314,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2023-07-07T00:01:00</t>
+          <t>2023-07-06T22:00:00</t>
         </is>
       </c>
     </row>
@@ -3338,27 +3334,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2023-07-08T21:00:00</t>
+          <t>2023-07-09T01:00:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2023-07-09T19:00:00</t>
+          <t>2023-07-09T06:01:00</t>
         </is>
       </c>
     </row>
@@ -3378,27 +3374,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Prince Rupert</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>CAPRR</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2023-07-11T22:00:00</t>
+          <t>2023-07-19T04:00:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2023-07-12T03:01:00</t>
+          <t>2023-07-21T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3418,12 +3414,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Prince Rupert</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CAPRR</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3433,12 +3429,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2023-07-22T01:00:00</t>
+          <t>2023-07-26T04:00:00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2023-07-24T01:00:00</t>
+          <t>2023-07-30T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3458,27 +3454,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CAVAN</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2023-07-29T01:00:00</t>
+          <t>2023-08-10T04:00:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2023-08-02T01:00:00</t>
+          <t>2023-08-10T13:00:00</t>
         </is>
       </c>
     </row>
@@ -3498,27 +3494,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2023-08-13T01:00:00</t>
+          <t>2023-08-13T02:00:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2023-08-13T10:00:00</t>
+          <t>2023-08-13T13:00:00</t>
         </is>
       </c>
     </row>
@@ -3538,27 +3534,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2023-08-15T23:00:00</t>
+          <t>2023-08-15T22:00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2023-08-16T10:00:00</t>
+          <t>2023-08-16T16:00:00</t>
         </is>
       </c>
     </row>
@@ -3578,12 +3574,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3593,12 +3589,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2023-08-18T19:00:00</t>
+          <t>2023-08-17T21:00:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2023-08-19T13:00:00</t>
+          <t>2023-08-18T15:00:00</t>
         </is>
       </c>
     </row>
@@ -3608,33 +3604,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAERSK HUACHO</t>
+          <t>MAERSK SANTANA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>9848948</t>
+          <t>9289934</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+          <t>Ningbo</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>CNNGB</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2023-05-29T23:00:00</t>
+          <t>2023-08-20T23:01:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2023-05-29T23:01:00</t>
+          <t>2023-08-21T15:01:00</t>
         </is>
       </c>
     </row>
@@ -3665,12 +3665,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2023-05-30T15:00:00</t>
+          <t>2023-05-29T23:00:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2023-05-30T15:01:00</t>
+          <t>2023-05-29T23:01:00</t>
         </is>
       </c>
     </row>
@@ -3690,14 +3690,10 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -3705,12 +3701,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2023-05-30T17:00:00</t>
+          <t>2023-05-30T15:00:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2023-06-01T00:01:00</t>
+          <t>2023-05-30T15:01:00</t>
         </is>
       </c>
     </row>
@@ -3730,27 +3726,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2023-06-01T15:00:00</t>
+          <t>2023-05-30T17:00:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2023-06-02T14:00:00</t>
+          <t>2023-06-01T00:01:00</t>
         </is>
       </c>
     </row>
@@ -3770,27 +3766,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>ILHFA</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2023-06-05T06:00:00</t>
+          <t>2023-06-01T15:00:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2023-06-07T18:00:00</t>
+          <t>2023-06-02T14:00:00</t>
         </is>
       </c>
     </row>
@@ -3810,27 +3806,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>SIKOP</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2023-06-07T22:00:00</t>
+          <t>2023-06-05T06:00:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2023-06-09T10:00:00</t>
+          <t>2023-06-07T18:00:00</t>
         </is>
       </c>
     </row>
@@ -3850,27 +3846,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>HRRJK</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2023-06-10T08:30:00</t>
+          <t>2023-06-07T22:00:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2023-06-12T08:30:00</t>
+          <t>2023-06-09T10:00:00</t>
         </is>
       </c>
     </row>
@@ -3890,27 +3886,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2023-06-12T23:00:00</t>
+          <t>2023-06-10T08:30:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2023-06-14T23:01:00</t>
+          <t>2023-06-12T08:30:00</t>
         </is>
       </c>
     </row>
@@ -3930,27 +3926,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2023-06-17T21:00:00</t>
+          <t>2023-06-12T23:00:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2023-06-19T16:00:00</t>
+          <t>2023-06-14T23:01:00</t>
         </is>
       </c>
     </row>
@@ -3970,10 +3966,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -3981,12 +3981,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2023-06-20T06:00:00</t>
+          <t>2023-06-17T21:00:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2023-06-20T06:01:00</t>
+          <t>2023-06-19T16:00:00</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2023-06-20T15:00:00</t>
+          <t>2023-06-20T06:00:00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2023-06-20T15:01:00</t>
+          <t>2023-06-20T06:01:00</t>
         </is>
       </c>
     </row>
@@ -4042,27 +4042,23 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>SAKAC</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2023-06-22T06:00:00</t>
+          <t>2023-06-20T15:00:00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2023-06-23T03:00:00</t>
+          <t>2023-06-20T15:01:00</t>
         </is>
       </c>
     </row>
@@ -4082,12 +4078,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>King Abdullah Port</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>SAKAC</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4097,12 +4093,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2023-06-23T16:00:00</t>
+          <t>2023-06-22T06:00:00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2023-06-24T16:00:00</t>
+          <t>2023-06-23T03:00:00</t>
         </is>
       </c>
     </row>
@@ -4122,27 +4118,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>SAJED</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2023-07-04T18:00:00</t>
+          <t>2023-06-23T16:00:00</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2023-07-06T01:00:00</t>
+          <t>2023-06-24T16:00:00</t>
         </is>
       </c>
     </row>
@@ -4162,27 +4158,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2023-07-24T00:01:00</t>
+          <t>2023-07-04T18:00:00</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2023-07-26T00:01:00</t>
+          <t>2023-07-06T01:00:00</t>
         </is>
       </c>
     </row>
@@ -4202,12 +4198,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4217,12 +4213,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2023-07-26T22:00:00</t>
+          <t>2023-07-24T00:01:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2023-07-27T18:00:00</t>
+          <t>2023-07-26T00:01:00</t>
         </is>
       </c>
     </row>
@@ -4242,27 +4238,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2023-07-29T17:00:00</t>
+          <t>2023-07-26T22:00:00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2023-07-31T14:00:00</t>
+          <t>2023-07-27T18:00:00</t>
         </is>
       </c>
     </row>
@@ -4282,12 +4278,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4297,12 +4293,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2023-07-31T19:30:00</t>
+          <t>2023-07-29T17:00:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2023-07-31T20:30:00</t>
+          <t>2023-07-31T14:00:00</t>
         </is>
       </c>
     </row>
@@ -4322,27 +4318,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2023-08-03T15:00:00</t>
+          <t>2023-07-31T19:30:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2023-08-04T23:00:00</t>
+          <t>2023-07-31T20:30:00</t>
         </is>
       </c>
     </row>
@@ -4362,12 +4358,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4377,12 +4373,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2023-08-06T07:00:00</t>
+          <t>2023-08-03T15:00:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2023-08-07T07:00:00</t>
+          <t>2023-08-04T23:00:00</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4398,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4417,12 +4413,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2023-08-09T18:00:00</t>
+          <t>2023-08-06T07:00:00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2023-08-10T07:00:00</t>
+          <t>2023-08-07T07:00:00</t>
         </is>
       </c>
     </row>
@@ -4442,27 +4438,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2023-08-14T02:00:00</t>
+          <t>2023-08-09T18:00:00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2023-08-15T01:00:00</t>
+          <t>2023-08-10T07:00:00</t>
         </is>
       </c>
     </row>
@@ -4472,37 +4468,37 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MAERSK ESSEN</t>
+          <t>MAERSK HUACHO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>9456783</t>
+          <t>9848948</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2023-05-27T13:00:00</t>
+          <t>2023-08-14T02:00:00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2023-05-28T06:00:00</t>
+          <t>2023-08-15T01:00:00</t>
         </is>
       </c>
     </row>
@@ -4522,12 +4518,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4537,12 +4533,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2023-05-28T16:00:00</t>
+          <t>2023-05-28T09:00:00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2023-05-29T20:00:00</t>
+          <t>2023-05-28T17:00:00</t>
         </is>
       </c>
     </row>
@@ -4562,12 +4558,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4577,12 +4573,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2023-06-01T12:00:00</t>
+          <t>2023-05-29T03:00:00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2023-06-02T08:00:00</t>
+          <t>2023-05-29T18:00:00</t>
         </is>
       </c>
     </row>
@@ -4602,12 +4598,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4617,12 +4613,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2023-06-03T08:00:00</t>
+          <t>2023-05-31T12:00:00</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2023-06-04T08:00:00</t>
+          <t>2023-06-01T03:00:00</t>
         </is>
       </c>
     </row>
@@ -4642,27 +4638,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Long Beach</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>USLGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2023-06-17T08:00:00</t>
+          <t>2023-06-02T08:00:00</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2023-06-22T03:00:00</t>
+          <t>2023-06-03T08:00:00</t>
         </is>
       </c>
     </row>
@@ -4682,27 +4678,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Long Beach</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>USLGB</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2023-07-14T15:00:00</t>
+          <t>2023-06-17T08:00:00</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2023-07-15T06:00:00</t>
+          <t>2023-06-22T03:00:00</t>
         </is>
       </c>
     </row>
@@ -4722,27 +4718,27 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2023-07-27T18:00:00</t>
+          <t>2023-07-14T15:00:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2023-07-28T06:00:00</t>
+          <t>2023-07-15T06:00:00</t>
         </is>
       </c>
     </row>
@@ -4762,12 +4758,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4777,12 +4773,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2023-07-28T13:00:00</t>
+          <t>2023-07-27T18:00:00</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2023-07-29T06:00:00</t>
+          <t>2023-07-28T06:00:00</t>
         </is>
       </c>
     </row>
@@ -4802,12 +4798,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4817,12 +4813,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2023-07-29T16:00:00</t>
+          <t>2023-07-28T13:00:00</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2023-07-30T20:00:00</t>
+          <t>2023-07-29T06:00:00</t>
         </is>
       </c>
     </row>
@@ -4842,12 +4838,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4857,12 +4853,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2023-08-02T12:00:00</t>
+          <t>2023-07-29T16:00:00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2023-08-03T08:00:00</t>
+          <t>2023-07-30T20:00:00</t>
         </is>
       </c>
     </row>
@@ -4882,12 +4878,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4897,12 +4893,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2023-08-04T08:00:00</t>
+          <t>2023-08-02T12:00:00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2023-08-05T08:00:00</t>
+          <t>2023-08-03T08:00:00</t>
         </is>
       </c>
     </row>
@@ -4912,37 +4908,37 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MAERSK HONG KONG</t>
+          <t>MAERSK ESSEN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>9784257</t>
+          <t>9456783</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2023-05-24T06:00:00</t>
+          <t>2023-08-04T08:00:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2023-05-25T04:00:00</t>
+          <t>2023-08-05T08:00:00</t>
         </is>
       </c>
     </row>
@@ -4962,23 +4958,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SGSIN</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2023-06-04T23:00:00</t>
+          <t>2023-05-24T06:40:00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2023-06-04T23:01:00</t>
+          <t>2023-05-25T04:00:00</t>
         </is>
       </c>
     </row>
@@ -5009,12 +5009,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2023-06-05T14:59:00</t>
+          <t>2023-06-04T23:00:00</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2023-06-05T15:00:00</t>
+          <t>2023-06-04T23:01:00</t>
         </is>
       </c>
     </row>
@@ -5034,14 +5034,10 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -5049,12 +5045,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2023-06-05T16:00:00</t>
+          <t>2023-06-05T14:59:00</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2023-06-06T20:00:00</t>
+          <t>2023-06-05T15:00:00</t>
         </is>
       </c>
     </row>
@@ -5074,27 +5070,27 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2023-06-07T15:00:00</t>
+          <t>2023-06-05T16:00:00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2023-06-08T19:00:00</t>
+          <t>2023-06-06T20:00:00</t>
         </is>
       </c>
     </row>
@@ -5114,27 +5110,27 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>ILHFA</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2023-06-12T06:00:00</t>
+          <t>2023-06-07T15:00:00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2023-06-14T18:00:00</t>
+          <t>2023-06-08T19:00:00</t>
         </is>
       </c>
     </row>
@@ -5154,27 +5150,27 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>SIKOP</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2023-06-15T07:00:00</t>
+          <t>2023-06-12T06:00:00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2023-06-19T01:00:00</t>
+          <t>2023-06-14T18:00:00</t>
         </is>
       </c>
     </row>
@@ -5194,27 +5190,27 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>HRRJK</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2023-06-19T20:30:00</t>
+          <t>2023-06-15T07:00:00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2023-06-21T04:30:00</t>
+          <t>2023-06-19T01:00:00</t>
         </is>
       </c>
     </row>
@@ -5234,27 +5230,27 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2023-06-21T19:00:00</t>
+          <t>2023-06-19T20:30:00</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2023-06-21T20:00:00</t>
+          <t>2023-06-21T04:30:00</t>
         </is>
       </c>
     </row>
@@ -5274,27 +5270,27 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2023-06-25T17:00:00</t>
+          <t>2023-06-21T19:00:00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2023-06-27T12:00:00</t>
+          <t>2023-06-21T20:00:00</t>
         </is>
       </c>
     </row>
@@ -5314,10 +5310,14 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -5325,12 +5325,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2023-06-27T23:00:00</t>
+          <t>2023-06-25T17:00:00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2023-06-27T23:01:00</t>
+          <t>2023-06-27T12:00:00</t>
         </is>
       </c>
     </row>
@@ -5361,12 +5361,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2023-06-28T07:59:00</t>
+          <t>2023-06-27T23:00:00</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2023-06-28T08:00:00</t>
+          <t>2023-06-27T23:01:00</t>
         </is>
       </c>
     </row>
@@ -5386,27 +5386,23 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>SAKAC</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2023-06-29T23:00:00</t>
+          <t>2023-06-28T07:59:00</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2023-06-30T20:00:00</t>
+          <t>2023-06-28T08:00:00</t>
         </is>
       </c>
     </row>
@@ -5426,12 +5422,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>King Abdullah Port</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>SAKAC</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5441,12 +5437,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2023-07-01T09:00:00</t>
+          <t>2023-06-29T23:00:00</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2023-07-02T09:00:00</t>
+          <t>2023-06-30T20:00:00</t>
         </is>
       </c>
     </row>
@@ -5466,27 +5462,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>SAJED</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2023-07-12T16:00:00</t>
+          <t>2023-07-01T09:00:00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2023-07-13T23:00:00</t>
+          <t>2023-07-02T09:00:00</t>
         </is>
       </c>
     </row>
@@ -5506,27 +5502,27 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2023-07-31T00:01:00</t>
+          <t>2023-07-12T16:00:00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2023-08-02T00:01:00</t>
+          <t>2023-07-13T23:00:00</t>
         </is>
       </c>
     </row>
@@ -5546,12 +5542,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5561,12 +5557,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2023-08-02T22:00:00</t>
+          <t>2023-07-31T00:01:00</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2023-08-03T18:00:00</t>
+          <t>2023-08-02T00:01:00</t>
         </is>
       </c>
     </row>
@@ -5586,27 +5582,27 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2023-08-05T17:00:00</t>
+          <t>2023-08-02T22:00:00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2023-08-07T14:00:00</t>
+          <t>2023-08-03T18:00:00</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5622,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5641,12 +5637,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2023-08-07T19:30:00</t>
+          <t>2023-08-05T17:00:00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2023-08-07T20:30:00</t>
+          <t>2023-08-07T14:00:00</t>
         </is>
       </c>
     </row>
@@ -5666,27 +5662,27 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2023-08-10T15:00:00</t>
+          <t>2023-08-07T19:30:00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2023-08-11T23:00:00</t>
+          <t>2023-08-07T20:30:00</t>
         </is>
       </c>
     </row>
@@ -5706,12 +5702,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5721,12 +5717,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2023-08-13T07:00:00</t>
+          <t>2023-08-10T15:00:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2023-08-14T07:00:00</t>
+          <t>2023-08-11T23:00:00</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5742,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5761,12 +5757,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2023-08-16T18:00:00</t>
+          <t>2023-08-13T07:00:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2023-08-17T07:00:00</t>
+          <t>2023-08-14T07:00:00</t>
         </is>
       </c>
     </row>
@@ -5776,37 +5772,37 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>MAERSK HONG KONG</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>9430363</t>
+          <t>9784257</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Port Qasim</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PKQCT</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2023-05-23T12:57:00</t>
+          <t>2023-08-16T18:00:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2023-05-24T07:00:00</t>
+          <t>2023-08-17T07:00:00</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5837,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2023-05-26T04:00:00</t>
+          <t>2023-05-26T04:15:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2023-05-26T17:00:00</t>
+          <t>2023-05-26T17:30:00</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8229,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2023-05-25T10:00:00</t>
+          <t>2023-05-25T08:00:00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2023-05-26T21:00:00</t>
+          <t>2023-05-26T19:00:00</t>
         </is>
       </c>
     </row>
@@ -8793,12 +8789,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2023-05-24T18:00:00</t>
+          <t>2023-05-25T16:00:00</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2023-05-26T15:00:00</t>
+          <t>2023-05-27T13:00:00</t>
         </is>
       </c>
     </row>
@@ -8833,12 +8829,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2023-06-05T19:00:00</t>
+          <t>2023-06-06T17:00:00</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2023-06-07T21:00:00</t>
+          <t>2023-06-08T19:00:00</t>
         </is>
       </c>
     </row>
@@ -8873,12 +8869,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2023-06-09T04:30:00</t>
+          <t>2023-06-10T02:30:00</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2023-06-11T16:30:00</t>
+          <t>2023-06-12T14:30:00</t>
         </is>
       </c>
     </row>
@@ -8913,12 +8909,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2023-06-11T18:30:00</t>
+          <t>2023-06-12T16:30:00</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2023-06-14T03:00:00</t>
+          <t>2023-06-15T01:00:00</t>
         </is>
       </c>
     </row>
@@ -8953,12 +8949,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2023-06-19T06:00:00</t>
+          <t>2023-06-19T04:00:00</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2023-06-21T06:00:00</t>
+          <t>2023-06-21T04:00:00</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9769,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2023-05-23T23:00:00</t>
+          <t>2023-05-24T06:48:00</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -10790,12 +10786,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -10805,12 +10801,12 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2023-05-23T10:42:00</t>
+          <t>2023-05-25T22:30:00</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2023-05-25T07:00:00</t>
+          <t>2023-05-25T23:30:00</t>
         </is>
       </c>
     </row>
@@ -10830,27 +10826,27 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2023-05-25T22:30:00</t>
+          <t>2023-05-26T09:00:00</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2023-05-25T23:30:00</t>
+          <t>2023-05-27T17:00:00</t>
         </is>
       </c>
     </row>
@@ -10870,12 +10866,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -10885,12 +10881,12 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2023-05-26T09:00:00</t>
+          <t>2023-05-29T00:01:00</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2023-05-27T17:00:00</t>
+          <t>2023-05-30T00:01:00</t>
         </is>
       </c>
     </row>
@@ -10910,12 +10906,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -10925,12 +10921,12 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2023-05-29T00:01:00</t>
+          <t>2023-06-01T06:00:00</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2023-05-30T00:01:00</t>
+          <t>2023-06-01T19:01:00</t>
         </is>
       </c>
     </row>
@@ -10950,27 +10946,27 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2023-06-01T06:00:00</t>
+          <t>2023-06-05T13:00:00</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2023-06-01T19:01:00</t>
+          <t>2023-06-06T12:00:00</t>
         </is>
       </c>
     </row>
@@ -10990,27 +10986,23 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>SGSIN</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2023-06-05T13:00:00</t>
+          <t>2023-06-18T23:00:00</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2023-06-06T12:00:00</t>
+          <t>2023-06-18T23:01:00</t>
         </is>
       </c>
     </row>
@@ -11041,12 +11033,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2023-06-18T23:00:00</t>
+          <t>2023-06-19T14:59:00</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2023-06-18T23:01:00</t>
+          <t>2023-06-19T15:00:00</t>
         </is>
       </c>
     </row>
@@ -11066,10 +11058,14 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F269" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -11077,12 +11073,12 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2023-06-19T14:59:00</t>
+          <t>2023-06-19T18:00:00</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2023-06-19T15:00:00</t>
+          <t>2023-06-21T01:00:00</t>
         </is>
       </c>
     </row>
@@ -11102,27 +11098,27 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ILHFA</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2023-06-19T18:00:00</t>
+          <t>2023-06-21T15:00:00</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2023-06-21T01:00:00</t>
+          <t>2023-06-22T19:00:00</t>
         </is>
       </c>
     </row>
@@ -11142,27 +11138,27 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>SIKOP</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2023-06-21T15:00:00</t>
+          <t>2023-06-26T06:00:00</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2023-06-22T19:00:00</t>
+          <t>2023-06-28T18:00:00</t>
         </is>
       </c>
     </row>
@@ -11182,27 +11178,27 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2023-06-26T06:00:00</t>
+          <t>2023-06-29T07:00:00</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2023-06-28T18:00:00</t>
+          <t>2023-07-03T01:00:00</t>
         </is>
       </c>
     </row>
@@ -11222,27 +11218,27 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2023-06-29T07:00:00</t>
+          <t>2023-07-03T20:30:00</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2023-07-03T01:00:00</t>
+          <t>2023-07-05T18:30:00</t>
         </is>
       </c>
     </row>
@@ -11262,27 +11258,27 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>HRRJK</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2023-07-03T20:30:00</t>
+          <t>2023-07-06T09:00:00</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2023-07-05T18:30:00</t>
+          <t>2023-07-06T10:00:00</t>
         </is>
       </c>
     </row>
@@ -11302,27 +11298,27 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2023-07-06T09:00:00</t>
+          <t>2023-07-10T05:00:00</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2023-07-06T10:00:00</t>
+          <t>2023-07-12T00:01:00</t>
         </is>
       </c>
     </row>
@@ -11342,14 +11338,10 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -11357,12 +11349,12 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2023-07-10T05:00:00</t>
+          <t>2023-07-12T01:00:00</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2023-07-12T00:01:00</t>
+          <t>2023-07-12T01:01:00</t>
         </is>
       </c>
     </row>
@@ -11393,12 +11385,12 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2023-07-12T01:00:00</t>
+          <t>2023-07-12T09:59:00</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2023-07-12T01:01:00</t>
+          <t>2023-07-12T10:00:00</t>
         </is>
       </c>
     </row>
@@ -11418,23 +11410,27 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr"/>
+          <t>King Abdullah Port</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>SAKAC</t>
+        </is>
+      </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2023-07-12T09:59:00</t>
+          <t>2023-07-15T06:00:00</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2023-07-12T10:00:00</t>
+          <t>2023-07-16T03:00:00</t>
         </is>
       </c>
     </row>
@@ -11454,12 +11450,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>SAKAC</t>
+          <t>SAJED</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -11469,12 +11465,12 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2023-07-15T06:00:00</t>
+          <t>2023-07-16T16:00:00</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2023-07-16T03:00:00</t>
+          <t>2023-07-17T16:00:00</t>
         </is>
       </c>
     </row>
@@ -11494,27 +11490,27 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2023-07-16T16:00:00</t>
+          <t>2023-07-27T18:00:00</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2023-07-17T16:00:00</t>
+          <t>2023-07-29T01:00:00</t>
         </is>
       </c>
     </row>
@@ -11534,27 +11530,27 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2023-07-27T18:00:00</t>
+          <t>2023-08-14T00:01:00</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2023-07-29T01:00:00</t>
+          <t>2023-08-16T00:01:00</t>
         </is>
       </c>
     </row>
@@ -11574,12 +11570,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -11589,12 +11585,12 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2023-08-14T00:01:00</t>
+          <t>2023-08-16T22:00:00</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2023-08-16T00:01:00</t>
+          <t>2023-08-17T18:00:00</t>
         </is>
       </c>
     </row>
@@ -11614,27 +11610,27 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2023-08-16T22:00:00</t>
+          <t>2023-08-19T17:00:00</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2023-08-17T18:00:00</t>
+          <t>2023-08-21T14:00:00</t>
         </is>
       </c>
     </row>
@@ -11644,37 +11640,37 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>MAERSK HAVANA</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>9444728</t>
+          <t>9784336</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>ZAPLZ</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2023-05-23T10:35:00</t>
+          <t>2023-08-21T19:30:00</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2023-05-24T10:00:00</t>
+          <t>2023-08-21T20:30:00</t>
         </is>
       </c>
     </row>
@@ -12429,12 +12425,12 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>2023-07-17T08:00:00</t>
+          <t>2023-07-15T08:00:00</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2023-07-23T14:00:00</t>
+          <t>2023-07-21T14:00:00</t>
         </is>
       </c>
     </row>
@@ -12589,12 +12585,12 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>2023-05-24T10:00:00</t>
+          <t>2023-05-24T11:00:00</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2023-05-25T06:00:00</t>
+          <t>2023-05-25T01:00:00</t>
         </is>
       </c>
     </row>
@@ -12829,12 +12825,12 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>2023-07-03T08:00:00</t>
+          <t>2023-07-01T08:00:00</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2023-07-09T14:00:00</t>
+          <t>2023-07-07T14:00:00</t>
         </is>
       </c>
     </row>
@@ -13094,27 +13090,27 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Port Elizabeth</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>ZAPLZ</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>2023-05-23T03:47:00</t>
+          <t>2023-06-05T16:00:00</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2023-05-23T10:00:00</t>
+          <t>2023-06-06T16:00:00</t>
         </is>
       </c>
     </row>
@@ -13134,12 +13130,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ZAPLZ</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -13149,12 +13145,12 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>2023-06-05T16:00:00</t>
+          <t>2023-06-10T22:00:00</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2023-06-06T16:00:00</t>
+          <t>2023-06-13T22:00:00</t>
         </is>
       </c>
     </row>
@@ -13174,12 +13170,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -13189,12 +13185,12 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>2023-06-10T22:00:00</t>
+          <t>2023-06-20T05:00:00</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2023-06-13T22:00:00</t>
+          <t>2023-06-23T06:00:00</t>
         </is>
       </c>
     </row>
@@ -13214,27 +13210,27 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Port Tangier Mediterranee</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>MAPTM</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>2023-06-20T05:00:00</t>
+          <t>2023-07-09T07:00:00</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2023-06-23T06:00:00</t>
+          <t>2023-07-09T16:00:00</t>
         </is>
       </c>
     </row>
@@ -13254,27 +13250,27 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Port Tangier Mediterranee</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>MAPTM</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2023-07-09T07:00:00</t>
+          <t>2023-07-13T07:00:00</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2023-07-09T16:00:00</t>
+          <t>2023-07-14T19:00:00</t>
         </is>
       </c>
     </row>
@@ -13294,27 +13290,27 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>London Gateway</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>GBLGP</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2023-07-13T07:00:00</t>
+          <t>2023-07-16T02:00:00</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2023-07-14T19:00:00</t>
+          <t>2023-07-16T22:00:00</t>
         </is>
       </c>
     </row>
@@ -13334,27 +13330,27 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>London Gateway</t>
+          <t>Bremerhaven</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>GBLGP</t>
+          <t>DEBRV</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>2023-07-16T02:00:00</t>
+          <t>2023-07-18T18:00:00</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2023-07-16T22:00:00</t>
+          <t>2023-07-20T00:01:00</t>
         </is>
       </c>
     </row>
@@ -13374,27 +13370,27 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Bremerhaven</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>DEBRV</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2023-07-18T18:00:00</t>
+          <t>2023-07-24T02:00:00</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2023-07-20T00:01:00</t>
+          <t>2023-07-25T00:30:00</t>
         </is>
       </c>
     </row>
@@ -13429,12 +13425,12 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>2023-07-24T02:00:00</t>
+          <t>2023-07-25T08:00:00</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2023-07-25T00:30:00</t>
+          <t>2023-07-25T14:00:00</t>
         </is>
       </c>
     </row>
@@ -13454,27 +13450,27 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Port Elizabeth</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>ZAPLZ</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>2023-07-25T08:00:00</t>
+          <t>2023-08-09T06:00:00</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2023-07-25T14:00:00</t>
+          <t>2023-08-10T18:00:00</t>
         </is>
       </c>
     </row>
@@ -13494,12 +13490,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>ZAPLZ</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -13509,12 +13505,12 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>2023-08-09T06:00:00</t>
+          <t>2023-08-15T22:00:00</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2023-08-10T18:00:00</t>
+          <t>2023-08-18T22:00:00</t>
         </is>
       </c>
     </row>
@@ -13524,37 +13520,37 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>SANTA RITA</t>
+          <t>MAERSK HOUSTON</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>9425382</t>
+          <t>9848950</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>2023-08-15T22:00:00</t>
+          <t>2023-05-24T08:37:00</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2023-08-18T22:00:00</t>
+          <t>2023-05-25T15:00:00</t>
         </is>
       </c>
     </row>
@@ -13574,27 +13570,27 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2023-05-24T08:00:00</t>
+          <t>2023-06-05T00:01:00</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2023-05-25T15:00:00</t>
+          <t>2023-06-07T00:01:00</t>
         </is>
       </c>
     </row>
@@ -13614,12 +13610,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -13629,12 +13625,12 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2023-06-05T00:01:00</t>
+          <t>2023-06-07T22:00:00</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2023-06-07T00:01:00</t>
+          <t>2023-06-08T18:00:00</t>
         </is>
       </c>
     </row>
@@ -13654,27 +13650,27 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2023-06-07T22:00:00</t>
+          <t>2023-06-10T17:00:00</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2023-06-08T18:00:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -13694,12 +13690,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -13709,12 +13705,12 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2023-06-10T17:00:00</t>
+          <t>2023-06-12T19:30:00</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-12T20:30:00</t>
         </is>
       </c>
     </row>
@@ -13734,27 +13730,27 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2023-06-12T19:30:00</t>
+          <t>2023-06-15T15:00:00</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2023-06-12T20:30:00</t>
+          <t>2023-06-16T23:00:00</t>
         </is>
       </c>
     </row>
@@ -13774,12 +13770,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -13789,12 +13785,12 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>2023-06-15T15:00:00</t>
+          <t>2023-06-18T07:00:00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2023-06-16T23:00:00</t>
+          <t>2023-06-19T07:00:00</t>
         </is>
       </c>
     </row>
@@ -13814,12 +13810,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -13829,12 +13825,12 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2023-06-18T07:00:00</t>
+          <t>2023-06-21T18:00:00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2023-06-19T07:00:00</t>
+          <t>2023-06-22T07:00:00</t>
         </is>
       </c>
     </row>
@@ -13854,27 +13850,27 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2023-06-21T18:00:00</t>
+          <t>2023-06-26T02:00:00</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2023-06-22T07:00:00</t>
+          <t>2023-06-27T01:00:00</t>
         </is>
       </c>
     </row>
@@ -13894,27 +13890,23 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>SGSIN</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>2023-06-26T02:00:00</t>
+          <t>2023-07-09T23:00:00</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2023-06-27T01:00:00</t>
+          <t>2023-07-09T23:01:00</t>
         </is>
       </c>
     </row>
@@ -13945,12 +13937,12 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2023-07-09T23:00:00</t>
+          <t>2023-07-10T14:59:00</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2023-07-09T23:01:00</t>
+          <t>2023-07-10T15:00:00</t>
         </is>
       </c>
     </row>
@@ -13970,10 +13962,14 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F342" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -13981,12 +13977,12 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2023-07-10T14:59:00</t>
+          <t>2023-07-10T18:00:00</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2023-07-10T15:00:00</t>
+          <t>2023-07-12T01:00:00</t>
         </is>
       </c>
     </row>
@@ -14006,27 +14002,27 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ILHFA</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2023-07-10T18:00:00</t>
+          <t>2023-07-12T22:00:00</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2023-07-12T01:00:00</t>
+          <t>2023-07-14T02:00:00</t>
         </is>
       </c>
     </row>
@@ -14046,27 +14042,27 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>SIKOP</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>2023-07-12T22:00:00</t>
+          <t>2023-07-17T14:00:00</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2023-07-14T02:00:00</t>
+          <t>2023-07-20T07:00:00</t>
         </is>
       </c>
     </row>
@@ -14086,27 +14082,27 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>2023-07-17T14:00:00</t>
+          <t>2023-07-20T11:00:00</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2023-07-20T07:00:00</t>
+          <t>2023-07-21T11:00:00</t>
         </is>
       </c>
     </row>
@@ -14126,27 +14122,27 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2023-07-20T11:00:00</t>
+          <t>2023-07-21T22:00:00</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2023-07-21T11:00:00</t>
+          <t>2023-07-23T14:00:00</t>
         </is>
       </c>
     </row>
@@ -14166,27 +14162,27 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>HRRJK</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2023-07-21T22:00:00</t>
+          <t>2023-07-24T02:00:00</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2023-07-23T14:00:00</t>
+          <t>2023-07-27T02:00:00</t>
         </is>
       </c>
     </row>
@@ -14206,27 +14202,27 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2023-07-24T02:00:00</t>
+          <t>2023-07-30T10:00:00</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2023-07-27T02:00:00</t>
+          <t>2023-08-01T05:00:00</t>
         </is>
       </c>
     </row>
@@ -14246,14 +14242,10 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -14261,12 +14253,12 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2023-07-30T10:00:00</t>
+          <t>2023-08-01T06:00:00</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2023-08-01T05:00:00</t>
+          <t>2023-08-01T06:01:00</t>
         </is>
       </c>
     </row>
@@ -14297,12 +14289,12 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2023-08-01T06:00:00</t>
+          <t>2023-08-01T14:59:00</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2023-08-01T06:01:00</t>
+          <t>2023-08-01T15:00:00</t>
         </is>
       </c>
     </row>
@@ -14322,23 +14314,27 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr"/>
+          <t>King Abdullah Port</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>SAKAC</t>
+        </is>
+      </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>2023-08-01T14:59:00</t>
+          <t>2023-08-03T13:00:00</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2023-08-01T15:00:00</t>
+          <t>2023-08-04T10:00:00</t>
         </is>
       </c>
     </row>
@@ -14358,12 +14354,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>SAKAC</t>
+          <t>SAJED</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -14373,12 +14369,12 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>2023-08-03T13:00:00</t>
+          <t>2023-08-04T19:00:00</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2023-08-04T10:00:00</t>
+          <t>2023-08-05T15:00:00</t>
         </is>
       </c>
     </row>
@@ -14398,27 +14394,27 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>2023-08-04T19:00:00</t>
+          <t>2023-08-17T21:00:00</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2023-08-05T15:00:00</t>
+          <t>2023-08-19T04:00:00</t>
         </is>
       </c>
     </row>
@@ -14428,37 +14424,37 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>MAERSK HOUSTON</t>
+          <t>MAERSK BRATAN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>9848950</t>
+          <t>9394894</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>DEHAM</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>2023-08-17T21:00:00</t>
+          <t>2023-05-24T23:00:00</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2023-08-19T04:00:00</t>
+          <t>2023-05-25T15:00:00</t>
         </is>
       </c>
     </row>
@@ -14478,27 +14474,27 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Bremerhaven</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>DEBRV</t>
+          <t>COCTG</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>2023-05-23T22:00:00</t>
+          <t>2023-06-08T07:00:00</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2023-05-24T06:00:00</t>
+          <t>2023-06-08T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14518,27 +14514,27 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>DEHAM</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>2023-05-24T23:00:00</t>
+          <t>2023-06-09T19:00:00</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2023-05-25T15:00:00</t>
+          <t>2023-06-10T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14558,27 +14554,27 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>COCTG</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>2023-06-08T07:00:00</t>
+          <t>2023-06-10T22:00:00</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2023-06-08T18:00:00</t>
+          <t>2023-06-11T17:30:00</t>
         </is>
       </c>
     </row>
@@ -14598,12 +14594,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -14613,12 +14609,12 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>2023-06-09T19:00:00</t>
+          <t>2023-06-11T18:00:00</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>2023-06-10T18:00:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -14638,27 +14634,27 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2023-06-10T22:00:00</t>
+          <t>2023-06-16T07:00:00</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2023-06-11T17:30:00</t>
+          <t>2023-06-17T07:00:00</t>
         </is>
       </c>
     </row>
@@ -14678,27 +14674,27 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2023-06-11T18:00:00</t>
+          <t>2023-06-21T15:30:00</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-23T01:30:00</t>
         </is>
       </c>
     </row>
@@ -14718,12 +14714,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -14733,12 +14729,12 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2023-06-16T07:00:00</t>
+          <t>2023-06-25T20:00:00</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>2023-06-17T07:00:00</t>
+          <t>2023-06-26T08:00:00</t>
         </is>
       </c>
     </row>
@@ -14758,27 +14754,27 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2023-06-21T15:30:00</t>
+          <t>2023-06-30T01:00:00</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>2023-06-23T01:30:00</t>
+          <t>2023-06-30T14:30:00</t>
         </is>
       </c>
     </row>
@@ -14798,27 +14794,27 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Pisco</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>PEPIO</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2023-06-25T20:00:00</t>
+          <t>2023-06-30T22:00:00</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2023-06-26T08:00:00</t>
+          <t>2023-07-01T17:30:00</t>
         </is>
       </c>
     </row>
@@ -14838,12 +14834,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -14853,12 +14849,12 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>2023-06-30T01:00:00</t>
+          <t>2023-07-01T19:00:00</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>2023-06-30T14:30:00</t>
+          <t>2023-07-02T17:00:00</t>
         </is>
       </c>
     </row>
@@ -14878,27 +14874,27 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>BEANR</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>2023-06-30T22:00:00</t>
+          <t>2023-07-15T06:00:00</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>2023-07-01T17:30:00</t>
+          <t>2023-07-16T06:00:00</t>
         </is>
       </c>
     </row>
@@ -14918,27 +14914,27 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>2023-07-01T19:00:00</t>
+          <t>2023-07-17T00:01:00</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>2023-07-02T17:00:00</t>
+          <t>2023-07-17T20:00:00</t>
         </is>
       </c>
     </row>
@@ -14958,27 +14954,27 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>BEANR</t>
+          <t>DEHAM</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>2023-07-15T06:00:00</t>
+          <t>2023-07-19T23:00:00</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2023-07-16T06:00:00</t>
+          <t>2023-07-20T15:00:00</t>
         </is>
       </c>
     </row>
@@ -14998,27 +14994,27 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>COCTG</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>2023-07-17T00:01:00</t>
+          <t>2023-08-03T07:00:00</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>2023-07-17T20:00:00</t>
+          <t>2023-08-03T18:00:00</t>
         </is>
       </c>
     </row>
@@ -15038,27 +15034,27 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>DEHAM</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>2023-07-19T23:00:00</t>
+          <t>2023-08-04T19:00:00</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>2023-07-20T15:00:00</t>
+          <t>2023-08-05T18:00:00</t>
         </is>
       </c>
     </row>
@@ -15078,27 +15074,27 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>COCTG</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>2023-08-03T07:00:00</t>
+          <t>2023-08-05T22:00:00</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2023-08-03T18:00:00</t>
+          <t>2023-08-06T17:30:00</t>
         </is>
       </c>
     </row>
@@ -15118,12 +15114,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -15133,12 +15129,12 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>2023-08-04T19:00:00</t>
+          <t>2023-08-06T18:00:00</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>2023-08-05T18:00:00</t>
+          <t>2023-08-07T14:00:00</t>
         </is>
       </c>
     </row>
@@ -15158,27 +15154,27 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>2023-08-05T22:00:00</t>
+          <t>2023-08-11T07:00:00</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>2023-08-06T17:30:00</t>
+          <t>2023-08-12T07:00:00</t>
         </is>
       </c>
     </row>
@@ -15198,27 +15194,27 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>2023-08-06T18:00:00</t>
+          <t>2023-08-16T15:30:00</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2023-08-07T14:00:00</t>
+          <t>2023-08-18T01:30:00</t>
         </is>
       </c>
     </row>
@@ -15238,12 +15234,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -15253,52 +15249,12 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>2023-08-11T07:00:00</t>
+          <t>2023-08-20T20:00:00</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2023-08-12T07:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>MAERSK BRATAN</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>9394894</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>Valparaiso</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>CLVAP</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>2023-08-16T15:30:00</t>
-        </is>
-      </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2023-08-18T01:30:00</t>
+          <t>2023-08-21T08:00:00</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2023-06-01T06:00:00</t>
+          <t>2023-06-02T10:00:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2023-06-03T18:00:00</t>
+          <t>2023-06-04T22:00:00</t>
         </is>
       </c>
     </row>
@@ -1093,12 +1093,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2023-06-04T07:00:00</t>
+          <t>2023-06-05T11:00:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2023-06-08T01:00:00</t>
+          <t>2023-06-09T05:00:00</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1133,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2023-06-08T14:30:00</t>
+          <t>2023-06-09T18:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2023-06-10T12:30:00</t>
+          <t>2023-06-11T16:30:00</t>
         </is>
       </c>
     </row>
@@ -1158,27 +1158,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2023-06-11T01:00:00</t>
+          <t>2023-06-14T19:00:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2023-06-12T01:00:00</t>
+          <t>2023-06-16T05:00:00</t>
         </is>
       </c>
     </row>
@@ -1198,14 +1198,10 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -1213,12 +1209,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2023-06-14T02:00:00</t>
+          <t>2023-06-16T09:00:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2023-06-15T21:01:00</t>
+          <t>2023-06-16T09:01:00</t>
         </is>
       </c>
     </row>
@@ -1249,12 +1245,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2023-06-16T03:00:00</t>
+          <t>2023-06-16T18:00:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2023-06-16T03:01:00</t>
+          <t>2023-06-16T18:01:00</t>
         </is>
       </c>
     </row>
@@ -1274,23 +1270,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>King Abdullah Port</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SAKAC</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2023-06-16T12:00:00</t>
+          <t>2023-06-18T06:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2023-06-16T12:01:00</t>
+          <t>2023-06-19T03:00:00</t>
         </is>
       </c>
     </row>
@@ -1310,12 +1310,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SAKAC</t>
+          <t>SAJED</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2023-06-18T06:00:00</t>
+          <t>2023-06-19T16:00:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2023-06-19T03:00:00</t>
+          <t>2023-06-20T16:00:00</t>
         </is>
       </c>
     </row>
@@ -1350,27 +1350,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2023-06-19T16:00:00</t>
+          <t>2023-06-30T18:00:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2023-06-20T16:00:00</t>
+          <t>2023-07-02T01:01:00</t>
         </is>
       </c>
     </row>
@@ -1390,27 +1390,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2023-06-30T18:00:00</t>
+          <t>2023-07-17T00:01:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2023-07-02T01:01:00</t>
+          <t>2023-07-19T00:01:00</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1430,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1445,12 +1445,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2023-07-17T00:01:00</t>
+          <t>2023-07-19T22:00:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2023-07-19T00:01:00</t>
+          <t>2023-07-20T18:00:00</t>
         </is>
       </c>
     </row>
@@ -1470,27 +1470,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2023-07-19T22:00:00</t>
+          <t>2023-07-22T17:00:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2023-07-20T18:00:00</t>
+          <t>2023-07-24T14:00:00</t>
         </is>
       </c>
     </row>
@@ -1510,12 +1510,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1525,12 +1525,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2023-07-22T17:00:00</t>
+          <t>2023-07-24T19:30:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2023-07-24T14:00:00</t>
+          <t>2023-07-24T20:30:00</t>
         </is>
       </c>
     </row>
@@ -1550,27 +1550,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2023-07-24T19:30:00</t>
+          <t>2023-07-27T15:00:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2023-07-24T20:30:00</t>
+          <t>2023-07-28T23:00:00</t>
         </is>
       </c>
     </row>
@@ -1590,12 +1590,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1605,12 +1605,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2023-07-27T15:00:00</t>
+          <t>2023-07-30T07:00:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2023-07-28T23:00:00</t>
+          <t>2023-07-31T07:00:00</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2023-07-30T07:00:00</t>
+          <t>2023-08-02T18:00:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2023-07-31T07:00:00</t>
+          <t>2023-08-03T07:00:00</t>
         </is>
       </c>
     </row>
@@ -1670,27 +1670,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2023-08-02T18:00:00</t>
+          <t>2023-08-07T02:00:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2023-08-03T07:00:00</t>
+          <t>2023-08-08T01:00:00</t>
         </is>
       </c>
     </row>
@@ -1710,27 +1710,23 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SGSIN</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2023-08-07T02:00:00</t>
+          <t>2023-08-20T23:00:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2023-08-08T01:00:00</t>
+          <t>2023-08-20T23:01:00</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1757,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2023-08-20T23:00:00</t>
+          <t>2023-08-21T14:59:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2023-08-20T23:01:00</t>
+          <t>2023-08-21T15:00:00</t>
         </is>
       </c>
     </row>
@@ -1786,10 +1782,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2023-08-21T14:59:00</t>
+          <t>2023-08-21T18:00:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2023-08-21T15:00:00</t>
+          <t>2023-08-23T01:00:00</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2023-05-31T03:00:00</t>
+          <t>2023-05-30T15:00:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1942,27 +1942,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Lazaro Cardenas</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>MXLZC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2023-06-30T23:00:00</t>
+          <t>2023-06-11T06:00:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2023-07-01T23:00:00</t>
+          <t>2023-06-12T03:30:00</t>
         </is>
       </c>
     </row>
@@ -1982,12 +1982,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1997,12 +1997,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2023-07-03T12:00:00</t>
+          <t>2023-06-30T23:00:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2023-07-04T16:00:00</t>
+          <t>2023-07-01T23:00:00</t>
         </is>
       </c>
     </row>
@@ -2022,27 +2022,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2023-07-09T07:00:00</t>
+          <t>2023-07-03T12:00:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2023-07-10T06:00:00</t>
+          <t>2023-07-04T16:00:00</t>
         </is>
       </c>
     </row>
@@ -2062,27 +2062,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2023-07-31T03:00:00</t>
+          <t>2023-07-09T07:00:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2023-08-01T15:30:00</t>
+          <t>2023-07-10T06:00:00</t>
         </is>
       </c>
     </row>
@@ -2102,27 +2102,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Buenaventura</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>COBUN</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2023-08-02T14:30:00</t>
+          <t>2023-07-31T03:00:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2023-08-03T18:00:00</t>
+          <t>2023-08-01T15:30:00</t>
         </is>
       </c>
     </row>
@@ -2142,27 +2142,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>COBUN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2023-08-06T22:00:00</t>
+          <t>2023-08-02T14:30:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2023-08-08T07:00:00</t>
+          <t>2023-08-03T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2182,27 +2182,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mejillones</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CLMJS</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2023-08-10T15:00:00</t>
+          <t>2023-08-06T22:00:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2023-08-12T15:00:00</t>
+          <t>2023-08-08T07:00:00</t>
         </is>
       </c>
     </row>
@@ -2222,12 +2222,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Mejillones</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CLSAI</t>
+          <t>CLMJS</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2023-08-14T15:30:00</t>
+          <t>2023-08-10T15:00:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2023-08-16T07:00:00</t>
+          <t>2023-08-12T15:00:00</t>
         </is>
       </c>
     </row>
@@ -2252,37 +2252,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>MAERSK ELBA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>9430363</t>
+          <t>9458078</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pipavav</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>INPPV</t>
+          <t>CLSAI</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2023-05-26T04:15:00</t>
+          <t>2023-08-14T15:30:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2023-05-26T17:30:00</t>
+          <t>2023-08-16T07:00:00</t>
         </is>
       </c>
     </row>
@@ -2302,12 +2302,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jawaharlal Nehru</t>
+          <t>Pipavav</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>INNSA</t>
+          <t>INPPV</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2317,12 +2317,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2023-05-28T04:00:00</t>
+          <t>2023-05-26T04:28:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2023-05-29T05:00:00</t>
+          <t>2023-05-26T16:40:00</t>
         </is>
       </c>
     </row>
@@ -2342,27 +2342,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Salalah</t>
+          <t>Jawaharlal Nehru</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OMSLL</t>
+          <t>INNSA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2023-05-31T20:30:00</t>
+          <t>2023-05-28T05:00:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2023-06-01T11:30:00</t>
+          <t>2023-05-29T10:00:00</t>
         </is>
       </c>
     </row>
@@ -2382,23 +2382,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>Salalah</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>OMSLL</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2023-06-06T23:00:00</t>
+          <t>2023-05-31T20:30:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2023-06-07T15:00:00</t>
+          <t>2023-06-01T11:30:00</t>
         </is>
       </c>
     </row>
@@ -2418,27 +2422,23 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Algeciras</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>ESALG</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2023-06-11T20:00:00</t>
+          <t>2023-06-06T23:00:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-07T15:00:00</t>
         </is>
       </c>
     </row>
@@ -2458,27 +2458,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2023-06-20T08:00:00</t>
+          <t>2023-06-11T20:00:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2023-06-21T06:00:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>USCHS</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2023-06-23T08:00:00</t>
+          <t>2023-06-20T08:00:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2023-06-23T18:00:00</t>
+          <t>2023-06-21T06:00:00</t>
         </is>
       </c>
     </row>
@@ -2538,12 +2538,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>USSAV</t>
+          <t>USCHS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2023-06-24T08:00:00</t>
+          <t>2023-06-23T08:00:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2023-06-25T10:00:00</t>
+          <t>2023-06-23T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2578,12 +2578,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>USHOU</t>
+          <t>USSAV</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2593,12 +2593,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2023-06-28T19:00:00</t>
+          <t>2023-06-24T08:00:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2023-06-30T05:00:00</t>
+          <t>2023-06-25T10:00:00</t>
         </is>
       </c>
     </row>
@@ -2618,12 +2618,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>USORF</t>
+          <t>USHOU</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2023-07-05T08:00:00</t>
+          <t>2023-06-28T19:00:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2023-07-05T18:00:00</t>
+          <t>2023-06-30T05:00:00</t>
         </is>
       </c>
     </row>
@@ -2658,12 +2658,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Norfolk</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>USORF</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2023-07-07T08:00:00</t>
+          <t>2023-07-05T08:00:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2023-07-08T04:00:00</t>
+          <t>2023-07-05T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2698,27 +2698,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2023-07-18T02:00:00</t>
+          <t>2023-07-07T08:00:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2023-07-18T18:00:00</t>
+          <t>2023-07-08T04:00:00</t>
         </is>
       </c>
     </row>
@@ -2738,27 +2738,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2023-07-24T10:00:00</t>
+          <t>2023-07-18T02:00:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2023-07-25T05:00:00</t>
+          <t>2023-07-18T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2778,10 +2778,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -2789,12 +2793,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2023-07-25T06:00:00</t>
+          <t>2023-07-24T10:00:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2023-07-25T15:00:00</t>
+          <t>2023-07-25T05:00:00</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2818,23 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Djibouti</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>DJJIB</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2023-07-29T19:00:00</t>
+          <t>2023-07-25T06:00:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2023-07-30T18:00:00</t>
+          <t>2023-07-25T15:00:00</t>
         </is>
       </c>
     </row>
@@ -2854,27 +2854,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Salalah</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OMSLL</t>
+          <t>DJJIB</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2023-08-01T14:00:00</t>
+          <t>2023-07-29T19:00:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2023-08-02T09:59:00</t>
+          <t>2023-07-30T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2894,27 +2894,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jebel Ali</t>
+          <t>Salalah</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AEJEA</t>
+          <t>OMSLL</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2023-08-05T00:59:00</t>
+          <t>2023-08-01T14:00:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2023-08-05T09:59:00</t>
+          <t>2023-08-02T09:59:00</t>
         </is>
       </c>
     </row>
@@ -2924,37 +2924,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MAERSK SANTANA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>9289934</t>
+          <t>9430363</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Prince Rupert</t>
+          <t>Jebel Ali</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CAPRR</t>
+          <t>AEJEA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2023-06-01T01:00:00</t>
+          <t>2023-08-05T00:59:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2023-06-03T01:00:00</t>
+          <t>2023-08-05T09:59:00</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Prince Rupert</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CAVAN</t>
+          <t>CAPRR</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2989,12 +2989,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2023-06-06T08:00:00</t>
+          <t>2023-06-01T01:00:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2023-06-10T08:00:00</t>
+          <t>2023-06-03T01:00:00</t>
         </is>
       </c>
     </row>
@@ -3014,27 +3014,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2023-06-21T05:00:00</t>
+          <t>2023-06-06T08:00:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2023-06-21T14:00:00</t>
+          <t>2023-06-10T08:00:00</t>
         </is>
       </c>
     </row>
@@ -3054,27 +3054,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2023-06-24T04:00:00</t>
+          <t>2023-06-21T05:00:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2023-06-24T15:01:00</t>
+          <t>2023-06-21T14:00:00</t>
         </is>
       </c>
     </row>
@@ -3094,27 +3094,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2023-07-03T10:00:00</t>
+          <t>2023-06-24T04:00:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2023-07-04T04:00:00</t>
+          <t>2023-06-24T15:01:00</t>
         </is>
       </c>
     </row>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2023-07-05T12:00:00</t>
+          <t>2023-07-03T10:00:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2023-07-06T06:00:00</t>
+          <t>2023-07-04T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3189,12 +3189,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2023-07-08T14:00:00</t>
+          <t>2023-07-05T12:00:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2023-07-09T06:01:00</t>
+          <t>2023-07-06T06:00:00</t>
         </is>
       </c>
     </row>
@@ -3214,12 +3214,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3229,12 +3229,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2023-07-10T04:00:00</t>
+          <t>2023-07-08T14:00:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2023-07-11T04:00:00</t>
+          <t>2023-07-09T06:01:00</t>
         </is>
       </c>
     </row>
@@ -3254,27 +3254,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2023-07-12T22:00:00</t>
+          <t>2023-07-10T04:00:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2023-07-13T20:00:00</t>
+          <t>2023-07-11T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3294,27 +3294,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2023-07-15T23:00:00</t>
+          <t>2023-07-12T22:00:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2023-07-16T04:01:00</t>
+          <t>2023-07-13T20:00:00</t>
         </is>
       </c>
     </row>
@@ -3334,27 +3334,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Prince Rupert</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CAPRR</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2023-07-25T05:00:00</t>
+          <t>2023-07-15T23:00:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2023-07-27T05:00:00</t>
+          <t>2023-07-16T04:01:00</t>
         </is>
       </c>
     </row>
@@ -3374,12 +3374,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Prince Rupert</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CAVAN</t>
+          <t>CAPRR</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2023-07-29T12:00:00</t>
+          <t>2023-07-25T05:00:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2023-08-02T12:00:00</t>
+          <t>2023-07-27T05:00:00</t>
         </is>
       </c>
     </row>
@@ -3414,27 +3414,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2023-08-15T19:00:00</t>
+          <t>2023-07-29T12:00:00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2023-08-16T04:00:00</t>
+          <t>2023-08-02T12:00:00</t>
         </is>
       </c>
     </row>
@@ -3454,27 +3454,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2023-08-18T18:00:00</t>
+          <t>2023-08-15T19:00:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2023-08-19T05:00:00</t>
+          <t>2023-08-16T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3494,27 +3494,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2023-08-21T14:00:00</t>
+          <t>2023-08-18T18:00:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2023-08-22T08:00:00</t>
+          <t>2023-08-19T05:00:00</t>
         </is>
       </c>
     </row>
@@ -3524,33 +3524,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MAERSK HUACHO</t>
+          <t>MAERSK SANTANA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>9848948</t>
+          <t>9289934</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>Xiamen</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>CNXMN</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2023-05-29T23:00:00</t>
+          <t>2023-08-21T14:00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2023-05-29T23:01:00</t>
+          <t>2023-08-22T08:00:00</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3585,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2023-05-30T15:00:00</t>
+          <t>2023-05-29T23:00:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2023-05-30T15:01:00</t>
+          <t>2023-05-29T23:01:00</t>
         </is>
       </c>
     </row>
@@ -3606,14 +3610,10 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2023-05-30T17:00:00</t>
+          <t>2023-05-30T15:00:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2023-06-01T00:01:00</t>
+          <t>2023-05-30T15:01:00</t>
         </is>
       </c>
     </row>
@@ -3646,27 +3646,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2023-06-01T15:00:00</t>
+          <t>2023-05-30T17:00:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2023-06-02T14:00:00</t>
+          <t>2023-06-01T00:01:00</t>
         </is>
       </c>
     </row>
@@ -3686,27 +3686,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>ILHFA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2023-06-05T06:00:00</t>
+          <t>2023-06-02T06:30:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2023-06-07T18:00:00</t>
+          <t>2023-06-04T05:00:00</t>
         </is>
       </c>
     </row>
@@ -3726,27 +3726,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>SIKOP</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2023-06-07T22:00:00</t>
+          <t>2023-06-06T18:00:00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2023-06-09T10:00:00</t>
+          <t>2023-06-09T06:00:00</t>
         </is>
       </c>
     </row>
@@ -3766,27 +3766,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>HRRJK</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2023-06-10T08:30:00</t>
+          <t>2023-06-09T10:00:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2023-06-12T08:30:00</t>
+          <t>2023-06-10T22:00:00</t>
         </is>
       </c>
     </row>
@@ -3806,27 +3806,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2023-06-12T23:00:00</t>
+          <t>2023-06-11T20:30:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2023-06-14T23:01:00</t>
+          <t>2023-06-13T20:30:00</t>
         </is>
       </c>
     </row>
@@ -3846,27 +3846,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2023-06-17T21:00:00</t>
+          <t>2023-06-14T11:00:00</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2023-06-19T16:00:00</t>
+          <t>2023-06-16T11:01:00</t>
         </is>
       </c>
     </row>
@@ -3886,10 +3886,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -3897,12 +3901,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2023-06-20T06:00:00</t>
+          <t>2023-06-17T21:00:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2023-06-20T06:01:00</t>
+          <t>2023-06-19T16:00:00</t>
         </is>
       </c>
     </row>
@@ -3933,12 +3937,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2023-06-20T15:00:00</t>
+          <t>2023-06-20T06:00:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2023-06-20T15:01:00</t>
+          <t>2023-06-20T06:01:00</t>
         </is>
       </c>
     </row>
@@ -3958,27 +3962,23 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>SAKAC</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2023-06-22T06:00:00</t>
+          <t>2023-06-20T15:00:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2023-06-23T03:00:00</t>
+          <t>2023-06-20T15:01:00</t>
         </is>
       </c>
     </row>
@@ -3998,12 +3998,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>King Abdullah Port</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>SAKAC</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4013,12 +4013,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2023-06-23T16:00:00</t>
+          <t>2023-06-22T06:00:00</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2023-06-24T16:00:00</t>
+          <t>2023-06-23T03:00:00</t>
         </is>
       </c>
     </row>
@@ -4038,27 +4038,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>SAJED</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2023-07-04T18:00:00</t>
+          <t>2023-06-23T16:00:00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2023-07-06T01:00:00</t>
+          <t>2023-06-24T16:00:00</t>
         </is>
       </c>
     </row>
@@ -4078,27 +4078,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2023-07-24T00:01:00</t>
+          <t>2023-07-04T18:00:00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2023-07-26T00:01:00</t>
+          <t>2023-07-06T01:00:00</t>
         </is>
       </c>
     </row>
@@ -4118,12 +4118,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4133,12 +4133,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2023-07-26T22:00:00</t>
+          <t>2023-07-24T00:01:00</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2023-07-27T18:00:00</t>
+          <t>2023-07-26T00:01:00</t>
         </is>
       </c>
     </row>
@@ -4158,27 +4158,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2023-07-29T17:00:00</t>
+          <t>2023-07-26T22:00:00</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2023-07-31T14:00:00</t>
+          <t>2023-07-27T18:00:00</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4213,12 +4213,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2023-07-31T19:30:00</t>
+          <t>2023-07-29T17:00:00</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2023-07-31T20:30:00</t>
+          <t>2023-07-31T14:00:00</t>
         </is>
       </c>
     </row>
@@ -4238,27 +4238,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2023-08-03T15:00:00</t>
+          <t>2023-07-31T19:30:00</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2023-08-04T23:00:00</t>
+          <t>2023-07-31T20:30:00</t>
         </is>
       </c>
     </row>
@@ -4278,12 +4278,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4293,12 +4293,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2023-08-06T07:00:00</t>
+          <t>2023-08-03T15:00:00</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2023-08-07T07:00:00</t>
+          <t>2023-08-04T23:00:00</t>
         </is>
       </c>
     </row>
@@ -4318,12 +4318,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4333,12 +4333,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2023-08-09T18:00:00</t>
+          <t>2023-08-06T07:00:00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2023-08-10T07:00:00</t>
+          <t>2023-08-07T07:00:00</t>
         </is>
       </c>
     </row>
@@ -4358,27 +4358,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2023-08-14T02:00:00</t>
+          <t>2023-08-09T18:00:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2023-08-15T01:00:00</t>
+          <t>2023-08-10T07:00:00</t>
         </is>
       </c>
     </row>
@@ -4388,37 +4388,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MAERSK ESSEN</t>
+          <t>MAERSK HUACHO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9456783</t>
+          <t>9848948</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2023-05-28T09:00:00</t>
+          <t>2023-08-14T02:00:00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2023-05-28T17:00:00</t>
+          <t>2023-08-15T01:00:00</t>
         </is>
       </c>
     </row>
@@ -4438,12 +4438,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2023-05-29T03:00:00</t>
+          <t>2023-05-28T09:00:00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2023-05-29T18:00:00</t>
+          <t>2023-05-28T17:00:00</t>
         </is>
       </c>
     </row>
@@ -4478,12 +4478,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2023-05-31T12:00:00</t>
+          <t>2023-05-29T03:00:00</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2023-06-01T03:00:00</t>
+          <t>2023-05-29T18:00:00</t>
         </is>
       </c>
     </row>
@@ -4518,12 +4518,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4533,12 +4533,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2023-06-02T08:00:00</t>
+          <t>2023-06-01T12:00:00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2023-06-03T08:00:00</t>
+          <t>2023-06-02T03:00:00</t>
         </is>
       </c>
     </row>
@@ -4558,27 +4558,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Long Beach</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>USLGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2023-06-17T08:00:00</t>
+          <t>2023-06-03T08:00:00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2023-06-22T03:00:00</t>
+          <t>2023-06-04T08:00:00</t>
         </is>
       </c>
     </row>
@@ -4598,27 +4598,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Long Beach</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>USLGB</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2023-07-14T15:00:00</t>
+          <t>2023-06-17T08:00:00</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2023-07-15T06:00:00</t>
+          <t>2023-06-22T03:00:00</t>
         </is>
       </c>
     </row>
@@ -4638,27 +4638,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2023-07-27T18:00:00</t>
+          <t>2023-07-14T15:00:00</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2023-07-28T06:00:00</t>
+          <t>2023-07-15T06:00:00</t>
         </is>
       </c>
     </row>
@@ -4678,12 +4678,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4693,12 +4693,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2023-07-28T13:00:00</t>
+          <t>2023-07-27T18:00:00</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2023-07-29T06:00:00</t>
+          <t>2023-07-28T06:00:00</t>
         </is>
       </c>
     </row>
@@ -4718,12 +4718,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4733,12 +4733,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2023-07-29T16:00:00</t>
+          <t>2023-07-28T13:00:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2023-07-30T20:00:00</t>
+          <t>2023-07-29T06:00:00</t>
         </is>
       </c>
     </row>
@@ -4758,12 +4758,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2023-08-02T12:00:00</t>
+          <t>2023-07-29T16:00:00</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2023-08-03T08:00:00</t>
+          <t>2023-07-30T20:00:00</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4798,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4813,12 +4813,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2023-08-04T08:00:00</t>
+          <t>2023-08-02T12:00:00</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2023-08-05T08:00:00</t>
+          <t>2023-08-03T08:00:00</t>
         </is>
       </c>
     </row>
@@ -4828,33 +4828,37 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MAERSK HONG KONG</t>
+          <t>MAERSK ESSEN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>9784257</t>
+          <t>9456783</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>CNSHA</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2023-06-04T23:00:00</t>
+          <t>2023-08-04T08:00:00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2023-06-04T23:01:00</t>
+          <t>2023-08-05T08:00:00</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4889,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2023-06-05T14:59:00</t>
+          <t>2023-06-04T23:00:00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2023-06-05T15:00:00</t>
+          <t>2023-06-04T23:01:00</t>
         </is>
       </c>
     </row>
@@ -4910,14 +4914,10 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -4925,12 +4925,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2023-06-05T17:00:00</t>
+          <t>2023-06-05T14:59:00</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2023-06-06T22:00:00</t>
+          <t>2023-06-05T15:00:00</t>
         </is>
       </c>
     </row>
@@ -4950,27 +4950,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2023-06-07T15:00:00</t>
+          <t>2023-06-05T17:00:00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2023-06-08T19:00:00</t>
+          <t>2023-06-06T22:00:00</t>
         </is>
       </c>
     </row>
@@ -4990,27 +4990,27 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>ILHFA</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2023-06-12T06:00:00</t>
+          <t>2023-06-07T15:00:00</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2023-06-14T18:00:00</t>
+          <t>2023-06-08T19:00:00</t>
         </is>
       </c>
     </row>
@@ -5030,27 +5030,27 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>SIKOP</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2023-06-15T07:00:00</t>
+          <t>2023-06-12T06:00:00</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2023-06-19T01:00:00</t>
+          <t>2023-06-14T18:00:00</t>
         </is>
       </c>
     </row>
@@ -5070,27 +5070,27 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>HRRJK</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2023-06-19T20:30:00</t>
+          <t>2023-06-15T07:00:00</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2023-06-21T04:30:00</t>
+          <t>2023-06-19T01:00:00</t>
         </is>
       </c>
     </row>
@@ -5110,27 +5110,27 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2023-06-21T19:00:00</t>
+          <t>2023-06-19T20:30:00</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2023-06-21T20:00:00</t>
+          <t>2023-06-21T04:30:00</t>
         </is>
       </c>
     </row>
@@ -5150,27 +5150,27 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2023-06-25T17:00:00</t>
+          <t>2023-06-21T19:00:00</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2023-06-27T12:00:00</t>
+          <t>2023-06-21T20:00:00</t>
         </is>
       </c>
     </row>
@@ -5190,10 +5190,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -5201,12 +5205,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2023-06-27T23:00:00</t>
+          <t>2023-06-25T17:00:00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2023-06-27T23:01:00</t>
+          <t>2023-06-27T12:00:00</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5241,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2023-06-28T07:59:00</t>
+          <t>2023-06-27T23:00:00</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2023-06-28T08:00:00</t>
+          <t>2023-06-27T23:01:00</t>
         </is>
       </c>
     </row>
@@ -5262,27 +5266,23 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>SAKAC</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2023-06-29T23:00:00</t>
+          <t>2023-06-28T07:59:00</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2023-06-30T20:00:00</t>
+          <t>2023-06-28T08:00:00</t>
         </is>
       </c>
     </row>
@@ -5302,12 +5302,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>King Abdullah Port</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>SAKAC</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2023-07-01T09:00:00</t>
+          <t>2023-06-29T23:00:00</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2023-07-02T09:00:00</t>
+          <t>2023-06-30T20:00:00</t>
         </is>
       </c>
     </row>
@@ -5342,27 +5342,27 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>SAJED</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2023-07-12T16:00:00</t>
+          <t>2023-07-01T09:00:00</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2023-07-13T23:00:00</t>
+          <t>2023-07-02T09:00:00</t>
         </is>
       </c>
     </row>
@@ -5382,27 +5382,27 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2023-07-31T00:01:00</t>
+          <t>2023-07-12T16:00:00</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2023-08-02T00:01:00</t>
+          <t>2023-07-13T23:00:00</t>
         </is>
       </c>
     </row>
@@ -5422,12 +5422,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5437,12 +5437,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2023-08-02T22:00:00</t>
+          <t>2023-07-31T00:01:00</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2023-08-03T18:00:00</t>
+          <t>2023-08-02T00:01:00</t>
         </is>
       </c>
     </row>
@@ -5462,27 +5462,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2023-08-05T17:00:00</t>
+          <t>2023-08-02T22:00:00</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2023-08-07T14:00:00</t>
+          <t>2023-08-03T18:00:00</t>
         </is>
       </c>
     </row>
@@ -5502,12 +5502,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5517,12 +5517,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2023-08-07T19:30:00</t>
+          <t>2023-08-05T17:00:00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2023-08-07T20:30:00</t>
+          <t>2023-08-07T14:00:00</t>
         </is>
       </c>
     </row>
@@ -5542,27 +5542,27 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2023-08-10T15:00:00</t>
+          <t>2023-08-07T19:30:00</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2023-08-11T23:00:00</t>
+          <t>2023-08-07T20:30:00</t>
         </is>
       </c>
     </row>
@@ -5582,12 +5582,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5597,12 +5597,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2023-08-13T07:00:00</t>
+          <t>2023-08-10T15:00:00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2023-08-14T07:00:00</t>
+          <t>2023-08-11T23:00:00</t>
         </is>
       </c>
     </row>
@@ -5622,12 +5622,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5637,12 +5637,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2023-08-16T18:00:00</t>
+          <t>2023-08-13T07:00:00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2023-08-17T07:00:00</t>
+          <t>2023-08-14T07:00:00</t>
         </is>
       </c>
     </row>
@@ -5662,27 +5662,27 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2023-08-21T02:00:00</t>
+          <t>2023-08-16T18:00:00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2023-08-22T01:00:00</t>
+          <t>2023-08-17T07:00:00</t>
         </is>
       </c>
     </row>
@@ -5692,37 +5692,37 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>MAERSK HONG KONG</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>9430363</t>
+          <t>9784257</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Pipavav</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>INPPV</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2023-05-26T04:15:00</t>
+          <t>2023-08-21T02:00:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2023-05-26T17:30:00</t>
+          <t>2023-08-22T01:00:00</t>
         </is>
       </c>
     </row>
@@ -5742,12 +5742,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Jawaharlal Nehru</t>
+          <t>Pipavav</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>INNSA</t>
+          <t>INPPV</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2023-05-28T04:00:00</t>
+          <t>2023-05-26T04:28:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2023-05-29T05:00:00</t>
+          <t>2023-05-26T16:40:00</t>
         </is>
       </c>
     </row>
@@ -5782,27 +5782,27 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Salalah</t>
+          <t>Jawaharlal Nehru</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>OMSLL</t>
+          <t>INNSA</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2023-05-31T20:30:00</t>
+          <t>2023-05-28T05:00:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2023-06-01T11:30:00</t>
+          <t>2023-05-29T10:00:00</t>
         </is>
       </c>
     </row>
@@ -5822,23 +5822,27 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
+          <t>Salalah</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>OMSLL</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2023-06-06T23:00:00</t>
+          <t>2023-05-31T20:30:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2023-06-07T15:00:00</t>
+          <t>2023-06-01T11:30:00</t>
         </is>
       </c>
     </row>
@@ -5858,27 +5862,23 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Algeciras</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>ESALG</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2023-06-11T20:00:00</t>
+          <t>2023-06-06T23:00:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-07T15:00:00</t>
         </is>
       </c>
     </row>
@@ -5898,27 +5898,27 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2023-06-20T08:00:00</t>
+          <t>2023-06-11T20:00:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2023-06-21T06:00:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -5938,12 +5938,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>USCHS</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5953,12 +5953,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2023-06-23T08:00:00</t>
+          <t>2023-06-20T08:00:00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2023-06-23T18:00:00</t>
+          <t>2023-06-21T06:00:00</t>
         </is>
       </c>
     </row>
@@ -5978,12 +5978,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>USSAV</t>
+          <t>USCHS</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5993,12 +5993,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2023-06-24T08:00:00</t>
+          <t>2023-06-23T08:00:00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2023-06-25T10:00:00</t>
+          <t>2023-06-23T18:00:00</t>
         </is>
       </c>
     </row>
@@ -6018,12 +6018,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>USHOU</t>
+          <t>USSAV</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -6033,12 +6033,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2023-06-28T19:00:00</t>
+          <t>2023-06-24T08:00:00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2023-06-30T05:00:00</t>
+          <t>2023-06-25T10:00:00</t>
         </is>
       </c>
     </row>
@@ -6058,12 +6058,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>USORF</t>
+          <t>USHOU</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -6073,12 +6073,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2023-07-05T08:00:00</t>
+          <t>2023-06-28T19:00:00</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2023-07-05T18:00:00</t>
+          <t>2023-06-30T05:00:00</t>
         </is>
       </c>
     </row>
@@ -6098,12 +6098,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Norfolk</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>USORF</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6113,12 +6113,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2023-07-07T08:00:00</t>
+          <t>2023-07-05T08:00:00</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2023-07-08T04:00:00</t>
+          <t>2023-07-05T18:00:00</t>
         </is>
       </c>
     </row>
@@ -6138,27 +6138,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2023-07-18T02:00:00</t>
+          <t>2023-07-07T08:00:00</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2023-07-18T18:00:00</t>
+          <t>2023-07-08T04:00:00</t>
         </is>
       </c>
     </row>
@@ -6178,27 +6178,27 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2023-07-24T10:00:00</t>
+          <t>2023-07-18T02:00:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2023-07-25T05:00:00</t>
+          <t>2023-07-18T18:00:00</t>
         </is>
       </c>
     </row>
@@ -6218,10 +6218,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -6229,12 +6233,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2023-07-25T06:00:00</t>
+          <t>2023-07-24T10:00:00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2023-07-25T15:00:00</t>
+          <t>2023-07-25T05:00:00</t>
         </is>
       </c>
     </row>
@@ -6254,27 +6258,23 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Djibouti</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>DJJIB</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2023-07-29T19:00:00</t>
+          <t>2023-07-25T06:00:00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2023-07-30T18:00:00</t>
+          <t>2023-07-25T15:00:00</t>
         </is>
       </c>
     </row>
@@ -6294,27 +6294,27 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Salalah</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>OMSLL</t>
+          <t>DJJIB</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2023-08-01T14:00:00</t>
+          <t>2023-07-29T19:00:00</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2023-08-02T09:59:00</t>
+          <t>2023-07-30T18:00:00</t>
         </is>
       </c>
     </row>
@@ -6334,27 +6334,27 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Jebel Ali</t>
+          <t>Salalah</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>AEJEA</t>
+          <t>OMSLL</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2023-08-05T00:59:00</t>
+          <t>2023-08-01T14:00:00</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2023-08-05T09:59:00</t>
+          <t>2023-08-02T09:59:00</t>
         </is>
       </c>
     </row>
@@ -6364,37 +6364,37 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MAERSK BALI</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>9394870</t>
+          <t>9430363</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Jebel Ali</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>AEJEA</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2023-05-26T07:00:00</t>
+          <t>2023-08-05T00:59:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2023-05-27T07:00:00</t>
+          <t>2023-08-05T09:59:00</t>
         </is>
       </c>
     </row>
@@ -6414,27 +6414,27 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2023-05-31T15:30:00</t>
+          <t>2023-05-26T13:00:00</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2023-06-02T01:30:00</t>
+          <t>2023-05-26T23:59:00</t>
         </is>
       </c>
     </row>
@@ -6454,27 +6454,27 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2023-06-09T01:00:00</t>
+          <t>2023-05-31T15:30:00</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2023-06-09T14:30:00</t>
+          <t>2023-06-02T01:30:00</t>
         </is>
       </c>
     </row>
@@ -6494,12 +6494,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2023-06-09T22:00:00</t>
+          <t>2023-06-09T01:00:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2023-06-10T17:30:00</t>
+          <t>2023-06-09T14:30:00</t>
         </is>
       </c>
     </row>
@@ -6534,12 +6534,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6549,12 +6549,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2023-06-10T19:00:00</t>
+          <t>2023-06-09T22:00:00</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2023-06-11T17:00:00</t>
+          <t>2023-06-10T17:30:00</t>
         </is>
       </c>
     </row>
@@ -6574,27 +6574,27 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>BEANR</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2023-06-24T06:00:00</t>
+          <t>2023-06-10T19:00:00</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2023-06-25T06:00:00</t>
+          <t>2023-06-11T17:00:00</t>
         </is>
       </c>
     </row>
@@ -6614,27 +6614,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>BEANR</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2023-06-26T00:01:00</t>
+          <t>2023-06-24T06:00:00</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2023-06-26T20:00:00</t>
+          <t>2023-06-25T06:00:00</t>
         </is>
       </c>
     </row>
@@ -6654,27 +6654,27 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>DEHAM</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2023-06-28T23:00:00</t>
+          <t>2023-06-26T00:01:00</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2023-06-29T15:00:00</t>
+          <t>2023-06-26T20:00:00</t>
         </is>
       </c>
     </row>
@@ -6694,27 +6694,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>COCTG</t>
+          <t>DEHAM</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2023-07-13T07:00:00</t>
+          <t>2023-06-28T23:00:00</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2023-07-13T18:00:00</t>
+          <t>2023-06-29T15:00:00</t>
         </is>
       </c>
     </row>
@@ -6734,27 +6734,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>COCTG</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2023-07-14T19:00:00</t>
+          <t>2023-07-13T07:00:00</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2023-07-15T18:00:00</t>
+          <t>2023-07-13T18:00:00</t>
         </is>
       </c>
     </row>
@@ -6774,12 +6774,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6789,12 +6789,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2023-07-15T22:00:00</t>
+          <t>2023-07-14T19:00:00</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2023-07-16T17:30:00</t>
+          <t>2023-07-15T18:00:00</t>
         </is>
       </c>
     </row>
@@ -6814,12 +6814,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6829,12 +6829,12 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2023-07-16T18:00:00</t>
+          <t>2023-07-15T22:00:00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2023-07-17T14:00:00</t>
+          <t>2023-07-16T17:30:00</t>
         </is>
       </c>
     </row>
@@ -6854,27 +6854,27 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2023-07-21T07:00:00</t>
+          <t>2023-07-16T18:00:00</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2023-07-22T07:00:00</t>
+          <t>2023-07-17T14:00:00</t>
         </is>
       </c>
     </row>
@@ -6894,27 +6894,27 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2023-07-26T15:30:00</t>
+          <t>2023-07-21T07:00:00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2023-07-28T01:30:00</t>
+          <t>2023-07-22T07:00:00</t>
         </is>
       </c>
     </row>
@@ -6934,27 +6934,27 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Pisco</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PEPIO</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2023-07-30T20:00:00</t>
+          <t>2023-07-26T15:30:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2023-07-31T08:00:00</t>
+          <t>2023-07-28T01:30:00</t>
         </is>
       </c>
     </row>
@@ -6974,27 +6974,27 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2023-08-04T01:00:00</t>
+          <t>2023-07-30T20:00:00</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2023-08-04T14:30:00</t>
+          <t>2023-07-31T08:00:00</t>
         </is>
       </c>
     </row>
@@ -7014,12 +7014,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -7029,12 +7029,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2023-08-04T22:00:00</t>
+          <t>2023-08-04T01:00:00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2023-08-05T17:30:00</t>
+          <t>2023-08-04T14:30:00</t>
         </is>
       </c>
     </row>
@@ -7054,12 +7054,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -7069,12 +7069,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2023-08-05T19:00:00</t>
+          <t>2023-08-04T22:00:00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2023-08-06T17:00:00</t>
+          <t>2023-08-05T17:30:00</t>
         </is>
       </c>
     </row>
@@ -7084,37 +7084,37 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MAERSK SEVILLE</t>
+          <t>MAERSK BALI</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>9299927</t>
+          <t>9394870</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2023-05-27T16:00:00</t>
+          <t>2023-08-05T19:00:00</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2023-05-29T00:01:00</t>
+          <t>2023-08-06T17:00:00</t>
         </is>
       </c>
     </row>
@@ -7134,27 +7134,27 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2023-05-31T18:00:00</t>
+          <t>2023-05-27T14:00:00</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2023-06-01T14:00:00</t>
+          <t>2023-05-29T00:01:00</t>
         </is>
       </c>
     </row>
@@ -7174,12 +7174,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7189,12 +7189,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2023-06-02T14:00:00</t>
+          <t>2023-05-31T18:00:00</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2023-06-03T16:00:00</t>
+          <t>2023-06-01T14:00:00</t>
         </is>
       </c>
     </row>
@@ -7214,27 +7214,27 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2023-06-06T19:00:00</t>
+          <t>2023-06-02T14:00:00</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2023-06-07T19:00:00</t>
+          <t>2023-06-03T16:00:00</t>
         </is>
       </c>
     </row>
@@ -7254,27 +7254,27 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2023-06-28T22:00:00</t>
+          <t>2023-06-06T19:00:00</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2023-06-29T17:00:00</t>
+          <t>2023-06-07T19:00:00</t>
         </is>
       </c>
     </row>
@@ -7294,27 +7294,27 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>USHOU</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2023-07-03T15:00:00</t>
+          <t>2023-06-28T22:00:00</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2023-07-06T03:00:00</t>
+          <t>2023-06-29T17:00:00</t>
         </is>
       </c>
     </row>
@@ -7334,12 +7334,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>USMOB</t>
+          <t>USHOU</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7349,12 +7349,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2023-07-07T19:00:00</t>
+          <t>2023-07-03T15:00:00</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2023-07-09T05:00:00</t>
+          <t>2023-07-06T03:00:00</t>
         </is>
       </c>
     </row>
@@ -7374,12 +7374,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>USTPA</t>
+          <t>USMOB</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7389,12 +7389,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2023-07-10T13:00:00</t>
+          <t>2023-07-07T19:00:00</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2023-07-11T18:00:00</t>
+          <t>2023-07-09T05:00:00</t>
         </is>
       </c>
     </row>
@@ -7414,27 +7414,27 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>USTPA</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2023-07-15T22:00:00</t>
+          <t>2023-07-10T13:00:00</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2023-07-16T17:00:00</t>
+          <t>2023-07-11T18:00:00</t>
         </is>
       </c>
     </row>
@@ -7454,12 +7454,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7469,12 +7469,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2023-07-17T07:00:00</t>
+          <t>2023-07-15T22:00:00</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2023-07-18T07:00:00</t>
+          <t>2023-07-16T17:00:00</t>
         </is>
       </c>
     </row>
@@ -7494,27 +7494,27 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2023-08-12T20:00:00</t>
+          <t>2023-07-17T07:00:00</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2023-08-14T02:00:00</t>
+          <t>2023-07-18T07:00:00</t>
         </is>
       </c>
     </row>
@@ -7534,27 +7534,27 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2023-08-16T18:00:00</t>
+          <t>2023-08-12T20:00:00</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2023-08-17T14:00:00</t>
+          <t>2023-08-14T02:00:00</t>
         </is>
       </c>
     </row>
@@ -7574,12 +7574,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7589,12 +7589,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2023-08-19T14:00:00</t>
+          <t>2023-08-16T18:00:00</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2023-08-20T16:00:00</t>
+          <t>2023-08-17T14:00:00</t>
         </is>
       </c>
     </row>
@@ -7604,22 +7604,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MAERSK EDMONTON</t>
+          <t>MAERSK SEVILLE</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>9458030</t>
+          <t>9299927</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7629,12 +7629,12 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2023-06-12T00:01:00</t>
+          <t>2023-08-19T14:00:00</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2023-06-13T12:00:00</t>
+          <t>2023-08-20T16:00:00</t>
         </is>
       </c>
     </row>
@@ -7654,12 +7654,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7669,12 +7669,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2023-06-14T17:00:00</t>
+          <t>2023-06-12T00:01:00</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2023-06-15T05:00:00</t>
+          <t>2023-06-13T12:00:00</t>
         </is>
       </c>
     </row>
@@ -7694,12 +7694,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7709,12 +7709,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2023-06-16T08:00:00</t>
+          <t>2023-06-14T17:00:00</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2023-06-17T11:00:00</t>
+          <t>2023-06-15T05:00:00</t>
         </is>
       </c>
     </row>
@@ -7734,27 +7734,27 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2023-06-19T05:00:00</t>
+          <t>2023-06-16T08:00:00</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2023-06-20T08:00:00</t>
+          <t>2023-06-17T11:00:00</t>
         </is>
       </c>
     </row>
@@ -7774,27 +7774,27 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>USLAX</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2023-07-04T08:00:00</t>
+          <t>2023-06-19T05:00:00</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2023-07-08T03:00:00</t>
+          <t>2023-06-20T08:00:00</t>
         </is>
       </c>
     </row>
@@ -7814,12 +7814,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Oakland</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>USOAK</t>
+          <t>USLAX</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7829,12 +7829,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2023-07-09T18:00:00</t>
+          <t>2023-07-04T08:00:00</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2023-07-12T18:00:00</t>
+          <t>2023-07-08T03:00:00</t>
         </is>
       </c>
     </row>
@@ -7854,27 +7854,27 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Oakland</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MXZLO</t>
+          <t>USOAK</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2023-07-17T08:00:00</t>
+          <t>2023-07-09T18:00:00</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2023-07-18T20:00:00</t>
+          <t>2023-07-12T18:00:00</t>
         </is>
       </c>
     </row>
@@ -7894,27 +7894,27 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>MXZLO</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2023-08-07T00:01:00</t>
+          <t>2023-07-17T08:00:00</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2023-08-08T12:00:00</t>
+          <t>2023-07-18T20:00:00</t>
         </is>
       </c>
     </row>
@@ -7934,12 +7934,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7949,12 +7949,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2023-08-10T15:00:00</t>
+          <t>2023-08-07T00:01:00</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2023-08-11T03:00:00</t>
+          <t>2023-08-08T12:00:00</t>
         </is>
       </c>
     </row>
@@ -7974,12 +7974,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7989,12 +7989,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2023-08-12T13:00:00</t>
+          <t>2023-08-10T15:00:00</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2023-08-13T16:00:00</t>
+          <t>2023-08-11T03:00:00</t>
         </is>
       </c>
     </row>
@@ -8014,27 +8014,27 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2023-08-15T10:00:00</t>
+          <t>2023-08-12T13:00:00</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2023-08-16T13:00:00</t>
+          <t>2023-08-13T16:00:00</t>
         </is>
       </c>
     </row>
@@ -8044,37 +8044,37 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MAERSK ESSEX</t>
+          <t>MAERSK EDMONTON</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>9458092</t>
+          <t>9458030</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2023-05-25T08:02:00</t>
+          <t>2023-08-15T10:00:00</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2023-05-26T19:00:00</t>
+          <t>2023-08-16T13:00:00</t>
         </is>
       </c>
     </row>
@@ -8629,12 +8629,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2023-05-26T06:00:00</t>
+          <t>2023-05-26T15:40:00</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2023-05-28T03:00:00</t>
+          <t>2023-05-28T08:00:00</t>
         </is>
       </c>
     </row>
@@ -10590,27 +10590,27 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2023-05-25T22:30:00</t>
+          <t>2023-05-28T18:00:00</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2023-05-25T23:30:00</t>
+          <t>2023-05-30T02:00:00</t>
         </is>
       </c>
     </row>
@@ -10630,12 +10630,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -10645,12 +10645,12 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2023-05-28T18:00:00</t>
+          <t>2023-05-30T15:01:00</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2023-05-30T02:00:00</t>
+          <t>2023-05-31T15:01:00</t>
         </is>
       </c>
     </row>
@@ -10670,12 +10670,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -10685,12 +10685,12 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2023-05-30T15:01:00</t>
+          <t>2023-06-02T13:00:00</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2023-05-31T15:01:00</t>
+          <t>2023-06-03T02:01:00</t>
         </is>
       </c>
     </row>
@@ -10710,27 +10710,27 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2023-06-02T13:00:00</t>
+          <t>2023-06-06T08:00:00</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2023-06-03T02:01:00</t>
+          <t>2023-06-07T07:00:00</t>
         </is>
       </c>
     </row>
@@ -10750,27 +10750,23 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>SGSIN</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2023-06-06T08:00:00</t>
+          <t>2023-06-18T23:00:00</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2023-06-07T07:00:00</t>
+          <t>2023-06-18T23:01:00</t>
         </is>
       </c>
     </row>
@@ -10801,12 +10797,12 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2023-06-18T23:00:00</t>
+          <t>2023-06-19T14:59:00</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2023-06-18T23:01:00</t>
+          <t>2023-06-19T15:00:00</t>
         </is>
       </c>
     </row>
@@ -10826,10 +10822,14 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F263" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -10837,12 +10837,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2023-06-19T14:59:00</t>
+          <t>2023-06-19T18:00:00</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2023-06-19T15:00:00</t>
+          <t>2023-06-21T02:00:00</t>
         </is>
       </c>
     </row>
@@ -10862,27 +10862,27 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ILHFA</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2023-06-19T18:00:00</t>
+          <t>2023-06-21T15:00:00</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2023-06-21T01:00:00</t>
+          <t>2023-06-22T19:00:00</t>
         </is>
       </c>
     </row>
@@ -10902,27 +10902,27 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>SIKOP</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2023-06-21T15:00:00</t>
+          <t>2023-06-26T06:00:00</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2023-06-22T19:00:00</t>
+          <t>2023-06-28T18:00:00</t>
         </is>
       </c>
     </row>
@@ -10942,27 +10942,27 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2023-06-26T06:00:00</t>
+          <t>2023-06-29T07:00:00</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2023-06-28T18:00:00</t>
+          <t>2023-07-03T01:00:00</t>
         </is>
       </c>
     </row>
@@ -10982,27 +10982,27 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2023-06-29T07:00:00</t>
+          <t>2023-07-03T20:30:00</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2023-07-03T01:00:00</t>
+          <t>2023-07-05T18:30:00</t>
         </is>
       </c>
     </row>
@@ -11022,27 +11022,27 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>HRRJK</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2023-07-03T20:30:00</t>
+          <t>2023-07-06T09:00:00</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2023-07-05T18:30:00</t>
+          <t>2023-07-06T10:00:00</t>
         </is>
       </c>
     </row>
@@ -11062,27 +11062,27 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2023-07-06T09:00:00</t>
+          <t>2023-07-10T05:00:00</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2023-07-06T10:00:00</t>
+          <t>2023-07-12T00:01:00</t>
         </is>
       </c>
     </row>
@@ -11102,14 +11102,10 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -11117,12 +11113,12 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2023-07-10T05:00:00</t>
+          <t>2023-07-12T01:00:00</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2023-07-12T00:01:00</t>
+          <t>2023-07-12T01:01:00</t>
         </is>
       </c>
     </row>
@@ -11153,12 +11149,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2023-07-12T01:00:00</t>
+          <t>2023-07-12T09:59:00</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2023-07-12T01:01:00</t>
+          <t>2023-07-12T10:00:00</t>
         </is>
       </c>
     </row>
@@ -11178,23 +11174,27 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr"/>
+          <t>King Abdullah Port</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>SAKAC</t>
+        </is>
+      </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2023-07-12T09:59:00</t>
+          <t>2023-07-15T06:00:00</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2023-07-12T10:00:00</t>
+          <t>2023-07-16T03:00:00</t>
         </is>
       </c>
     </row>
@@ -11214,12 +11214,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>SAKAC</t>
+          <t>SAJED</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -11229,12 +11229,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2023-07-15T06:00:00</t>
+          <t>2023-07-16T16:00:00</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2023-07-16T03:00:00</t>
+          <t>2023-07-17T16:00:00</t>
         </is>
       </c>
     </row>
@@ -11254,27 +11254,27 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2023-07-16T16:00:00</t>
+          <t>2023-07-27T18:00:00</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2023-07-17T16:00:00</t>
+          <t>2023-07-29T01:00:00</t>
         </is>
       </c>
     </row>
@@ -11294,27 +11294,27 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2023-07-27T18:00:00</t>
+          <t>2023-08-14T00:01:00</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2023-07-29T01:00:00</t>
+          <t>2023-08-16T00:01:00</t>
         </is>
       </c>
     </row>
@@ -11334,12 +11334,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -11349,12 +11349,12 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2023-08-14T00:01:00</t>
+          <t>2023-08-16T22:00:00</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2023-08-16T00:01:00</t>
+          <t>2023-08-17T18:00:00</t>
         </is>
       </c>
     </row>
@@ -11374,27 +11374,27 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2023-08-16T22:00:00</t>
+          <t>2023-08-19T17:00:00</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2023-08-17T18:00:00</t>
+          <t>2023-08-21T14:00:00</t>
         </is>
       </c>
     </row>
@@ -11414,12 +11414,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -11429,12 +11429,12 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2023-08-19T17:00:00</t>
+          <t>2023-08-21T19:30:00</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2023-08-21T14:00:00</t>
+          <t>2023-08-21T20:30:00</t>
         </is>
       </c>
     </row>
@@ -11444,37 +11444,37 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MAERSK HAVANA</t>
+          <t>SANTA ISABEL</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9784336</t>
+          <t>9444728</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2023-08-21T19:30:00</t>
+          <t>2023-05-31T22:00:00</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2023-08-21T20:30:00</t>
+          <t>2023-06-04T12:00:00</t>
         </is>
       </c>
     </row>
@@ -11494,12 +11494,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -11509,12 +11509,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2023-05-31T22:00:00</t>
+          <t>2023-06-06T05:00:00</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2023-06-04T12:00:00</t>
+          <t>2023-06-09T06:00:00</t>
         </is>
       </c>
     </row>
@@ -11534,27 +11534,27 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Port Tangier Mediterranee</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>MAPTM</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2023-06-06T05:00:00</t>
+          <t>2023-06-23T07:00:00</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2023-06-09T06:00:00</t>
+          <t>2023-06-23T16:00:00</t>
         </is>
       </c>
     </row>
@@ -11574,27 +11574,27 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Port Tangier Mediterranee</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>MAPTM</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2023-06-23T07:00:00</t>
+          <t>2023-06-27T07:00:00</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2023-06-23T16:00:00</t>
+          <t>2023-06-28T19:00:00</t>
         </is>
       </c>
     </row>
@@ -11614,27 +11614,27 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>London Gateway</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>GBLGP</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2023-06-27T07:00:00</t>
+          <t>2023-06-30T02:00:00</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2023-06-28T19:00:00</t>
+          <t>2023-06-30T22:00:00</t>
         </is>
       </c>
     </row>
@@ -11654,27 +11654,27 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>London Gateway</t>
+          <t>Bremerhaven</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>GBLGP</t>
+          <t>DEBRV</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2023-06-30T02:00:00</t>
+          <t>2023-07-02T18:00:00</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2023-06-30T22:00:00</t>
+          <t>2023-07-04T00:01:00</t>
         </is>
       </c>
     </row>
@@ -11694,27 +11694,27 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Bremerhaven</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>DEBRV</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2023-07-02T18:00:00</t>
+          <t>2023-07-09T02:00:00</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2023-07-04T00:01:00</t>
+          <t>2023-07-10T00:30:00</t>
         </is>
       </c>
     </row>
@@ -11749,12 +11749,12 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2023-07-09T02:00:00</t>
+          <t>2023-07-10T08:00:00</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2023-07-10T00:30:00</t>
+          <t>2023-07-10T14:00:00</t>
         </is>
       </c>
     </row>
@@ -11774,27 +11774,27 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Port Elizabeth</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>ZAPLZ</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2023-07-10T08:00:00</t>
+          <t>2023-07-26T06:00:00</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2023-07-10T14:00:00</t>
+          <t>2023-07-27T18:00:00</t>
         </is>
       </c>
     </row>
@@ -11814,12 +11814,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>ZAPLZ</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -11829,12 +11829,12 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2023-07-26T06:00:00</t>
+          <t>2023-08-01T22:00:00</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2023-07-27T18:00:00</t>
+          <t>2023-08-04T22:00:00</t>
         </is>
       </c>
     </row>
@@ -11854,12 +11854,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -11869,12 +11869,12 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2023-08-01T22:00:00</t>
+          <t>2023-08-11T05:00:00</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2023-08-04T22:00:00</t>
+          <t>2023-08-14T06:00:00</t>
         </is>
       </c>
     </row>
@@ -11884,37 +11884,37 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>SANTA BARBARA</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>9444728</t>
+          <t>9430399</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2023-08-11T05:00:00</t>
+          <t>2023-06-04T21:00:00</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2023-08-14T06:00:00</t>
+          <t>2023-06-05T14:00:00</t>
         </is>
       </c>
     </row>
@@ -11934,27 +11934,27 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2023-06-04T21:00:00</t>
+          <t>2023-06-11T01:00:00</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2023-06-05T14:00:00</t>
+          <t>2023-06-11T11:00:00</t>
         </is>
       </c>
     </row>
@@ -11974,27 +11974,27 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2023-06-11T01:00:00</t>
+          <t>2023-06-15T07:00:00</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2023-06-11T11:00:00</t>
+          <t>2023-06-16T19:00:00</t>
         </is>
       </c>
     </row>
@@ -12014,12 +12014,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -12029,12 +12029,12 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2023-06-15T07:00:00</t>
+          <t>2023-06-18T04:30:00</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2023-06-16T19:00:00</t>
+          <t>2023-06-19T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12054,12 +12054,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -12069,12 +12069,12 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2023-06-18T04:30:00</t>
+          <t>2023-06-24T22:00:00</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2023-06-19T04:00:00</t>
+          <t>2023-06-25T08:00:00</t>
         </is>
       </c>
     </row>
@@ -12094,27 +12094,27 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2023-06-24T22:00:00</t>
+          <t>2023-06-29T19:00:00</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2023-06-25T08:00:00</t>
+          <t>2023-06-30T20:00:00</t>
         </is>
       </c>
     </row>
@@ -12134,27 +12134,27 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Port Louis</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>MUPLU</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2023-06-29T19:00:00</t>
+          <t>2023-07-10T06:00:00</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2023-06-30T20:00:00</t>
+          <t>2023-07-11T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12174,27 +12174,27 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Port Louis</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>MUPLU</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2023-07-10T06:00:00</t>
+          <t>2023-07-15T08:00:00</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2023-07-11T04:00:00</t>
+          <t>2023-07-21T14:00:00</t>
         </is>
       </c>
     </row>
@@ -12214,27 +12214,27 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2023-07-15T08:00:00</t>
+          <t>2023-08-07T21:00:00</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2023-07-21T14:00:00</t>
+          <t>2023-08-08T14:00:00</t>
         </is>
       </c>
     </row>
@@ -12254,27 +12254,27 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2023-08-07T21:00:00</t>
+          <t>2023-08-14T01:00:00</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2023-08-08T14:00:00</t>
+          <t>2023-08-14T11:00:00</t>
         </is>
       </c>
     </row>
@@ -12294,27 +12294,27 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2023-08-14T01:00:00</t>
+          <t>2023-08-18T07:00:00</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2023-08-14T11:00:00</t>
+          <t>2023-08-19T19:00:00</t>
         </is>
       </c>
     </row>
@@ -12334,12 +12334,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -12349,12 +12349,12 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>2023-08-18T07:00:00</t>
+          <t>2023-08-21T04:30:00</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2023-08-19T19:00:00</t>
+          <t>2023-08-22T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12364,22 +12364,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>SANTA BARBARA</t>
+          <t>SANTA URSULA</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>9430399</t>
+          <t>9430387</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -12389,12 +12389,12 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>2023-08-21T04:30:00</t>
+          <t>2023-06-01T07:00:00</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2023-08-22T04:00:00</t>
+          <t>2023-06-02T19:00:00</t>
         </is>
       </c>
     </row>
@@ -12414,12 +12414,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -12429,12 +12429,12 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>2023-06-01T07:00:00</t>
+          <t>2023-06-04T04:30:00</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2023-06-02T19:00:00</t>
+          <t>2023-06-05T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12454,12 +12454,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -12469,12 +12469,12 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>2023-06-04T04:30:00</t>
+          <t>2023-06-10T22:00:00</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2023-06-05T04:00:00</t>
+          <t>2023-06-11T08:00:00</t>
         </is>
       </c>
     </row>
@@ -12494,27 +12494,27 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>2023-06-10T22:00:00</t>
+          <t>2023-06-15T19:00:00</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2023-06-11T08:00:00</t>
+          <t>2023-06-16T20:00:00</t>
         </is>
       </c>
     </row>
@@ -12534,27 +12534,27 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Port Louis</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>MUPLU</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>2023-06-15T19:00:00</t>
+          <t>2023-06-26T06:00:00</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2023-06-16T20:00:00</t>
+          <t>2023-06-27T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12574,27 +12574,27 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Port Louis</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>MUPLU</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>2023-06-26T06:00:00</t>
+          <t>2023-07-01T08:00:00</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2023-06-27T04:00:00</t>
+          <t>2023-07-07T14:00:00</t>
         </is>
       </c>
     </row>
@@ -12614,27 +12614,27 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>2023-07-01T08:00:00</t>
+          <t>2023-07-23T21:00:00</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2023-07-07T14:00:00</t>
+          <t>2023-07-24T14:00:00</t>
         </is>
       </c>
     </row>
@@ -12654,27 +12654,27 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2023-07-23T21:00:00</t>
+          <t>2023-07-30T01:00:00</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2023-07-24T14:00:00</t>
+          <t>2023-07-30T11:00:00</t>
         </is>
       </c>
     </row>
@@ -12694,27 +12694,27 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>2023-07-30T01:00:00</t>
+          <t>2023-08-03T07:00:00</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2023-07-30T11:00:00</t>
+          <t>2023-08-04T19:00:00</t>
         </is>
       </c>
     </row>
@@ -12734,12 +12734,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -12749,12 +12749,12 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>2023-08-03T07:00:00</t>
+          <t>2023-08-06T04:30:00</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2023-08-04T19:00:00</t>
+          <t>2023-08-07T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12774,12 +12774,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -12789,12 +12789,12 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2023-08-06T04:30:00</t>
+          <t>2023-08-12T22:00:00</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2023-08-07T04:00:00</t>
+          <t>2023-08-13T08:00:00</t>
         </is>
       </c>
     </row>
@@ -12814,27 +12814,27 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>2023-08-12T22:00:00</t>
+          <t>2023-08-17T19:00:00</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2023-08-13T08:00:00</t>
+          <t>2023-08-18T20:00:00</t>
         </is>
       </c>
     </row>
@@ -12844,37 +12844,37 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>SANTA URSULA</t>
+          <t>SANTA RITA</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>9430387</t>
+          <t>9425382</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Port Elizabeth</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>ZAPLZ</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>2023-08-17T19:00:00</t>
+          <t>2023-06-05T16:00:00</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2023-08-18T20:00:00</t>
+          <t>2023-06-06T16:00:00</t>
         </is>
       </c>
     </row>
@@ -12894,12 +12894,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>ZAPLZ</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -12909,12 +12909,12 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>2023-06-05T16:00:00</t>
+          <t>2023-06-10T22:00:00</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2023-06-06T16:00:00</t>
+          <t>2023-06-13T22:00:00</t>
         </is>
       </c>
     </row>
@@ -12934,12 +12934,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -12949,12 +12949,12 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2023-06-10T22:00:00</t>
+          <t>2023-06-20T05:00:00</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2023-06-13T22:00:00</t>
+          <t>2023-06-23T06:00:00</t>
         </is>
       </c>
     </row>
@@ -12974,27 +12974,27 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Port Tangier Mediterranee</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>MAPTM</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>2023-06-20T05:00:00</t>
+          <t>2023-07-07T07:00:00</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2023-06-23T06:00:00</t>
+          <t>2023-07-07T16:00:00</t>
         </is>
       </c>
     </row>
@@ -13014,27 +13014,27 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Port Tangier Mediterranee</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>MAPTM</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>2023-07-07T07:00:00</t>
+          <t>2023-07-11T07:00:00</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2023-07-07T16:00:00</t>
+          <t>2023-07-12T19:00:00</t>
         </is>
       </c>
     </row>
@@ -13054,27 +13054,27 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>London Gateway</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>GBLGP</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>2023-07-11T07:00:00</t>
+          <t>2023-07-14T02:00:00</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2023-07-12T19:00:00</t>
+          <t>2023-07-14T22:00:00</t>
         </is>
       </c>
     </row>
@@ -13094,27 +13094,27 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>London Gateway</t>
+          <t>Bremerhaven</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>GBLGP</t>
+          <t>DEBRV</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>2023-07-14T02:00:00</t>
+          <t>2023-07-16T18:00:00</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2023-07-14T22:00:00</t>
+          <t>2023-07-18T00:01:00</t>
         </is>
       </c>
     </row>
@@ -13134,27 +13134,27 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Bremerhaven</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>DEBRV</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>2023-07-16T18:00:00</t>
+          <t>2023-07-23T02:00:00</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2023-07-18T00:01:00</t>
+          <t>2023-07-24T00:30:00</t>
         </is>
       </c>
     </row>
@@ -13189,12 +13189,12 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>2023-07-23T02:00:00</t>
+          <t>2023-07-24T08:00:00</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2023-07-24T00:30:00</t>
+          <t>2023-07-24T14:00:00</t>
         </is>
       </c>
     </row>
@@ -13214,27 +13214,27 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Port Elizabeth</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>ZAPLZ</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>2023-07-24T08:00:00</t>
+          <t>2023-08-09T06:00:00</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2023-07-24T14:00:00</t>
+          <t>2023-08-10T18:00:00</t>
         </is>
       </c>
     </row>
@@ -13254,12 +13254,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>ZAPLZ</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -13269,12 +13269,12 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2023-08-09T06:00:00</t>
+          <t>2023-08-15T22:00:00</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2023-08-10T18:00:00</t>
+          <t>2023-08-18T22:00:00</t>
         </is>
       </c>
     </row>
@@ -13284,37 +13284,37 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>SANTA RITA</t>
+          <t>MAERSK HOUSTON</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>9425382</t>
+          <t>9848950</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2023-08-15T22:00:00</t>
+          <t>2023-06-05T00:01:00</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2023-08-18T22:00:00</t>
+          <t>2023-06-07T00:01:00</t>
         </is>
       </c>
     </row>
@@ -13334,12 +13334,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -13349,12 +13349,12 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>2023-06-05T00:01:00</t>
+          <t>2023-06-07T22:00:00</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2023-06-07T00:01:00</t>
+          <t>2023-06-08T18:00:00</t>
         </is>
       </c>
     </row>
@@ -13374,27 +13374,27 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2023-06-07T22:00:00</t>
+          <t>2023-06-10T17:00:00</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2023-06-08T18:00:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -13414,12 +13414,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -13429,12 +13429,12 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>2023-06-10T17:00:00</t>
+          <t>2023-06-12T19:30:00</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-12T20:30:00</t>
         </is>
       </c>
     </row>
@@ -13454,27 +13454,27 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>2023-06-12T19:30:00</t>
+          <t>2023-06-15T15:00:00</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2023-06-12T20:30:00</t>
+          <t>2023-06-16T23:00:00</t>
         </is>
       </c>
     </row>
@@ -13494,12 +13494,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -13509,12 +13509,12 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>2023-06-15T15:00:00</t>
+          <t>2023-06-18T07:00:00</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2023-06-16T23:00:00</t>
+          <t>2023-06-19T07:00:00</t>
         </is>
       </c>
     </row>
@@ -13534,12 +13534,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -13549,12 +13549,12 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>2023-06-18T07:00:00</t>
+          <t>2023-06-21T18:00:00</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2023-06-19T07:00:00</t>
+          <t>2023-06-22T07:00:00</t>
         </is>
       </c>
     </row>
@@ -13574,27 +13574,27 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2023-06-21T18:00:00</t>
+          <t>2023-06-26T02:00:00</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2023-06-22T07:00:00</t>
+          <t>2023-06-27T01:00:00</t>
         </is>
       </c>
     </row>
@@ -13614,27 +13614,23 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>SGSIN</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2023-06-26T02:00:00</t>
+          <t>2023-07-09T23:00:00</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2023-06-27T01:00:00</t>
+          <t>2023-07-09T23:01:00</t>
         </is>
       </c>
     </row>
@@ -13665,12 +13661,12 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2023-07-09T23:00:00</t>
+          <t>2023-07-10T14:59:00</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2023-07-09T23:01:00</t>
+          <t>2023-07-10T15:00:00</t>
         </is>
       </c>
     </row>
@@ -13690,10 +13686,14 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F335" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -13701,12 +13701,12 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2023-07-10T14:59:00</t>
+          <t>2023-07-10T18:00:00</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2023-07-10T15:00:00</t>
+          <t>2023-07-12T01:00:00</t>
         </is>
       </c>
     </row>
@@ -13726,27 +13726,27 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Haifa</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ILHFA</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2023-07-10T18:00:00</t>
+          <t>2023-07-12T22:00:00</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2023-07-12T01:00:00</t>
+          <t>2023-07-14T02:00:00</t>
         </is>
       </c>
     </row>
@@ -13766,27 +13766,27 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>SIKOP</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>2023-07-12T22:00:00</t>
+          <t>2023-07-17T14:00:00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2023-07-14T02:00:00</t>
+          <t>2023-07-20T07:00:00</t>
         </is>
       </c>
     </row>
@@ -13806,27 +13806,27 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2023-07-17T14:00:00</t>
+          <t>2023-07-20T11:00:00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2023-07-20T07:00:00</t>
+          <t>2023-07-21T11:00:00</t>
         </is>
       </c>
     </row>
@@ -13846,27 +13846,27 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2023-07-20T11:00:00</t>
+          <t>2023-07-21T22:00:00</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2023-07-21T11:00:00</t>
+          <t>2023-07-23T14:00:00</t>
         </is>
       </c>
     </row>
@@ -13886,27 +13886,27 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>HRRJK</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>2023-07-21T22:00:00</t>
+          <t>2023-07-24T02:00:00</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2023-07-23T14:00:00</t>
+          <t>2023-07-27T02:00:00</t>
         </is>
       </c>
     </row>
@@ -13926,27 +13926,27 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2023-07-24T02:00:00</t>
+          <t>2023-07-30T10:00:00</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2023-07-27T02:00:00</t>
+          <t>2023-08-01T05:00:00</t>
         </is>
       </c>
     </row>
@@ -13966,14 +13966,10 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -13981,12 +13977,12 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2023-07-30T10:00:00</t>
+          <t>2023-08-01T06:00:00</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2023-08-01T05:00:00</t>
+          <t>2023-08-01T06:01:00</t>
         </is>
       </c>
     </row>
@@ -14017,12 +14013,12 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2023-08-01T06:00:00</t>
+          <t>2023-08-01T14:59:00</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2023-08-01T06:01:00</t>
+          <t>2023-08-01T15:00:00</t>
         </is>
       </c>
     </row>
@@ -14042,23 +14038,27 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr"/>
+          <t>King Abdullah Port</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>SAKAC</t>
+        </is>
+      </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>2023-08-01T14:59:00</t>
+          <t>2023-08-03T13:00:00</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2023-08-01T15:00:00</t>
+          <t>2023-08-04T10:00:00</t>
         </is>
       </c>
     </row>
@@ -14078,12 +14078,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>SAKAC</t>
+          <t>SAJED</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -14093,12 +14093,12 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>2023-08-03T13:00:00</t>
+          <t>2023-08-04T19:00:00</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2023-08-04T10:00:00</t>
+          <t>2023-08-05T15:00:00</t>
         </is>
       </c>
     </row>
@@ -14118,27 +14118,27 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2023-08-04T19:00:00</t>
+          <t>2023-08-17T21:00:00</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2023-08-05T15:00:00</t>
+          <t>2023-08-19T04:00:00</t>
         </is>
       </c>
     </row>
@@ -14148,37 +14148,37 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>MAERSK HOUSTON</t>
+          <t>MAERSK BRATAN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>9848950</t>
+          <t>9394894</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>COCTG</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2023-08-17T21:00:00</t>
+          <t>2023-06-08T07:00:00</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2023-08-19T04:00:00</t>
+          <t>2023-06-08T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14198,27 +14198,27 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>COCTG</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2023-06-08T07:00:00</t>
+          <t>2023-06-09T19:00:00</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2023-06-08T18:00:00</t>
+          <t>2023-06-10T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14238,12 +14238,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -14253,12 +14253,12 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2023-06-09T19:00:00</t>
+          <t>2023-06-10T22:00:00</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2023-06-10T18:00:00</t>
+          <t>2023-06-11T17:30:00</t>
         </is>
       </c>
     </row>
@@ -14278,12 +14278,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -14293,12 +14293,12 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2023-06-10T22:00:00</t>
+          <t>2023-06-11T18:00:00</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2023-06-11T17:30:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -14318,27 +14318,27 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>2023-06-11T18:00:00</t>
+          <t>2023-06-16T07:00:00</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-17T07:00:00</t>
         </is>
       </c>
     </row>
@@ -14358,27 +14358,27 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>2023-06-16T07:00:00</t>
+          <t>2023-06-21T15:30:00</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2023-06-17T07:00:00</t>
+          <t>2023-06-23T01:30:00</t>
         </is>
       </c>
     </row>
@@ -14398,27 +14398,27 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>2023-06-21T15:30:00</t>
+          <t>2023-06-25T20:00:00</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2023-06-23T01:30:00</t>
+          <t>2023-06-26T08:00:00</t>
         </is>
       </c>
     </row>
@@ -14438,27 +14438,27 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Pisco</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>PEPIO</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>2023-06-25T20:00:00</t>
+          <t>2023-06-30T01:00:00</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2023-06-26T08:00:00</t>
+          <t>2023-06-30T14:30:00</t>
         </is>
       </c>
     </row>
@@ -14478,12 +14478,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -14493,12 +14493,12 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>2023-06-30T01:00:00</t>
+          <t>2023-06-30T22:00:00</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2023-06-30T14:30:00</t>
+          <t>2023-07-01T17:30:00</t>
         </is>
       </c>
     </row>
@@ -14518,12 +14518,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -14533,12 +14533,12 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>2023-06-30T22:00:00</t>
+          <t>2023-07-01T19:00:00</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2023-07-01T17:30:00</t>
+          <t>2023-07-02T17:00:00</t>
         </is>
       </c>
     </row>
@@ -14558,27 +14558,27 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>BEANR</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>2023-07-01T19:00:00</t>
+          <t>2023-07-15T06:00:00</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2023-07-02T17:00:00</t>
+          <t>2023-07-16T06:00:00</t>
         </is>
       </c>
     </row>
@@ -14598,27 +14598,27 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>BEANR</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>2023-07-15T06:00:00</t>
+          <t>2023-07-17T00:01:00</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>2023-07-16T06:00:00</t>
+          <t>2023-07-17T20:00:00</t>
         </is>
       </c>
     </row>
@@ -14638,27 +14638,27 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>DEHAM</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2023-07-17T00:01:00</t>
+          <t>2023-07-19T23:00:00</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2023-07-17T20:00:00</t>
+          <t>2023-07-20T15:00:00</t>
         </is>
       </c>
     </row>
@@ -14678,27 +14678,27 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>DEHAM</t>
+          <t>COCTG</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2023-07-19T23:00:00</t>
+          <t>2023-08-03T07:00:00</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>2023-07-20T15:00:00</t>
+          <t>2023-08-03T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14718,27 +14718,27 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>COCTG</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2023-08-03T07:00:00</t>
+          <t>2023-08-04T19:00:00</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>2023-08-03T18:00:00</t>
+          <t>2023-08-05T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14758,12 +14758,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -14773,12 +14773,12 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2023-08-04T19:00:00</t>
+          <t>2023-08-05T22:00:00</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>2023-08-05T18:00:00</t>
+          <t>2023-08-06T17:30:00</t>
         </is>
       </c>
     </row>
@@ -14798,12 +14798,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -14813,12 +14813,12 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2023-08-05T22:00:00</t>
+          <t>2023-08-06T18:00:00</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2023-08-06T17:30:00</t>
+          <t>2023-08-07T14:00:00</t>
         </is>
       </c>
     </row>
@@ -14838,27 +14838,27 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>2023-08-06T18:00:00</t>
+          <t>2023-08-11T07:00:00</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>2023-08-07T14:00:00</t>
+          <t>2023-08-12T07:00:00</t>
         </is>
       </c>
     </row>
@@ -14878,27 +14878,27 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>2023-08-11T07:00:00</t>
+          <t>2023-08-16T15:30:00</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>2023-08-12T07:00:00</t>
+          <t>2023-08-18T01:30:00</t>
         </is>
       </c>
     </row>
@@ -14918,65 +14918,25 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>2023-08-16T15:30:00</t>
+          <t>2023-08-20T20:00:00</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
-        <is>
-          <t>2023-08-18T01:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>MAERSK BRATAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>9394894</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>Pisco</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>PEPIO</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>2023-08-20T20:00:00</t>
-        </is>
-      </c>
-      <c r="H367" t="inlineStr">
         <is>
           <t>2023-08-21T08:00:00</t>
         </is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023-06-01T06:00:00</t>
+          <t>2023-06-01T12:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-06-02T02:00:00</t>
+          <t>2023-06-02T08:00:00</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023-06-04T07:00:00</t>
+          <t>2023-06-05T07:00:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-06-05T13:00:00</t>
+          <t>2023-06-06T13:00:00</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023-06-06T15:00:00</t>
+          <t>2023-06-07T15:00:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-06-07T09:00:00</t>
+          <t>2023-06-08T09:00:00</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2023-06-07T21:00:00</t>
+          <t>2023-06-08T21:00:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-06-08T23:00:00</t>
+          <t>2023-06-09T23:00:00</t>
         </is>
       </c>
     </row>
@@ -2302,27 +2302,23 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Salalah</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>OMSLL</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2023-05-31T20:30:00</t>
+          <t>2023-06-06T23:00:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2023-06-01T10:30:00</t>
+          <t>2023-06-07T15:00:00</t>
         </is>
       </c>
     </row>
@@ -2342,23 +2338,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ESALG</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2023-06-06T23:00:00</t>
+          <t>2023-06-11T20:00:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2023-06-07T15:00:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -2378,27 +2378,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2023-06-11T20:00:00</t>
+          <t>2023-06-20T08:00:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-21T06:00:00</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>USCHS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2023-06-20T08:00:00</t>
+          <t>2023-06-23T08:00:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2023-06-21T06:00:00</t>
+          <t>2023-06-23T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2458,12 +2458,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>USCHS</t>
+          <t>USSAV</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2473,12 +2473,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2023-06-23T08:00:00</t>
+          <t>2023-06-24T08:00:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2023-06-23T18:00:00</t>
+          <t>2023-06-25T10:00:00</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>USSAV</t>
+          <t>USHOU</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2023-06-24T08:00:00</t>
+          <t>2023-06-28T19:00:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2023-06-25T10:00:00</t>
+          <t>2023-06-30T05:00:00</t>
         </is>
       </c>
     </row>
@@ -2538,12 +2538,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Norfolk</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>USHOU</t>
+          <t>USORF</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2023-06-28T19:00:00</t>
+          <t>2023-07-05T08:00:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2023-06-30T05:00:00</t>
+          <t>2023-07-05T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2578,12 +2578,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>USORF</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2593,12 +2593,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2023-07-05T08:00:00</t>
+          <t>2023-07-07T08:00:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2023-07-05T18:00:00</t>
+          <t>2023-07-08T04:00:00</t>
         </is>
       </c>
     </row>
@@ -2618,27 +2618,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2023-07-07T08:00:00</t>
+          <t>2023-07-18T02:00:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2023-07-08T04:00:00</t>
+          <t>2023-07-18T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2658,27 +2658,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2023-07-18T02:00:00</t>
+          <t>2023-07-24T10:00:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2023-07-18T18:00:00</t>
+          <t>2023-07-25T05:00:00</t>
         </is>
       </c>
     </row>
@@ -2698,14 +2698,10 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -2713,12 +2709,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2023-07-24T10:00:00</t>
+          <t>2023-07-25T06:00:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2023-07-25T05:00:00</t>
+          <t>2023-07-25T15:00:00</t>
         </is>
       </c>
     </row>
@@ -2738,23 +2734,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>DJJIB</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2023-07-25T06:00:00</t>
+          <t>2023-07-29T19:00:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2023-07-25T15:00:00</t>
+          <t>2023-07-30T18:00:00</t>
         </is>
       </c>
     </row>
@@ -2774,27 +2774,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Salalah</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DJJIB</t>
+          <t>OMSLL</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2023-07-29T19:00:00</t>
+          <t>2023-08-01T14:00:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2023-07-30T18:00:00</t>
+          <t>2023-08-02T09:59:00</t>
         </is>
       </c>
     </row>
@@ -2814,27 +2814,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Salalah</t>
+          <t>Jebel Ali</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>OMSLL</t>
+          <t>AEJEA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2023-08-01T14:00:00</t>
+          <t>2023-08-05T00:59:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2023-08-02T09:59:00</t>
+          <t>2023-08-05T09:59:00</t>
         </is>
       </c>
     </row>
@@ -2844,37 +2844,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>MAERSK SANTANA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>9430363</t>
+          <t>9289934</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jebel Ali</t>
+          <t>Prince Rupert</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AEJEA</t>
+          <t>CAPRR</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2023-08-05T00:59:00</t>
+          <t>2023-06-01T08:00:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2023-08-05T09:59:00</t>
+          <t>2023-06-03T01:00:00</t>
         </is>
       </c>
     </row>
@@ -2894,12 +2894,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Prince Rupert</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CAPRR</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2909,12 +2909,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2023-06-01T08:00:00</t>
+          <t>2023-06-04T16:30:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2023-06-03T01:00:00</t>
+          <t>2023-06-07T09:30:00</t>
         </is>
       </c>
     </row>
@@ -2934,27 +2934,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CAVAN</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2023-06-04T16:30:00</t>
+          <t>2023-06-21T05:00:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2023-06-07T09:30:00</t>
+          <t>2023-06-21T14:00:00</t>
         </is>
       </c>
     </row>
@@ -2974,27 +2974,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2023-06-21T05:00:00</t>
+          <t>2023-06-24T16:00:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2023-06-21T14:00:00</t>
+          <t>2023-06-25T03:01:00</t>
         </is>
       </c>
     </row>
@@ -3014,27 +3014,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2023-06-24T16:00:00</t>
+          <t>2023-07-03T10:00:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2023-06-25T03:01:00</t>
+          <t>2023-07-04T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2023-07-03T10:00:00</t>
+          <t>2023-07-05T12:00:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2023-07-04T04:00:00</t>
+          <t>2023-07-06T06:00:00</t>
         </is>
       </c>
     </row>
@@ -3094,12 +3094,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2023-07-05T12:00:00</t>
+          <t>2023-07-08T14:00:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2023-07-06T06:00:00</t>
+          <t>2023-07-09T06:01:00</t>
         </is>
       </c>
     </row>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2023-07-08T14:00:00</t>
+          <t>2023-07-10T04:00:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2023-07-09T06:01:00</t>
+          <t>2023-07-11T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3174,27 +3174,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2023-07-10T04:00:00</t>
+          <t>2023-07-12T22:00:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2023-07-11T04:00:00</t>
+          <t>2023-07-13T20:00:00</t>
         </is>
       </c>
     </row>
@@ -3214,27 +3214,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2023-07-12T22:00:00</t>
+          <t>2023-07-15T23:00:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2023-07-13T20:00:00</t>
+          <t>2023-07-16T04:01:00</t>
         </is>
       </c>
     </row>
@@ -3254,27 +3254,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Prince Rupert</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>CAPRR</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2023-07-15T23:00:00</t>
+          <t>2023-07-25T01:00:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2023-07-16T04:01:00</t>
+          <t>2023-07-27T01:00:00</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3294,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Prince Rupert</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CAPRR</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3309,12 +3309,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2023-07-25T01:00:00</t>
+          <t>2023-07-31T01:00:00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2023-07-27T01:00:00</t>
+          <t>2023-08-04T01:00:00</t>
         </is>
       </c>
     </row>
@@ -3334,27 +3334,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CAVAN</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2023-07-31T01:00:00</t>
+          <t>2023-08-15T19:00:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2023-08-04T01:00:00</t>
+          <t>2023-08-16T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3374,27 +3374,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2023-08-15T19:00:00</t>
+          <t>2023-08-18T18:00:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2023-08-16T04:00:00</t>
+          <t>2023-08-19T05:00:00</t>
         </is>
       </c>
     </row>
@@ -3414,27 +3414,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2023-08-18T18:00:00</t>
+          <t>2023-08-21T14:00:00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2023-08-19T05:00:00</t>
+          <t>2023-08-22T08:00:00</t>
         </is>
       </c>
     </row>
@@ -3454,12 +3454,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2023-08-21T14:00:00</t>
+          <t>2023-08-23T12:00:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2023-08-22T08:00:00</t>
+          <t>2023-08-24T06:00:00</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2023-08-23T12:00:00</t>
+          <t>2023-08-26T14:00:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2023-08-24T06:00:00</t>
+          <t>2023-08-27T06:01:00</t>
         </is>
       </c>
     </row>
@@ -3534,12 +3534,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2023-08-26T14:00:00</t>
+          <t>2023-08-28T04:00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2023-08-27T06:01:00</t>
+          <t>2023-08-29T04:00:00</t>
         </is>
       </c>
     </row>
@@ -3589,12 +3589,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2023-06-02T15:00:00</t>
+          <t>2023-06-02T21:00:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2023-06-04T22:00:00</t>
+          <t>2023-06-04T06:00:00</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2023-06-02T15:01:00</t>
+          <t>2023-06-03T19:01:00</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2023-06-03T06:00:00</t>
+          <t>2023-06-04T10:00:00</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2023-06-03T16:00:00</t>
+          <t>2023-06-04T20:00:00</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2023-06-04T16:00:00</t>
+          <t>2023-06-05T20:00:00</t>
         </is>
       </c>
     </row>
@@ -5622,27 +5622,23 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Salalah</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>OMSLL</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2023-05-31T20:30:00</t>
+          <t>2023-06-06T23:00:00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2023-06-01T10:30:00</t>
+          <t>2023-06-07T15:00:00</t>
         </is>
       </c>
     </row>
@@ -5662,23 +5658,27 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>ESALG</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2023-06-06T23:00:00</t>
+          <t>2023-06-11T20:00:00</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2023-06-07T15:00:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -5698,27 +5698,27 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2023-06-11T20:00:00</t>
+          <t>2023-06-20T08:00:00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-21T06:00:00</t>
         </is>
       </c>
     </row>
@@ -5738,12 +5738,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>USCHS</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2023-06-20T08:00:00</t>
+          <t>2023-06-23T08:00:00</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2023-06-21T06:00:00</t>
+          <t>2023-06-23T18:00:00</t>
         </is>
       </c>
     </row>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>USCHS</t>
+          <t>USSAV</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5793,12 +5793,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2023-06-23T08:00:00</t>
+          <t>2023-06-24T08:00:00</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2023-06-23T18:00:00</t>
+          <t>2023-06-25T10:00:00</t>
         </is>
       </c>
     </row>
@@ -5818,12 +5818,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>USSAV</t>
+          <t>USHOU</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5833,12 +5833,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2023-06-24T08:00:00</t>
+          <t>2023-06-28T19:00:00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2023-06-25T10:00:00</t>
+          <t>2023-06-30T05:00:00</t>
         </is>
       </c>
     </row>
@@ -5858,12 +5858,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Norfolk</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>USHOU</t>
+          <t>USORF</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5873,12 +5873,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2023-06-28T19:00:00</t>
+          <t>2023-07-05T08:00:00</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2023-06-30T05:00:00</t>
+          <t>2023-07-05T18:00:00</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>USORF</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2023-07-05T08:00:00</t>
+          <t>2023-07-07T08:00:00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2023-07-05T18:00:00</t>
+          <t>2023-07-08T04:00:00</t>
         </is>
       </c>
     </row>
@@ -5938,27 +5938,27 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2023-07-07T08:00:00</t>
+          <t>2023-07-18T02:00:00</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2023-07-08T04:00:00</t>
+          <t>2023-07-18T18:00:00</t>
         </is>
       </c>
     </row>
@@ -5978,27 +5978,27 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2023-07-18T02:00:00</t>
+          <t>2023-07-24T10:00:00</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2023-07-18T18:00:00</t>
+          <t>2023-07-25T05:00:00</t>
         </is>
       </c>
     </row>
@@ -6018,14 +6018,10 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -6033,12 +6029,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2023-07-24T10:00:00</t>
+          <t>2023-07-25T06:00:00</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2023-07-25T05:00:00</t>
+          <t>2023-07-25T15:00:00</t>
         </is>
       </c>
     </row>
@@ -6058,23 +6054,27 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>DJJIB</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2023-07-25T06:00:00</t>
+          <t>2023-07-29T19:00:00</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2023-07-25T15:00:00</t>
+          <t>2023-07-30T18:00:00</t>
         </is>
       </c>
     </row>
@@ -6094,27 +6094,27 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Salalah</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>DJJIB</t>
+          <t>OMSLL</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2023-07-29T19:00:00</t>
+          <t>2023-08-01T14:00:00</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2023-07-30T18:00:00</t>
+          <t>2023-08-02T09:59:00</t>
         </is>
       </c>
     </row>
@@ -6134,27 +6134,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Salalah</t>
+          <t>Jebel Ali</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>OMSLL</t>
+          <t>AEJEA</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2023-08-01T14:00:00</t>
+          <t>2023-08-05T00:59:00</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2023-08-02T09:59:00</t>
+          <t>2023-08-05T09:59:00</t>
         </is>
       </c>
     </row>
@@ -6164,37 +6164,37 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>MAERSK BALI</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>9430363</t>
+          <t>9394870</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Jebel Ali</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>AEJEA</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2023-08-05T00:59:00</t>
+          <t>2023-06-09T01:00:00</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2023-08-05T09:59:00</t>
+          <t>2023-06-09T14:30:00</t>
         </is>
       </c>
     </row>
@@ -6214,27 +6214,27 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2023-05-31T07:00:00</t>
+          <t>2023-06-09T22:00:00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2023-06-01T10:00:00</t>
+          <t>2023-06-10T17:30:00</t>
         </is>
       </c>
     </row>
@@ -6254,12 +6254,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2023-06-09T01:00:00</t>
+          <t>2023-06-10T19:00:00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2023-06-09T14:30:00</t>
+          <t>2023-06-11T17:00:00</t>
         </is>
       </c>
     </row>
@@ -6294,27 +6294,27 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>BEANR</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2023-06-09T22:00:00</t>
+          <t>2023-06-24T06:00:00</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2023-06-10T17:30:00</t>
+          <t>2023-06-25T06:00:00</t>
         </is>
       </c>
     </row>
@@ -6334,27 +6334,27 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2023-06-10T19:00:00</t>
+          <t>2023-06-26T00:01:00</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2023-06-11T17:00:00</t>
+          <t>2023-06-26T20:00:00</t>
         </is>
       </c>
     </row>
@@ -6374,27 +6374,27 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>BEANR</t>
+          <t>DEHAM</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2023-06-24T06:00:00</t>
+          <t>2023-06-28T23:00:00</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2023-06-25T06:00:00</t>
+          <t>2023-06-29T15:00:00</t>
         </is>
       </c>
     </row>
@@ -6414,27 +6414,27 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>COCTG</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2023-06-26T00:01:00</t>
+          <t>2023-07-13T07:00:00</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2023-06-26T20:00:00</t>
+          <t>2023-07-13T18:00:00</t>
         </is>
       </c>
     </row>
@@ -6454,27 +6454,27 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>DEHAM</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2023-06-28T23:00:00</t>
+          <t>2023-07-14T19:00:00</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2023-06-29T15:00:00</t>
+          <t>2023-07-15T18:00:00</t>
         </is>
       </c>
     </row>
@@ -6494,27 +6494,27 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>COCTG</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2023-07-13T07:00:00</t>
+          <t>2023-07-15T22:00:00</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2023-07-13T18:00:00</t>
+          <t>2023-07-16T17:30:00</t>
         </is>
       </c>
     </row>
@@ -6534,12 +6534,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6549,12 +6549,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2023-07-14T19:00:00</t>
+          <t>2023-07-16T18:00:00</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2023-07-15T18:00:00</t>
+          <t>2023-07-17T14:00:00</t>
         </is>
       </c>
     </row>
@@ -6574,27 +6574,27 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2023-07-15T22:00:00</t>
+          <t>2023-07-21T07:00:00</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2023-07-16T17:30:00</t>
+          <t>2023-07-22T07:00:00</t>
         </is>
       </c>
     </row>
@@ -6614,27 +6614,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2023-07-16T18:00:00</t>
+          <t>2023-07-26T15:30:00</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2023-07-17T14:00:00</t>
+          <t>2023-07-28T01:30:00</t>
         </is>
       </c>
     </row>
@@ -6654,12 +6654,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2023-07-21T07:00:00</t>
+          <t>2023-07-30T20:00:00</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2023-07-22T07:00:00</t>
+          <t>2023-07-31T08:00:00</t>
         </is>
       </c>
     </row>
@@ -6694,27 +6694,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2023-07-26T15:30:00</t>
+          <t>2023-08-04T01:00:00</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2023-07-28T01:30:00</t>
+          <t>2023-08-04T14:30:00</t>
         </is>
       </c>
     </row>
@@ -6734,27 +6734,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Pisco</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PEPIO</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2023-07-30T20:00:00</t>
+          <t>2023-08-04T22:00:00</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2023-07-31T08:00:00</t>
+          <t>2023-08-05T17:30:00</t>
         </is>
       </c>
     </row>
@@ -6774,12 +6774,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6789,12 +6789,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2023-08-04T01:00:00</t>
+          <t>2023-08-05T19:00:00</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2023-08-04T14:30:00</t>
+          <t>2023-08-06T17:00:00</t>
         </is>
       </c>
     </row>
@@ -6804,37 +6804,37 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MAERSK BALI</t>
+          <t>MAERSK SEVILLE</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>9394870</t>
+          <t>9299927</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2023-08-04T22:00:00</t>
+          <t>2023-06-02T14:00:00</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2023-08-05T17:30:00</t>
+          <t>2023-06-03T16:00:00</t>
         </is>
       </c>
     </row>
@@ -6844,37 +6844,37 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MAERSK BALI</t>
+          <t>MAERSK SEVILLE</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>9394870</t>
+          <t>9299927</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2023-08-05T19:00:00</t>
+          <t>2023-06-08T03:00:00</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2023-08-06T17:00:00</t>
+          <t>2023-06-09T03:00:00</t>
         </is>
       </c>
     </row>
@@ -6894,27 +6894,27 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2023-05-31T16:10:00</t>
+          <t>2023-06-28T22:00:00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2023-06-01T17:00:00</t>
+          <t>2023-06-29T17:00:00</t>
         </is>
       </c>
     </row>
@@ -6934,27 +6934,27 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>USHOU</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2023-06-02T14:00:00</t>
+          <t>2023-07-03T15:00:00</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2023-06-03T16:00:00</t>
+          <t>2023-07-06T03:00:00</t>
         </is>
       </c>
     </row>
@@ -6974,27 +6974,27 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>USMOB</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2023-06-06T19:00:00</t>
+          <t>2023-07-07T19:00:00</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2023-06-07T19:00:00</t>
+          <t>2023-07-09T05:00:00</t>
         </is>
       </c>
     </row>
@@ -7014,27 +7014,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>USTPA</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2023-06-28T22:00:00</t>
+          <t>2023-07-10T13:00:00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2023-06-29T17:00:00</t>
+          <t>2023-07-11T18:00:00</t>
         </is>
       </c>
     </row>
@@ -7054,27 +7054,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>USHOU</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2023-07-03T15:00:00</t>
+          <t>2023-07-15T22:00:00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2023-07-06T03:00:00</t>
+          <t>2023-07-16T17:00:00</t>
         </is>
       </c>
     </row>
@@ -7094,27 +7094,27 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>USMOB</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2023-07-07T19:00:00</t>
+          <t>2023-07-17T07:00:00</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2023-07-09T05:00:00</t>
+          <t>2023-07-18T07:00:00</t>
         </is>
       </c>
     </row>
@@ -7134,27 +7134,27 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>USTPA</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2023-07-10T13:00:00</t>
+          <t>2023-08-12T20:00:00</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2023-07-11T18:00:00</t>
+          <t>2023-08-14T02:00:00</t>
         </is>
       </c>
     </row>
@@ -7174,27 +7174,27 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2023-07-15T22:00:00</t>
+          <t>2023-08-16T18:00:00</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2023-07-16T17:00:00</t>
+          <t>2023-08-17T14:00:00</t>
         </is>
       </c>
     </row>
@@ -7214,27 +7214,27 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2023-07-17T07:00:00</t>
+          <t>2023-08-19T14:00:00</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2023-07-18T07:00:00</t>
+          <t>2023-08-20T16:00:00</t>
         </is>
       </c>
     </row>
@@ -7269,12 +7269,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2023-08-12T20:00:00</t>
+          <t>2023-08-24T19:00:00</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2023-08-14T02:00:00</t>
+          <t>2023-08-25T19:00:00</t>
         </is>
       </c>
     </row>
@@ -7284,22 +7284,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MAERSK SEVILLE</t>
+          <t>MAERSK EDMONTON</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>9299927</t>
+          <t>9458030</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7309,12 +7309,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2023-08-16T18:00:00</t>
+          <t>2023-06-09T00:01:00</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2023-08-17T14:00:00</t>
+          <t>2023-06-10T12:00:00</t>
         </is>
       </c>
     </row>
@@ -7324,22 +7324,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MAERSK SEVILLE</t>
+          <t>MAERSK EDMONTON</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>9299927</t>
+          <t>9458030</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7349,12 +7349,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2023-08-19T14:00:00</t>
+          <t>2023-06-13T19:00:00</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2023-08-20T16:00:00</t>
+          <t>2023-06-14T19:00:00</t>
         </is>
       </c>
     </row>
@@ -7364,37 +7364,37 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MAERSK SEVILLE</t>
+          <t>MAERSK EDMONTON</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>9299927</t>
+          <t>9458030</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2023-08-24T19:00:00</t>
+          <t>2023-06-17T19:00:00</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2023-08-25T19:00:00</t>
+          <t>2023-06-18T16:00:00</t>
         </is>
       </c>
     </row>
@@ -7414,27 +7414,27 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2023-06-09T00:01:00</t>
+          <t>2023-06-20T18:00:00</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2023-06-10T12:00:00</t>
+          <t>2023-06-21T18:00:00</t>
         </is>
       </c>
     </row>
@@ -7454,27 +7454,27 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2023-06-12T19:00:00</t>
+          <t>2023-06-24T19:00:00</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2023-06-13T19:00:00</t>
+          <t>2023-06-25T04:00:00</t>
         </is>
       </c>
     </row>
@@ -7494,27 +7494,27 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>MXZLO</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2023-06-17T19:00:00</t>
+          <t>2023-07-10T08:00:00</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2023-06-18T16:00:00</t>
+          <t>2023-07-11T16:00:00</t>
         </is>
       </c>
     </row>
@@ -7534,27 +7534,27 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Lazaro Cardenas</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>MXLZC</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2023-06-20T18:00:00</t>
+          <t>2023-07-12T08:30:00</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2023-06-21T18:00:00</t>
+          <t>2023-07-13T23:30:00</t>
         </is>
       </c>
     </row>
@@ -7574,27 +7574,27 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Guayaquil</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>ECGYE</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2023-06-24T19:00:00</t>
+          <t>2023-07-18T11:00:00</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2023-06-25T04:00:00</t>
+          <t>2023-07-19T19:00:00</t>
         </is>
       </c>
     </row>
@@ -7614,27 +7614,27 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MXZLO</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2023-07-10T08:00:00</t>
+          <t>2023-07-21T22:00:00</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2023-07-11T16:00:00</t>
+          <t>2023-07-23T10:00:00</t>
         </is>
       </c>
     </row>
@@ -7654,12 +7654,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Lazaro Cardenas</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MXLZC</t>
+          <t>MXZLO</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7669,12 +7669,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2023-07-12T08:30:00</t>
+          <t>2023-07-28T15:30:00</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2023-07-13T23:30:00</t>
+          <t>2023-07-29T17:30:00</t>
         </is>
       </c>
     </row>
@@ -7694,27 +7694,27 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ECGYE</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2023-07-18T11:00:00</t>
+          <t>2023-08-18T23:00:00</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2023-07-19T19:00:00</t>
+          <t>2023-08-19T23:00:00</t>
         </is>
       </c>
     </row>
@@ -7734,27 +7734,27 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2023-07-21T22:00:00</t>
+          <t>2023-08-21T12:00:00</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2023-07-23T10:00:00</t>
+          <t>2023-08-22T16:00:00</t>
         </is>
       </c>
     </row>
@@ -7774,27 +7774,27 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MXZLO</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2023-07-28T15:30:00</t>
+          <t>2023-08-27T07:00:00</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2023-07-29T17:30:00</t>
+          <t>2023-08-28T06:00:00</t>
         </is>
       </c>
     </row>
@@ -7804,37 +7804,37 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MAERSK EDMONTON</t>
+          <t>MAERSK ESSEX</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>9458030</t>
+          <t>9458092</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2023-08-18T23:00:00</t>
+          <t>2023-06-04T12:00:00</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2023-08-19T23:00:00</t>
+          <t>2023-06-05T08:00:00</t>
         </is>
       </c>
     </row>
@@ -7844,22 +7844,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MAERSK EDMONTON</t>
+          <t>MAERSK ESSEX</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>9458030</t>
+          <t>9458092</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2023-08-21T12:00:00</t>
+          <t>2023-06-05T17:00:00</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2023-08-22T16:00:00</t>
+          <t>2023-06-06T17:00:00</t>
         </is>
       </c>
     </row>
@@ -7884,37 +7884,37 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MAERSK EDMONTON</t>
+          <t>MAERSK ESSEX</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>9458030</t>
+          <t>9458092</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2023-08-27T07:00:00</t>
+          <t>2023-06-07T22:00:00</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2023-08-28T06:00:00</t>
+          <t>2023-06-08T18:00:00</t>
         </is>
       </c>
     </row>
@@ -7934,27 +7934,27 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2023-06-04T12:00:00</t>
+          <t>2023-06-10T00:01:00</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2023-06-05T08:00:00</t>
+          <t>2023-06-10T12:00:00</t>
         </is>
       </c>
     </row>
@@ -7974,27 +7974,27 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>USLAX</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2023-06-05T17:00:00</t>
+          <t>2023-06-23T08:00:00</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2023-06-06T17:00:00</t>
+          <t>2023-06-27T14:00:00</t>
         </is>
       </c>
     </row>
@@ -8014,27 +8014,27 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>JPYOK</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2023-06-07T22:00:00</t>
+          <t>2023-07-16T19:00:00</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2023-06-08T18:00:00</t>
+          <t>2023-07-17T04:00:00</t>
         </is>
       </c>
     </row>
@@ -8054,12 +8054,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -8069,12 +8069,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2023-06-10T00:01:00</t>
+          <t>2023-07-23T18:00:00</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2023-06-10T12:00:00</t>
+          <t>2023-07-25T06:00:00</t>
         </is>
       </c>
     </row>
@@ -8094,27 +8094,27 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Vung Tau</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>USLAX</t>
+          <t>VNVUT</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2023-06-23T08:00:00</t>
+          <t>2023-08-08T22:00:00</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2023-06-27T14:00:00</t>
+          <t>2023-08-10T16:00:00</t>
         </is>
       </c>
     </row>
@@ -8134,27 +8134,27 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>JPYOK</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2023-07-16T19:00:00</t>
+          <t>2023-08-13T12:00:00</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2023-07-17T04:00:00</t>
+          <t>2023-08-14T08:00:00</t>
         </is>
       </c>
     </row>
@@ -8174,12 +8174,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8189,12 +8189,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2023-07-23T18:00:00</t>
+          <t>2023-08-14T17:00:00</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2023-07-25T06:00:00</t>
+          <t>2023-08-15T17:00:00</t>
         </is>
       </c>
     </row>
@@ -8214,27 +8214,27 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Vung Tau</t>
+          <t>Xiamen</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>VNVUT</t>
+          <t>CNXMN</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2023-08-08T22:00:00</t>
+          <t>2023-08-16T22:00:00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2023-08-10T16:00:00</t>
+          <t>2023-08-17T18:00:00</t>
         </is>
       </c>
     </row>
@@ -8244,37 +8244,37 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MAERSK ESSEX</t>
+          <t>MAERSK SOFIA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>9458092</t>
+          <t>9308637</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Pointe Noire</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CGPNR</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2023-08-13T12:00:00</t>
+          <t>2023-06-06T17:00:00</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2023-08-14T08:00:00</t>
+          <t>2023-06-08T19:00:00</t>
         </is>
       </c>
     </row>
@@ -8284,37 +8284,37 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MAERSK ESSEX</t>
+          <t>MAERSK SOFIA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>9458092</t>
+          <t>9308637</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Yantian</t>
+          <t>Luanda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CNYTN</t>
+          <t>AOLAD</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2023-08-14T17:00:00</t>
+          <t>2023-06-10T02:30:00</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2023-08-15T17:00:00</t>
+          <t>2023-06-12T14:30:00</t>
         </is>
       </c>
     </row>
@@ -8324,37 +8324,37 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MAERSK ESSEX</t>
+          <t>MAERSK SOFIA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>9458092</t>
+          <t>9308637</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Xiamen</t>
+          <t>Luanda</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CNXMN</t>
+          <t>AOLAD</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2023-08-16T22:00:00</t>
+          <t>2023-06-12T16:30:00</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2023-08-17T18:00:00</t>
+          <t>2023-06-15T01:00:00</t>
         </is>
       </c>
     </row>
@@ -8374,27 +8374,27 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Pointe Noire</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CGPNR</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2023-06-06T17:00:00</t>
+          <t>2023-06-19T04:00:00</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2023-06-08T19:00:00</t>
+          <t>2023-06-21T04:00:00</t>
         </is>
       </c>
     </row>
@@ -8414,27 +8414,27 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AOLAD</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2023-06-10T02:30:00</t>
+          <t>2023-07-13T03:00:00</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2023-06-12T14:30:00</t>
+          <t>2023-07-13T23:00:00</t>
         </is>
       </c>
     </row>
@@ -8454,27 +8454,27 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AOLAD</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2023-06-12T16:30:00</t>
+          <t>2023-07-22T01:00:00</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2023-06-15T01:00:00</t>
+          <t>2023-07-23T02:00:00</t>
         </is>
       </c>
     </row>
@@ -8494,27 +8494,27 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2023-06-19T04:00:00</t>
+          <t>2023-07-25T03:30:00</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2023-06-21T04:00:00</t>
+          <t>2023-07-25T16:30:00</t>
         </is>
       </c>
     </row>
@@ -8534,27 +8534,27 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2023-07-13T03:00:00</t>
+          <t>2023-07-26T07:00:00</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2023-07-13T23:00:00</t>
+          <t>2023-07-26T22:00:00</t>
         </is>
       </c>
     </row>
@@ -8574,12 +8574,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8589,12 +8589,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2023-07-22T01:00:00</t>
+          <t>2023-07-30T01:00:00</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2023-07-23T02:00:00</t>
+          <t>2023-07-30T16:00:00</t>
         </is>
       </c>
     </row>
@@ -8614,27 +8614,27 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2023-07-25T03:30:00</t>
+          <t>2023-08-03T19:00:00</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2023-07-25T16:30:00</t>
+          <t>2023-08-04T14:00:00</t>
         </is>
       </c>
     </row>
@@ -8654,27 +8654,27 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2023-07-26T07:00:00</t>
+          <t>2023-08-05T08:00:00</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2023-07-26T22:00:00</t>
+          <t>2023-08-06T09:00:00</t>
         </is>
       </c>
     </row>
@@ -8694,27 +8694,27 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2023-07-30T01:00:00</t>
+          <t>2023-08-23T18:00:00</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2023-07-30T16:00:00</t>
+          <t>2023-08-25T16:00:00</t>
         </is>
       </c>
     </row>
@@ -8724,12 +8724,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MAERSK SOFIA</t>
+          <t>MAERSK SAIGON</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>9308637</t>
+          <t>9303534</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -8749,12 +8749,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2023-08-03T19:00:00</t>
+          <t>2023-06-07T19:00:00</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2023-08-04T14:00:00</t>
+          <t>2023-06-08T12:00:00</t>
         </is>
       </c>
     </row>
@@ -8764,37 +8764,37 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MAERSK SOFIA</t>
+          <t>MAERSK SAIGON</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>9308637</t>
+          <t>9303534</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Laem Chabang</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>THLCH</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2023-08-05T08:00:00</t>
+          <t>2023-06-10T21:00:00</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2023-08-06T09:00:00</t>
+          <t>2023-06-13T09:00:00</t>
         </is>
       </c>
     </row>
@@ -8804,37 +8804,37 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MAERSK SOFIA</t>
+          <t>MAERSK SAIGON</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>9308637</t>
+          <t>9303534</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2023-08-23T18:00:00</t>
+          <t>2023-06-15T05:00:00</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2023-08-25T16:00:00</t>
+          <t>2023-06-16T05:00:00</t>
         </is>
       </c>
     </row>
@@ -8869,12 +8869,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2023-06-07T19:00:00</t>
+          <t>2023-06-16T09:00:00</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2023-06-08T12:00:00</t>
+          <t>2023-06-17T03:00:00</t>
         </is>
       </c>
     </row>
@@ -8894,27 +8894,27 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Laem Chabang</t>
+          <t>Colombo</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>THLCH</t>
+          <t>LKCMB</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2023-06-10T21:00:00</t>
+          <t>2023-06-21T04:00:00</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2023-06-13T09:00:00</t>
+          <t>2023-06-22T00:01:00</t>
         </is>
       </c>
     </row>
@@ -8934,27 +8934,27 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Salalah</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>OMSLL</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2023-06-15T05:00:00</t>
+          <t>2023-06-26T00:01:00</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2023-06-16T05:00:00</t>
+          <t>2023-06-26T14:00:00</t>
         </is>
       </c>
     </row>
@@ -8974,27 +8974,23 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>MYTPP</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2023-06-16T09:00:00</t>
+          <t>2023-07-03T23:00:00</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2023-06-17T03:00:00</t>
+          <t>2023-07-03T23:01:00</t>
         </is>
       </c>
     </row>
@@ -9014,27 +9010,23 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Colombo</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>LKCMB</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2023-06-21T04:00:00</t>
+          <t>2023-07-04T14:59:00</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2023-06-22T00:01:00</t>
+          <t>2023-07-04T15:00:00</t>
         </is>
       </c>
     </row>
@@ -9054,27 +9046,27 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Salalah</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>OMSLL</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2023-06-26T00:01:00</t>
+          <t>2023-07-17T08:00:00</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2023-06-26T14:00:00</t>
+          <t>2023-07-19T08:00:00</t>
         </is>
       </c>
     </row>
@@ -9094,23 +9086,27 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+          <t>Norfolk</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>USORF</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2023-07-03T23:00:00</t>
+          <t>2023-07-20T19:00:00</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2023-07-03T23:01:00</t>
+          <t>2023-07-21T19:00:00</t>
         </is>
       </c>
     </row>
@@ -9130,23 +9126,27 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>USSAV</t>
+        </is>
+      </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2023-07-04T14:59:00</t>
+          <t>2023-07-23T08:00:00</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2023-07-04T15:00:00</t>
+          <t>2023-07-24T03:00:00</t>
         </is>
       </c>
     </row>
@@ -9166,27 +9166,23 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Newark</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>USEWR</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2023-07-17T08:00:00</t>
+          <t>2023-08-10T23:00:00</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2023-07-19T08:00:00</t>
+          <t>2023-08-10T23:01:00</t>
         </is>
       </c>
     </row>
@@ -9206,27 +9202,23 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Norfolk</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>USORF</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2023-07-20T19:00:00</t>
+          <t>2023-08-11T14:59:00</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2023-07-21T19:00:00</t>
+          <t>2023-08-11T15:00:00</t>
         </is>
       </c>
     </row>
@@ -9236,37 +9228,37 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MAERSK SAIGON</t>
+          <t>MAERSK SANA</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>9303534</t>
+          <t>9289922</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>USSAV</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2023-07-23T08:00:00</t>
+          <t>2023-06-06T14:00:00</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2023-07-24T03:00:00</t>
+          <t>2023-06-07T07:00:00</t>
         </is>
       </c>
     </row>
@@ -9276,33 +9268,37 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MAERSK SAIGON</t>
+          <t>MAERSK SANA</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>9303534</t>
+          <t>9289922</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
+      </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2023-08-10T23:00:00</t>
+          <t>2023-06-11T16:00:00</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2023-08-10T23:01:00</t>
+          <t>2023-06-12T08:00:00</t>
         </is>
       </c>
     </row>
@@ -9312,33 +9308,37 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MAERSK SAIGON</t>
+          <t>MAERSK SANA</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>9303534</t>
+          <t>9289922</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
+          <t>Nansha New Port</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>CNNSA</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2023-08-11T14:59:00</t>
+          <t>2023-06-12T15:00:00</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2023-08-11T15:00:00</t>
+          <t>2023-06-13T15:00:00</t>
         </is>
       </c>
     </row>
@@ -9358,27 +9358,27 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Yantian</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>CNYTN</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2023-06-06T14:00:00</t>
+          <t>2023-06-14T08:00:00</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2023-06-07T07:00:00</t>
+          <t>2023-06-15T14:00:00</t>
         </is>
       </c>
     </row>
@@ -9398,27 +9398,27 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Vung Tau</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>VNVUT</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2023-06-11T16:00:00</t>
+          <t>2023-06-17T22:00:00</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2023-06-12T08:00:00</t>
+          <t>2023-06-18T14:00:00</t>
         </is>
       </c>
     </row>
@@ -9438,27 +9438,27 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2023-06-12T15:00:00</t>
+          <t>2023-06-20T10:00:00</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2023-06-13T15:00:00</t>
+          <t>2023-06-21T06:01:00</t>
         </is>
       </c>
     </row>
@@ -9478,27 +9478,23 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Yantian</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>CNYTN</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2023-06-14T08:00:00</t>
+          <t>2023-07-05T23:00:00</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2023-06-15T14:00:00</t>
+          <t>2023-07-06T15:00:00</t>
         </is>
       </c>
     </row>
@@ -9518,27 +9514,27 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Vung Tau</t>
+          <t>Newark</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>VNVUT</t>
+          <t>USEWR</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2023-06-17T22:00:00</t>
+          <t>2023-07-19T07:00:00</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2023-06-18T14:00:00</t>
+          <t>2023-07-20T07:00:00</t>
         </is>
       </c>
     </row>
@@ -9558,27 +9554,27 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>USCHS</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2023-06-20T10:00:00</t>
+          <t>2023-07-21T19:00:00</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2023-06-21T06:01:00</t>
+          <t>2023-07-22T15:00:00</t>
         </is>
       </c>
     </row>
@@ -9598,23 +9594,27 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>USSAV</t>
+        </is>
+      </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2023-07-05T23:00:00</t>
+          <t>2023-07-23T07:00:00</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2023-07-06T15:00:00</t>
+          <t>2023-07-24T13:00:00</t>
         </is>
       </c>
     </row>
@@ -9634,12 +9634,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>USEWR</t>
+          <t>USMIA</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -9649,12 +9649,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2023-07-19T07:00:00</t>
+          <t>2023-07-25T15:00:00</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2023-07-20T07:00:00</t>
+          <t>2023-07-26T09:00:00</t>
         </is>
       </c>
     </row>
@@ -9674,27 +9674,27 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Freeport</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>USCHS</t>
+          <t>BSFPO</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2023-07-21T19:00:00</t>
+          <t>2023-07-26T21:00:00</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2023-07-22T15:00:00</t>
+          <t>2023-07-27T23:00:00</t>
         </is>
       </c>
     </row>
@@ -9714,27 +9714,23 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>USSAV</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2023-07-23T07:00:00</t>
+          <t>2023-08-12T23:00:00</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2023-07-24T13:00:00</t>
+          <t>2023-08-13T15:00:00</t>
         </is>
       </c>
     </row>
@@ -9744,37 +9740,37 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MAERSK SANA</t>
+          <t>MAERSK SHEERNESS</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>9289922</t>
+          <t>9299939</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>USMIA</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2023-07-25T15:00:00</t>
+          <t>2023-06-02T06:00:00</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2023-07-26T09:00:00</t>
+          <t>2023-06-04T03:00:00</t>
         </is>
       </c>
     </row>
@@ -9784,37 +9780,37 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MAERSK SANA</t>
+          <t>MAERSK SHEERNESS</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>9289922</t>
+          <t>9299939</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Freeport</t>
+          <t>Pointe Noire</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>BSFPO</t>
+          <t>CGPNR</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2023-07-26T21:00:00</t>
+          <t>2023-06-12T19:00:00</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2023-07-27T23:00:00</t>
+          <t>2023-06-14T21:00:00</t>
         </is>
       </c>
     </row>
@@ -9824,33 +9820,37 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MAERSK SANA</t>
+          <t>MAERSK SHEERNESS</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>9289922</t>
+          <t>9299939</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
+          <t>Luanda</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>AOLAD</t>
+        </is>
+      </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2023-08-12T23:00:00</t>
+          <t>2023-06-16T04:30:00</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2023-08-13T15:00:00</t>
+          <t>2023-06-18T16:30:00</t>
         </is>
       </c>
     </row>
@@ -9870,27 +9870,27 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Luanda</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>AOLAD</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2023-06-01T20:00:00</t>
+          <t>2023-06-18T18:30:00</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2023-06-03T17:00:00</t>
+          <t>2023-06-21T03:00:00</t>
         </is>
       </c>
     </row>
@@ -9910,27 +9910,27 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Pointe Noire</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CGPNR</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2023-06-12T19:00:00</t>
+          <t>2023-06-26T06:00:00</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2023-06-14T21:00:00</t>
+          <t>2023-06-28T06:00:00</t>
         </is>
       </c>
     </row>
@@ -9950,27 +9950,27 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>AOLAD</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2023-06-16T04:30:00</t>
+          <t>2023-07-20T03:00:00</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2023-06-18T16:30:00</t>
+          <t>2023-07-20T23:00:00</t>
         </is>
       </c>
     </row>
@@ -9990,27 +9990,27 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Luanda</t>
+          <t>Qingdao</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>AOLAD</t>
+          <t>CNTAO</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2023-06-18T18:30:00</t>
+          <t>2023-07-29T01:00:00</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2023-06-21T03:00:00</t>
+          <t>2023-07-30T02:00:00</t>
         </is>
       </c>
     </row>
@@ -10030,27 +10030,27 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2023-06-26T06:00:00</t>
+          <t>2023-08-01T03:30:00</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2023-06-28T06:00:00</t>
+          <t>2023-08-01T16:30:00</t>
         </is>
       </c>
     </row>
@@ -10070,27 +10070,27 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2023-07-20T03:00:00</t>
+          <t>2023-08-02T07:00:00</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2023-07-20T23:00:00</t>
+          <t>2023-08-02T22:00:00</t>
         </is>
       </c>
     </row>
@@ -10110,12 +10110,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Qingdao</t>
+          <t>Nansha New Port</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CNTAO</t>
+          <t>CNNSA</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -10125,12 +10125,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2023-07-29T01:00:00</t>
+          <t>2023-08-06T01:00:00</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2023-07-30T02:00:00</t>
+          <t>2023-08-06T16:00:00</t>
         </is>
       </c>
     </row>
@@ -10150,27 +10150,27 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2023-08-01T03:30:00</t>
+          <t>2023-08-10T19:00:00</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2023-08-01T16:30:00</t>
+          <t>2023-08-11T14:00:00</t>
         </is>
       </c>
     </row>
@@ -10190,27 +10190,27 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2023-08-02T07:00:00</t>
+          <t>2023-08-12T08:00:00</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2023-08-02T22:00:00</t>
+          <t>2023-08-13T09:00:00</t>
         </is>
       </c>
     </row>
@@ -10220,22 +10220,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MAERSK SHEERNESS</t>
+          <t>MAERSK HAVANA</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>9299939</t>
+          <t>9784336</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Nansha New Port</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CNNSA</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -10245,12 +10245,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2023-08-06T01:00:00</t>
+          <t>2023-06-01T06:40:00</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2023-08-06T16:00:00</t>
+          <t>2023-06-01T19:00:00</t>
         </is>
       </c>
     </row>
@@ -10260,37 +10260,37 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MAERSK SHEERNESS</t>
+          <t>MAERSK HAVANA</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>9299939</t>
+          <t>9784336</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2023-08-10T19:00:00</t>
+          <t>2023-06-03T13:00:00</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2023-08-11T14:00:00</t>
+          <t>2023-06-04T02:01:00</t>
         </is>
       </c>
     </row>
@@ -10300,12 +10300,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MAERSK SHEERNESS</t>
+          <t>MAERSK HAVANA</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>9299939</t>
+          <t>9784336</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -10325,12 +10325,12 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2023-08-12T08:00:00</t>
+          <t>2023-06-07T12:00:00</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2023-08-13T09:00:00</t>
+          <t>2023-06-08T11:00:00</t>
         </is>
       </c>
     </row>
@@ -10350,27 +10350,23 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Shanghai</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>CNSHA</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2023-05-31T23:01:00</t>
+          <t>2023-06-18T23:00:00</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2023-06-01T15:01:00</t>
+          <t>2023-06-18T23:01:00</t>
         </is>
       </c>
     </row>
@@ -10390,27 +10386,23 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Shekou</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>CNSHK</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2023-06-03T13:00:00</t>
+          <t>2023-06-19T14:59:00</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2023-06-04T02:01:00</t>
+          <t>2023-06-19T15:00:00</t>
         </is>
       </c>
     </row>
@@ -10430,27 +10422,27 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2023-06-07T12:00:00</t>
+          <t>2023-06-19T18:00:00</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2023-06-08T11:00:00</t>
+          <t>2023-06-21T02:00:00</t>
         </is>
       </c>
     </row>
@@ -10470,23 +10462,27 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr"/>
+          <t>Haifa</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>ILHFA</t>
+        </is>
+      </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2023-06-18T23:00:00</t>
+          <t>2023-06-21T15:00:00</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2023-06-18T23:01:00</t>
+          <t>2023-06-22T19:00:00</t>
         </is>
       </c>
     </row>
@@ -10506,23 +10502,27 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr"/>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>SIKOP</t>
+        </is>
+      </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2023-06-19T14:59:00</t>
+          <t>2023-06-26T06:00:00</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2023-06-19T15:00:00</t>
+          <t>2023-06-28T18:00:00</t>
         </is>
       </c>
     </row>
@@ -10542,27 +10542,27 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2023-06-19T18:00:00</t>
+          <t>2023-06-29T07:00:00</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2023-06-21T02:00:00</t>
+          <t>2023-07-03T01:00:00</t>
         </is>
       </c>
     </row>
@@ -10582,27 +10582,27 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2023-06-21T15:00:00</t>
+          <t>2023-07-03T20:30:00</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2023-06-22T19:00:00</t>
+          <t>2023-07-05T18:30:00</t>
         </is>
       </c>
     </row>
@@ -10622,27 +10622,27 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2023-06-26T06:00:00</t>
+          <t>2023-07-06T09:00:00</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2023-06-28T18:00:00</t>
+          <t>2023-07-06T10:00:00</t>
         </is>
       </c>
     </row>
@@ -10662,27 +10662,27 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Trieste</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>ITTRS</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2023-06-29T07:00:00</t>
+          <t>2023-07-10T05:00:00</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2023-07-03T01:00:00</t>
+          <t>2023-07-12T00:01:00</t>
         </is>
       </c>
     </row>
@@ -10702,27 +10702,23 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Rijeka</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>HRRJK</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2023-07-03T20:30:00</t>
+          <t>2023-07-12T01:00:00</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2023-07-05T18:30:00</t>
+          <t>2023-07-12T01:01:00</t>
         </is>
       </c>
     </row>
@@ -10742,27 +10738,23 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Trieste</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>ITTRS</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2023-07-06T09:00:00</t>
+          <t>2023-07-12T09:59:00</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2023-07-06T10:00:00</t>
+          <t>2023-07-12T10:00:00</t>
         </is>
       </c>
     </row>
@@ -10782,27 +10774,27 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>King Abdullah Port</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>SAKAC</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2023-07-10T05:00:00</t>
+          <t>2023-07-15T06:00:00</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2023-07-12T00:01:00</t>
+          <t>2023-07-16T03:00:00</t>
         </is>
       </c>
     </row>
@@ -10822,23 +10814,27 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr"/>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>SAJED</t>
+        </is>
+      </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2023-07-12T01:00:00</t>
+          <t>2023-07-16T16:00:00</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2023-07-12T01:01:00</t>
+          <t>2023-07-17T16:00:00</t>
         </is>
       </c>
     </row>
@@ -10858,23 +10854,27 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr"/>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>SGSIN</t>
+        </is>
+      </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2023-07-12T09:59:00</t>
+          <t>2023-07-27T18:00:00</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2023-07-12T10:00:00</t>
+          <t>2023-07-29T01:00:00</t>
         </is>
       </c>
     </row>
@@ -10894,27 +10894,27 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>SAKAC</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2023-07-15T06:00:00</t>
+          <t>2023-08-14T00:01:00</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2023-07-16T03:00:00</t>
+          <t>2023-08-16T00:01:00</t>
         </is>
       </c>
     </row>
@@ -10934,27 +10934,27 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2023-07-16T16:00:00</t>
+          <t>2023-08-16T22:00:00</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2023-07-17T16:00:00</t>
+          <t>2023-08-17T18:00:00</t>
         </is>
       </c>
     </row>
@@ -10974,27 +10974,27 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2023-07-27T18:00:00</t>
+          <t>2023-08-19T17:00:00</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2023-07-29T01:00:00</t>
+          <t>2023-08-21T14:00:00</t>
         </is>
       </c>
     </row>
@@ -11014,27 +11014,27 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2023-08-14T00:01:00</t>
+          <t>2023-08-21T19:30:00</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2023-08-16T00:01:00</t>
+          <t>2023-08-21T20:30:00</t>
         </is>
       </c>
     </row>
@@ -11054,12 +11054,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -11069,12 +11069,12 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2023-08-16T22:00:00</t>
+          <t>2023-08-24T15:00:00</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2023-08-17T18:00:00</t>
+          <t>2023-08-25T23:00:00</t>
         </is>
       </c>
     </row>
@@ -11094,27 +11094,27 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2023-08-19T17:00:00</t>
+          <t>2023-08-27T07:00:00</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2023-08-21T14:00:00</t>
+          <t>2023-08-28T07:00:00</t>
         </is>
       </c>
     </row>
@@ -11124,37 +11124,37 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>MAERSK HAVANA</t>
+          <t>SANTA ISABEL</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>9784336</t>
+          <t>9444728</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2023-08-21T19:30:00</t>
+          <t>2023-06-01T13:00:00</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2023-08-21T20:30:00</t>
+          <t>2023-06-05T03:00:00</t>
         </is>
       </c>
     </row>
@@ -11164,37 +11164,37 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>MAERSK HAVANA</t>
+          <t>SANTA ISABEL</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>9784336</t>
+          <t>9444728</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2023-08-24T15:00:00</t>
+          <t>2023-06-08T12:00:00</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2023-08-25T23:00:00</t>
+          <t>2023-06-13T13:00:00</t>
         </is>
       </c>
     </row>
@@ -11204,37 +11204,37 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>MAERSK HAVANA</t>
+          <t>SANTA ISABEL</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>9784336</t>
+          <t>9444728</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Port Tangier Mediterranee</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>MAPTM</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2023-08-27T07:00:00</t>
+          <t>2023-06-24T07:00:00</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2023-08-28T07:00:00</t>
+          <t>2023-06-24T16:00:00</t>
         </is>
       </c>
     </row>
@@ -11254,27 +11254,27 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2023-05-31T22:00:00</t>
+          <t>2023-06-28T07:00:00</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2023-06-04T12:00:00</t>
+          <t>2023-06-29T19:00:00</t>
         </is>
       </c>
     </row>
@@ -11294,27 +11294,27 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>London Gateway</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>GBLGP</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2023-06-08T12:00:00</t>
+          <t>2023-06-30T06:00:00</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2023-06-13T13:00:00</t>
+          <t>2023-07-01T02:00:00</t>
         </is>
       </c>
     </row>
@@ -11334,27 +11334,27 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Port Tangier Mediterranee</t>
+          <t>Bremerhaven</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>MAPTM</t>
+          <t>DEBRV</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2023-06-24T07:00:00</t>
+          <t>2023-07-02T18:00:00</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2023-06-24T16:00:00</t>
+          <t>2023-07-04T00:01:00</t>
         </is>
       </c>
     </row>
@@ -11374,27 +11374,27 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2023-06-28T07:00:00</t>
+          <t>2023-07-09T02:00:00</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2023-06-29T19:00:00</t>
+          <t>2023-07-10T00:30:00</t>
         </is>
       </c>
     </row>
@@ -11414,27 +11414,27 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>London Gateway</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>GBLGP</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2023-06-30T06:00:00</t>
+          <t>2023-07-10T08:00:00</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2023-07-01T02:00:00</t>
+          <t>2023-07-10T14:00:00</t>
         </is>
       </c>
     </row>
@@ -11454,27 +11454,27 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Bremerhaven</t>
+          <t>Port Elizabeth</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>DEBRV</t>
+          <t>ZAPLZ</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2023-07-02T18:00:00</t>
+          <t>2023-07-26T06:00:00</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2023-07-04T00:01:00</t>
+          <t>2023-07-27T18:00:00</t>
         </is>
       </c>
     </row>
@@ -11494,27 +11494,27 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2023-07-09T02:00:00</t>
+          <t>2023-08-01T22:00:00</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2023-07-10T00:30:00</t>
+          <t>2023-08-04T22:00:00</t>
         </is>
       </c>
     </row>
@@ -11534,27 +11534,27 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2023-07-10T08:00:00</t>
+          <t>2023-08-11T05:00:00</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2023-07-10T14:00:00</t>
+          <t>2023-08-14T06:00:00</t>
         </is>
       </c>
     </row>
@@ -11574,27 +11574,27 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>Port Tangier Mediterranee</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>ZAPLZ</t>
+          <t>MAPTM</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2023-07-26T06:00:00</t>
+          <t>2023-08-25T07:00:00</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2023-07-27T18:00:00</t>
+          <t>2023-08-25T16:00:00</t>
         </is>
       </c>
     </row>
@@ -11604,37 +11604,37 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>SANTA BARBARA</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>9444728</t>
+          <t>9430399</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2023-08-01T22:00:00</t>
+          <t>2023-06-04T21:00:00</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2023-08-04T22:00:00</t>
+          <t>2023-06-05T14:00:00</t>
         </is>
       </c>
     </row>
@@ -11644,37 +11644,37 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>SANTA BARBARA</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>9444728</t>
+          <t>9430399</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2023-08-11T05:00:00</t>
+          <t>2023-06-11T01:00:00</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2023-08-14T06:00:00</t>
+          <t>2023-06-11T11:00:00</t>
         </is>
       </c>
     </row>
@@ -11684,37 +11684,37 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>SANTA BARBARA</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>9444728</t>
+          <t>9430399</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Port Tangier Mediterranee</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>MAPTM</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2023-08-25T07:00:00</t>
+          <t>2023-06-15T07:00:00</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2023-08-25T16:00:00</t>
+          <t>2023-06-16T19:00:00</t>
         </is>
       </c>
     </row>
@@ -11734,27 +11734,27 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2023-06-04T21:00:00</t>
+          <t>2023-06-18T04:30:00</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2023-06-05T14:00:00</t>
+          <t>2023-06-19T04:00:00</t>
         </is>
       </c>
     </row>
@@ -11774,27 +11774,27 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2023-06-11T01:00:00</t>
+          <t>2023-06-24T22:00:00</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2023-06-11T11:00:00</t>
+          <t>2023-06-25T08:00:00</t>
         </is>
       </c>
     </row>
@@ -11814,27 +11814,27 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2023-06-15T07:00:00</t>
+          <t>2023-06-29T19:00:00</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2023-06-16T19:00:00</t>
+          <t>2023-06-30T20:00:00</t>
         </is>
       </c>
     </row>
@@ -11854,27 +11854,27 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Port Louis</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>MUPLU</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2023-06-18T04:30:00</t>
+          <t>2023-07-10T06:00:00</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2023-06-19T04:00:00</t>
+          <t>2023-07-11T04:00:00</t>
         </is>
       </c>
     </row>
@@ -11894,27 +11894,27 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2023-06-24T22:00:00</t>
+          <t>2023-07-15T08:00:00</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2023-06-25T08:00:00</t>
+          <t>2023-07-21T14:00:00</t>
         </is>
       </c>
     </row>
@@ -11949,12 +11949,12 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2023-06-29T19:00:00</t>
+          <t>2023-08-07T21:00:00</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2023-06-30T20:00:00</t>
+          <t>2023-08-08T14:00:00</t>
         </is>
       </c>
     </row>
@@ -11974,27 +11974,27 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Port Louis</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>MUPLU</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2023-07-10T06:00:00</t>
+          <t>2023-08-14T01:00:00</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2023-07-11T04:00:00</t>
+          <t>2023-08-14T11:00:00</t>
         </is>
       </c>
     </row>
@@ -12014,27 +12014,27 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2023-07-15T08:00:00</t>
+          <t>2023-08-18T07:00:00</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2023-07-21T14:00:00</t>
+          <t>2023-08-19T19:00:00</t>
         </is>
       </c>
     </row>
@@ -12054,27 +12054,27 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2023-08-07T21:00:00</t>
+          <t>2023-08-21T04:30:00</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2023-08-08T14:00:00</t>
+          <t>2023-08-22T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12094,27 +12094,27 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2023-08-14T01:00:00</t>
+          <t>2023-08-27T22:00:00</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2023-08-14T11:00:00</t>
+          <t>2023-08-28T08:00:00</t>
         </is>
       </c>
     </row>
@@ -12124,12 +12124,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SANTA BARBARA</t>
+          <t>SANTA URSULA</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>9430399</t>
+          <t>9430387</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -12149,12 +12149,12 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2023-08-18T07:00:00</t>
+          <t>2023-06-01T05:07:00</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2023-08-19T19:00:00</t>
+          <t>2023-06-02T06:00:00</t>
         </is>
       </c>
     </row>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SANTA BARBARA</t>
+          <t>SANTA URSULA</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>9430399</t>
+          <t>9430387</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -12189,12 +12189,12 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2023-08-21T04:30:00</t>
+          <t>2023-06-03T14:15:00</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2023-08-22T04:00:00</t>
+          <t>2023-06-04T13:45:00</t>
         </is>
       </c>
     </row>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>SANTA BARBARA</t>
+          <t>SANTA URSULA</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>9430399</t>
+          <t>9430387</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -12229,12 +12229,12 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2023-08-27T22:00:00</t>
+          <t>2023-06-10T22:00:00</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2023-08-28T08:00:00</t>
+          <t>2023-06-11T08:00:00</t>
         </is>
       </c>
     </row>
@@ -12254,27 +12254,27 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2023-06-01T08:00:00</t>
+          <t>2023-06-15T19:00:00</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2023-06-02T20:00:00</t>
+          <t>2023-06-16T20:00:00</t>
         </is>
       </c>
     </row>
@@ -12294,27 +12294,27 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Port Louis</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>MUPLU</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2023-06-03T10:00:00</t>
+          <t>2023-06-26T06:00:00</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2023-06-04T09:30:00</t>
+          <t>2023-06-27T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12334,27 +12334,27 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>2023-06-10T22:00:00</t>
+          <t>2023-07-01T08:00:00</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2023-06-11T08:00:00</t>
+          <t>2023-07-07T14:00:00</t>
         </is>
       </c>
     </row>
@@ -12389,12 +12389,12 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>2023-06-15T19:00:00</t>
+          <t>2023-07-23T21:00:00</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2023-06-16T20:00:00</t>
+          <t>2023-07-24T14:00:00</t>
         </is>
       </c>
     </row>
@@ -12414,27 +12414,27 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Port Louis</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>MUPLU</t>
+          <t>HKHKG</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Hong Kong China</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>2023-06-26T06:00:00</t>
+          <t>2023-07-30T01:00:00</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2023-06-27T04:00:00</t>
+          <t>2023-07-30T11:00:00</t>
         </is>
       </c>
     </row>
@@ -12454,27 +12454,27 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>2023-07-01T08:00:00</t>
+          <t>2023-08-03T07:00:00</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2023-07-07T14:00:00</t>
+          <t>2023-08-04T19:00:00</t>
         </is>
       </c>
     </row>
@@ -12494,27 +12494,27 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>2023-07-23T21:00:00</t>
+          <t>2023-08-06T04:30:00</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2023-07-24T14:00:00</t>
+          <t>2023-08-07T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12534,27 +12534,27 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>HKHKG</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Hong Kong China</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>2023-07-30T01:00:00</t>
+          <t>2023-08-12T22:00:00</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2023-07-30T11:00:00</t>
+          <t>2023-08-13T08:00:00</t>
         </is>
       </c>
     </row>
@@ -12574,27 +12574,27 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Tanjung Pelepas</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>MYTPP</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>2023-08-03T07:00:00</t>
+          <t>2023-08-17T19:00:00</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2023-08-04T19:00:00</t>
+          <t>2023-08-18T20:00:00</t>
         </is>
       </c>
     </row>
@@ -12614,27 +12614,27 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Port Louis</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>MUPLU</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>2023-08-06T04:30:00</t>
+          <t>2023-08-28T06:00:00</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2023-08-07T04:00:00</t>
+          <t>2023-08-29T04:00:00</t>
         </is>
       </c>
     </row>
@@ -12644,37 +12644,37 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>SANTA URSULA</t>
+          <t>SANTA RITA</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>9430387</t>
+          <t>9425382</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Shekou</t>
+          <t>Port Elizabeth</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CNSHK</t>
+          <t>ZAPLZ</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2023-08-12T22:00:00</t>
+          <t>2023-06-05T16:00:00</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2023-08-13T08:00:00</t>
+          <t>2023-06-06T16:00:00</t>
         </is>
       </c>
     </row>
@@ -12684,37 +12684,37 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>SANTA URSULA</t>
+          <t>SANTA RITA</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>9430387</t>
+          <t>9425382</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Tanjung Pelepas</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>MYTPP</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>2023-08-17T19:00:00</t>
+          <t>2023-06-10T22:00:00</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2023-08-18T20:00:00</t>
+          <t>2023-06-13T22:00:00</t>
         </is>
       </c>
     </row>
@@ -12734,12 +12734,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>ZAPLZ</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -12749,12 +12749,12 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>2023-06-05T16:00:00</t>
+          <t>2023-06-20T05:00:00</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2023-06-06T16:00:00</t>
+          <t>2023-06-23T06:00:00</t>
         </is>
       </c>
     </row>
@@ -12774,27 +12774,27 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Port Tangier Mediterranee</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>MAPTM</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2023-06-11T16:00:00</t>
+          <t>2023-07-07T07:00:00</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2023-06-14T16:00:00</t>
+          <t>2023-07-07T16:00:00</t>
         </is>
       </c>
     </row>
@@ -12814,27 +12814,27 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>2023-06-20T05:00:00</t>
+          <t>2023-07-11T07:00:00</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2023-06-23T06:00:00</t>
+          <t>2023-07-12T19:00:00</t>
         </is>
       </c>
     </row>
@@ -12854,27 +12854,27 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Port Tangier Mediterranee</t>
+          <t>London Gateway</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MAPTM</t>
+          <t>GBLGP</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>2023-07-07T07:00:00</t>
+          <t>2023-07-14T02:00:00</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2023-07-07T16:00:00</t>
+          <t>2023-07-14T22:00:00</t>
         </is>
       </c>
     </row>
@@ -12894,27 +12894,27 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Bremerhaven</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>DEBRV</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>2023-07-11T07:00:00</t>
+          <t>2023-07-16T18:00:00</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2023-07-12T19:00:00</t>
+          <t>2023-07-18T00:01:00</t>
         </is>
       </c>
     </row>
@@ -12934,27 +12934,27 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>London Gateway</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>GBLGP</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2023-07-14T02:00:00</t>
+          <t>2023-07-23T02:00:00</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2023-07-14T22:00:00</t>
+          <t>2023-07-24T00:30:00</t>
         </is>
       </c>
     </row>
@@ -12974,27 +12974,27 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Bremerhaven</t>
+          <t>Algeciras</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>DEBRV</t>
+          <t>ESALG</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>2023-07-16T18:00:00</t>
+          <t>2023-07-24T08:00:00</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2023-07-18T00:01:00</t>
+          <t>2023-07-24T14:00:00</t>
         </is>
       </c>
     </row>
@@ -13014,27 +13014,27 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Port Elizabeth</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>ZAPLZ</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>2023-07-23T02:00:00</t>
+          <t>2023-08-09T06:00:00</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2023-07-24T00:30:00</t>
+          <t>2023-08-10T18:00:00</t>
         </is>
       </c>
     </row>
@@ -13054,27 +13054,27 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Algeciras</t>
+          <t>Durban</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>ESALG</t>
+          <t>ZADUR</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>2023-07-24T08:00:00</t>
+          <t>2023-08-15T22:00:00</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2023-07-24T14:00:00</t>
+          <t>2023-08-18T22:00:00</t>
         </is>
       </c>
     </row>
@@ -13094,12 +13094,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Port Elizabeth</t>
+          <t>Cape Town</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ZAPLZ</t>
+          <t>ZACPT</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -13109,12 +13109,12 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>2023-08-09T06:00:00</t>
+          <t>2023-08-25T05:00:00</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2023-08-10T18:00:00</t>
+          <t>2023-08-28T06:00:00</t>
         </is>
       </c>
     </row>
@@ -13124,37 +13124,37 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>SANTA RITA</t>
+          <t>MAERSK HOUSTON</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>9425382</t>
+          <t>9848950</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Durban</t>
+          <t>Xingang</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ZADUR</t>
+          <t>CNTXG</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>2023-08-15T22:00:00</t>
+          <t>2023-06-04T11:00:00</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2023-08-18T22:00:00</t>
+          <t>2023-06-06T11:00:00</t>
         </is>
       </c>
     </row>
@@ -13164,37 +13164,37 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>SANTA RITA</t>
+          <t>MAERSK HOUSTON</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>9425382</t>
+          <t>9848950</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Cape Town</t>
+          <t>Dalian</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>ZACPT</t>
+          <t>CNDLC</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>2023-08-25T05:00:00</t>
+          <t>2023-06-07T22:00:00</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2023-08-28T06:00:00</t>
+          <t>2023-06-08T18:00:00</t>
         </is>
       </c>
     </row>
@@ -13214,27 +13214,27 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Xingang</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CNTXG</t>
+          <t>KRPUS</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>2023-06-04T11:00:00</t>
+          <t>2023-06-10T17:00:00</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2023-06-06T11:00:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -13254,27 +13254,27 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Dalian</t>
+          <t>Ulsan</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CNDLC</t>
+          <t>KRUSN</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2023-06-07T22:00:00</t>
+          <t>2023-06-12T19:30:00</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2023-06-08T18:00:00</t>
+          <t>2023-06-12T20:30:00</t>
         </is>
       </c>
     </row>
@@ -13294,27 +13294,27 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Ningbo</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>KRPUS</t>
+          <t>CNNGB</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2023-06-10T17:00:00</t>
+          <t>2023-06-15T15:00:00</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-16T23:00:00</t>
         </is>
       </c>
     </row>
@@ -13334,27 +13334,27 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Ulsan</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>KRUSN</t>
+          <t>CNSHA</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>2023-06-12T19:30:00</t>
+          <t>2023-06-18T07:00:00</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2023-06-12T20:30:00</t>
+          <t>2023-06-19T07:00:00</t>
         </is>
       </c>
     </row>
@@ -13374,12 +13374,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Ningbo</t>
+          <t>Shekou</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CNNGB</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -13389,12 +13389,12 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>2023-06-15T15:00:00</t>
+          <t>2023-06-21T18:00:00</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2023-06-16T23:00:00</t>
+          <t>2023-06-22T07:00:00</t>
         </is>
       </c>
     </row>
@@ -13414,27 +13414,27 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>CNSHA</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>2023-06-18T07:00:00</t>
+          <t>2023-06-26T02:00:00</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2023-06-19T07:00:00</t>
+          <t>2023-06-27T01:00:00</t>
         </is>
       </c>
     </row>
@@ -13454,27 +13454,23 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Shekou</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>CNSHK</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>2023-06-21T18:00:00</t>
+          <t>2023-07-09T23:00:00</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2023-06-22T07:00:00</t>
+          <t>2023-07-09T23:01:00</t>
         </is>
       </c>
     </row>
@@ -13494,27 +13490,23 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>SGSIN</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>2023-06-26T02:00:00</t>
+          <t>2023-07-10T14:59:00</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2023-06-27T01:00:00</t>
+          <t>2023-07-10T15:00:00</t>
         </is>
       </c>
     </row>
@@ -13534,10 +13526,14 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr"/>
+          <t>Port Said East</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>EGPSE</t>
+        </is>
+      </c>
       <c r="F331" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -13545,12 +13541,12 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>2023-07-09T23:00:00</t>
+          <t>2023-07-10T18:00:00</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2023-07-09T23:01:00</t>
+          <t>2023-07-12T01:00:00</t>
         </is>
       </c>
     </row>
@@ -13570,23 +13566,27 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr"/>
+          <t>Haifa</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>ILHFA</t>
+        </is>
+      </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2023-07-10T14:59:00</t>
+          <t>2023-07-12T22:00:00</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2023-07-10T15:00:00</t>
+          <t>2023-07-14T02:00:00</t>
         </is>
       </c>
     </row>
@@ -13606,27 +13606,27 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Port Said East</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>EGPSE</t>
+          <t>SIKOP</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2023-07-10T18:00:00</t>
+          <t>2023-07-17T14:00:00</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2023-07-12T01:00:00</t>
+          <t>2023-07-20T07:00:00</t>
         </is>
       </c>
     </row>
@@ -13646,27 +13646,27 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>ILHFA</t>
+          <t>ITTRS</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2023-07-12T22:00:00</t>
+          <t>2023-07-20T11:00:00</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2023-07-14T02:00:00</t>
+          <t>2023-07-21T11:00:00</t>
         </is>
       </c>
     </row>
@@ -13686,27 +13686,27 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>SIKOP</t>
+          <t>HRRJK</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2023-07-17T14:00:00</t>
+          <t>2023-07-21T22:00:00</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2023-07-20T07:00:00</t>
+          <t>2023-07-23T14:00:00</t>
         </is>
       </c>
     </row>
@@ -13741,12 +13741,12 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2023-07-20T11:00:00</t>
+          <t>2023-07-24T02:00:00</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2023-07-21T11:00:00</t>
+          <t>2023-07-27T02:00:00</t>
         </is>
       </c>
     </row>
@@ -13766,27 +13766,27 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Port Said East</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>HRRJK</t>
+          <t>EGPSE</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>2023-07-21T22:00:00</t>
+          <t>2023-07-30T10:00:00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2023-07-23T14:00:00</t>
+          <t>2023-08-01T05:00:00</t>
         </is>
       </c>
     </row>
@@ -13806,27 +13806,23 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Trieste</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>ITTRS</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2023-07-24T02:00:00</t>
+          <t>2023-08-01T06:00:00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2023-07-27T02:00:00</t>
+          <t>2023-08-01T06:01:00</t>
         </is>
       </c>
     </row>
@@ -13846,14 +13842,10 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Port Said East</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>EGPSE</t>
-        </is>
-      </c>
+          <t>Suez Canal</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
           <t>Egypt</t>
@@ -13861,12 +13853,12 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2023-07-30T10:00:00</t>
+          <t>2023-08-01T14:59:00</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2023-08-01T05:00:00</t>
+          <t>2023-08-01T15:00:00</t>
         </is>
       </c>
     </row>
@@ -13886,23 +13878,27 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr"/>
+          <t>King Abdullah Port</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>SAKAC</t>
+        </is>
+      </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>2023-08-01T06:00:00</t>
+          <t>2023-08-03T13:00:00</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2023-08-01T06:01:00</t>
+          <t>2023-08-04T10:00:00</t>
         </is>
       </c>
     </row>
@@ -13922,23 +13918,27 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Suez Canal</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr"/>
+          <t>Jeddah</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>SAJED</t>
+        </is>
+      </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2023-08-01T14:59:00</t>
+          <t>2023-08-04T19:00:00</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2023-08-01T15:00:00</t>
+          <t>2023-08-05T15:00:00</t>
         </is>
       </c>
     </row>
@@ -13958,27 +13958,27 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>King Abdullah Port</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>SAKAC</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2023-08-03T13:00:00</t>
+          <t>2023-08-17T21:00:00</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2023-08-04T10:00:00</t>
+          <t>2023-08-19T04:00:00</t>
         </is>
       </c>
     </row>
@@ -13988,37 +13988,37 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>MAERSK HOUSTON</t>
+          <t>MAERSK BRATAN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>9848950</t>
+          <t>9394894</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>SAJED</t>
+          <t>COCTG</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2023-08-04T19:00:00</t>
+          <t>2023-06-08T07:00:00</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2023-08-05T15:00:00</t>
+          <t>2023-06-08T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14028,37 +14028,37 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>MAERSK HOUSTON</t>
+          <t>MAERSK BRATAN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>9848950</t>
+          <t>9394894</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>SGSIN</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>2023-08-17T21:00:00</t>
+          <t>2023-06-09T19:00:00</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2023-08-19T04:00:00</t>
+          <t>2023-06-10T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14078,27 +14078,27 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>COCTG</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>2023-06-08T07:00:00</t>
+          <t>2023-06-10T22:00:00</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2023-06-08T18:00:00</t>
+          <t>2023-06-11T17:30:00</t>
         </is>
       </c>
     </row>
@@ -14118,12 +14118,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -14133,12 +14133,12 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2023-06-09T19:00:00</t>
+          <t>2023-06-11T18:00:00</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2023-06-10T18:00:00</t>
+          <t>2023-06-12T14:00:00</t>
         </is>
       </c>
     </row>
@@ -14158,27 +14158,27 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2023-06-10T22:00:00</t>
+          <t>2023-06-16T07:00:00</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2023-06-11T17:30:00</t>
+          <t>2023-06-17T07:00:00</t>
         </is>
       </c>
     </row>
@@ -14198,27 +14198,27 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2023-06-11T18:00:00</t>
+          <t>2023-06-21T15:30:00</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2023-06-12T14:00:00</t>
+          <t>2023-06-23T01:30:00</t>
         </is>
       </c>
     </row>
@@ -14238,12 +14238,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -14253,12 +14253,12 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>2023-06-16T07:00:00</t>
+          <t>2023-06-25T20:00:00</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2023-06-17T07:00:00</t>
+          <t>2023-06-26T08:00:00</t>
         </is>
       </c>
     </row>
@@ -14278,27 +14278,27 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2023-06-21T15:30:00</t>
+          <t>2023-06-30T01:00:00</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2023-06-23T01:30:00</t>
+          <t>2023-06-30T14:30:00</t>
         </is>
       </c>
     </row>
@@ -14318,27 +14318,27 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Pisco</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>PEPIO</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>2023-06-25T20:00:00</t>
+          <t>2023-06-30T22:00:00</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2023-06-26T08:00:00</t>
+          <t>2023-07-01T17:30:00</t>
         </is>
       </c>
     </row>
@@ -14358,12 +14358,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -14373,12 +14373,12 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>2023-06-30T01:00:00</t>
+          <t>2023-07-01T19:00:00</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2023-06-30T14:30:00</t>
+          <t>2023-07-02T17:00:00</t>
         </is>
       </c>
     </row>
@@ -14398,27 +14398,27 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>BEANR</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>2023-06-30T22:00:00</t>
+          <t>2023-07-15T06:00:00</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2023-07-01T17:30:00</t>
+          <t>2023-07-16T06:00:00</t>
         </is>
       </c>
     </row>
@@ -14438,27 +14438,27 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Rotterdam</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>NLRTM</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>2023-07-01T19:00:00</t>
+          <t>2023-07-17T00:01:00</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2023-07-02T17:00:00</t>
+          <t>2023-07-17T20:00:00</t>
         </is>
       </c>
     </row>
@@ -14478,27 +14478,27 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>BEANR</t>
+          <t>DEHAM</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>2023-07-15T06:00:00</t>
+          <t>2023-07-19T23:00:00</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2023-07-16T06:00:00</t>
+          <t>2023-07-20T15:00:00</t>
         </is>
       </c>
     </row>
@@ -14518,27 +14518,27 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Rotterdam</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>NLRTM</t>
+          <t>COCTG</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>2023-07-17T00:01:00</t>
+          <t>2023-08-03T07:00:00</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2023-07-17T20:00:00</t>
+          <t>2023-08-03T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14558,27 +14558,27 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>DEHAM</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>2023-07-19T23:00:00</t>
+          <t>2023-08-04T19:00:00</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2023-07-20T15:00:00</t>
+          <t>2023-08-05T18:00:00</t>
         </is>
       </c>
     </row>
@@ -14598,27 +14598,27 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>COCTG</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>2023-08-03T07:00:00</t>
+          <t>2023-08-05T22:00:00</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>2023-08-03T18:00:00</t>
+          <t>2023-08-06T17:30:00</t>
         </is>
       </c>
     </row>
@@ -14638,12 +14638,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Manzanillo</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>PAMIT</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -14653,12 +14653,12 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2023-08-04T19:00:00</t>
+          <t>2023-08-06T18:00:00</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2023-08-05T18:00:00</t>
+          <t>2023-08-07T14:00:00</t>
         </is>
       </c>
     </row>
@@ -14678,27 +14678,27 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Panama Canal</t>
+          <t>Callao</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>PAPCN</t>
+          <t>PECLL</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2023-08-05T22:00:00</t>
+          <t>2023-08-11T07:00:00</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>2023-08-06T17:30:00</t>
+          <t>2023-08-12T07:00:00</t>
         </is>
       </c>
     </row>
@@ -14718,27 +14718,27 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Valparaiso</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>CLVAP</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2023-08-06T18:00:00</t>
+          <t>2023-08-16T15:30:00</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>2023-08-07T14:00:00</t>
+          <t>2023-08-18T01:30:00</t>
         </is>
       </c>
     </row>
@@ -14758,12 +14758,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Callao</t>
+          <t>Pisco</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>PECLL</t>
+          <t>PEPIO</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -14773,12 +14773,12 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2023-08-11T07:00:00</t>
+          <t>2023-08-20T20:00:00</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>2023-08-12T07:00:00</t>
+          <t>2023-08-21T08:00:00</t>
         </is>
       </c>
     </row>
@@ -14798,27 +14798,27 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>CLVAP</t>
+          <t>PABLB</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2023-08-16T15:30:00</t>
+          <t>2023-08-25T01:00:00</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2023-08-18T01:30:00</t>
+          <t>2023-08-25T14:30:00</t>
         </is>
       </c>
     </row>
@@ -14838,27 +14838,27 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Pisco</t>
+          <t>Panama Canal</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>PEPIO</t>
+          <t>PAPCN</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>2023-08-20T20:00:00</t>
+          <t>2023-08-25T22:00:00</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>2023-08-21T08:00:00</t>
+          <t>2023-08-26T17:30:00</t>
         </is>
       </c>
     </row>
@@ -14878,12 +14878,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>PABLB</t>
+          <t>PAMIT</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -14893,90 +14893,10 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>2023-08-25T01:00:00</t>
+          <t>2023-08-26T19:00:00</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
-        <is>
-          <t>2023-08-25T14:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>MAERSK BRATAN</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>9394894</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>Panama Canal</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>PAPCN</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>2023-08-25T22:00:00</t>
-        </is>
-      </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2023-08-26T17:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>MAERSK BRATAN</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>9394894</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>Manzanillo</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>PAMIT</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>2023-08-26T19:00:00</t>
-        </is>
-      </c>
-      <c r="H367" t="inlineStr">
         <is>
           <t>2023-08-27T17:00:00</t>
         </is>
